--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\OneDrive\문서\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289E7631-633A-4E7A-B6E3-C47E1A03763C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0376FB-54DF-4CE5-8634-D2FB7AAD54FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>마약류통합관리시스템 (https://www.nims.or.kr) &gt; sims 연동</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -894,6 +894,26 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">                            확인 눌러줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                          보고율 100% 면 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                          별 문제 없는거야 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                             순번의 수와 일일에서 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                             파악한 수가 같은지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1063,7 +1083,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1408,13 +1428,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1520,31 +1551,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
@@ -1556,6 +1584,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1563,90 +1597,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
@@ -1685,13 +1635,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4859,13 +4908,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>144781</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>93345</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>284906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4895,8 +4944,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8161021" y="3467100"/>
-          <a:ext cx="2644139" cy="267761"/>
+          <a:off x="7269481" y="3926205"/>
+          <a:ext cx="2691764" cy="254426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4909,13 +4958,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>251459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4973,13 +5022,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5037,13 +5086,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>398167</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>283867</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5087,13 +5136,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>129541</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>305865</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5137,13 +5186,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5977,7 +6026,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -6022,7 +6071,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -6067,7 +6116,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -6112,7 +6161,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1638300" cy="251460"/>
@@ -6157,7 +6206,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2004060" cy="209484"/>
@@ -6202,7 +6251,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>30479</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2049781" cy="228600"/>
@@ -6247,13 +6296,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6311,13 +6360,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6375,7 +6424,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="586740" cy="382189"/>
@@ -6420,7 +6469,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="655320" cy="191556"/>
@@ -6465,7 +6514,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914479" cy="289585"/>
@@ -6510,7 +6559,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>640079</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="708661" cy="225104"/>
@@ -6555,7 +6604,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1447800" cy="230542"/>
@@ -6600,7 +6649,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>632461</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="616528" cy="228600"/>
@@ -6645,7 +6694,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1493520" cy="259080"/>
@@ -6690,7 +6739,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="835193" cy="259080"/>
@@ -6735,7 +6784,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>83821</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="815339" cy="253737"/>
@@ -6780,7 +6829,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="797418" cy="243839"/>
@@ -6825,13 +6874,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6888,7 +6937,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914479" cy="289585"/>
@@ -6933,7 +6982,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>640079</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="708661" cy="225104"/>
@@ -6978,7 +7027,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1447800" cy="230542"/>
@@ -7023,7 +7072,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>632461</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="616528" cy="228600"/>
@@ -7068,7 +7117,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1493520" cy="259080"/>
@@ -7113,7 +7162,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="835193" cy="259080"/>
@@ -7158,7 +7207,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>83821</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="815339" cy="253737"/>
@@ -7203,7 +7252,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="797418" cy="243839"/>
@@ -7248,13 +7297,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7311,7 +7360,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>51906</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1021080" cy="222414"/>
@@ -7356,7 +7405,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1473800" cy="182880"/>
@@ -7401,7 +7450,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="655320" cy="258680"/>
@@ -7446,7 +7495,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>487679</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2621928" cy="556260"/>
@@ -7491,13 +7540,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7619,7 +7668,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -7664,7 +7713,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2103120" cy="236220"/>
@@ -7709,13 +7758,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7773,7 +7822,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>144781</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2644139" cy="267761"/>
@@ -7818,13 +7867,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>251459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7882,13 +7931,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7946,7 +7995,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="259102" cy="259102"/>
@@ -7991,7 +8040,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>129541</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2042159" cy="283004"/>
@@ -8351,13 +8400,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8414,13 +8463,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8478,13 +8527,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8541,13 +8590,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8605,7 +8654,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -8650,7 +8699,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -8695,7 +8744,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -8740,13 +8789,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8811,13 +8860,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8871,7 +8920,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182879</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>33802</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167641" cy="240716"/>
@@ -8916,13 +8965,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>53341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8980,7 +9029,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9025,13 +9074,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9089,7 +9138,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -9134,7 +9183,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -9179,7 +9228,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9224,13 +9273,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>163830</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9320,13 +9369,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>240031</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>396241</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9405,7 +9454,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -9450,7 +9499,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -9495,7 +9544,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>59054</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="154306" cy="221567"/>
@@ -9540,7 +9589,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9585,13 +9634,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9635,13 +9684,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>72390</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>210813</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9685,13 +9734,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>72391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>246522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9735,14 +9784,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>156209</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>441959</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>249556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9785,7 +9834,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>205739</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>41422</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167641" cy="240716"/>
@@ -9830,13 +9879,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9905,13 +9954,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10166,6 +10215,94 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>254133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08EA87D-29B6-5317-20BE-B61D4A5A554C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181851" y="3962400"/>
+          <a:ext cx="1752600" cy="1444758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333451</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>276258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{815AE708-8930-CB06-BADF-FED6FAAC43C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="7077075"/>
+          <a:ext cx="543001" cy="238158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10472,10 +10609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E280DA-2D42-45F4-819A-68D3B6CA9BBF}">
-  <dimension ref="A1:W79"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10491,300 +10629,300 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
-      <c r="S2" s="47" t="s">
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="72"/>
+      <c r="S2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-      <c r="G3" s="50" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
+      <c r="G3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="72"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="80"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="74"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="53"/>
     </row>
     <row r="4" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="39"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="39"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="42"/>
     </row>
     <row r="5" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="G5" s="35" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="G5" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="39"/>
-      <c r="S5" s="35" t="s">
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="42"/>
+      <c r="S5" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="39"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="42"/>
     </row>
     <row r="6" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="G6" s="59" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="G6" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="80"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="39"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="39"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="42"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="42"/>
     </row>
     <row r="7" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="G7" s="35" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="G7" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
-      <c r="S7" s="35" t="s">
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="42"/>
+      <c r="S7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="39"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="42"/>
     </row>
     <row r="8" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="G8" s="53" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="G8" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="55"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="39"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="42"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="G9" s="53" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="G9" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="35" t="s">
+      <c r="M9" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="S9" s="35" t="s">
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="42"/>
+      <c r="S9" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="39"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="42"/>
     </row>
     <row r="10" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="G10" s="56" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="G10" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="S10" s="50" t="s">
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="42"/>
+      <c r="S10" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="52"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="69"/>
     </row>
     <row r="11" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="G11" s="59" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="G11" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="39"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="42"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="42"/>
     </row>
     <row r="12" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
       <c r="G12" s="9" t="s">
         <v>5</v>
       </c>
@@ -10793,111 +10931,113 @@
       <c r="J12" s="1"/>
       <c r="K12" s="8"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="35" t="s">
+      <c r="M12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="39"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="42"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="42"/>
     </row>
     <row r="13" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="G13" s="84" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="G13" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="37"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="39"/>
+      <c r="M13" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="G14" s="87" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="G14" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="39"/>
-      <c r="S14" s="35" t="s">
+      <c r="M14" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="S14" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="39"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="42"/>
     </row>
     <row r="15" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="G15" s="81" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="G15" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="83"/>
-      <c r="M15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="39"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
+      <c r="M15" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="80"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="42"/>
     </row>
     <row r="16" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
       <c r="G16" s="20" t="s">
         <v>11</v>
       </c>
@@ -10905,27 +11045,25 @@
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="K16" s="22"/>
-      <c r="M16" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="39"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="39"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="10"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="42"/>
     </row>
     <row r="17" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
       <c r="G17" s="17" t="s">
         <v>14</v>
       </c>
@@ -10933,39 +11071,35 @@
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="24"/>
-      <c r="M17" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="39"/>
-      <c r="S17" s="75" t="s">
+      <c r="M17" s="95"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="10"/>
+      <c r="S17" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="77"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="66"/>
     </row>
     <row r="18" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="83"/>
-      <c r="M18" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="39"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="47"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -10973,13 +11107,13 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
       <c r="G19" s="20" t="s">
         <v>12</v>
       </c>
@@ -10987,43 +11121,43 @@
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="22"/>
-      <c r="M19" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="37"/>
+      <c r="M19" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="42"/>
     </row>
-    <row r="20" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
       <c r="G20" s="17"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
       <c r="K20" s="24"/>
       <c r="M20" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="74"/>
+        <v>21</v>
+      </c>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="42"/>
     </row>
     <row r="21" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
       <c r="G21" s="9" t="s">
         <v>15</v>
       </c>
@@ -11031,18 +11165,20 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="8"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="M21" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="42"/>
     </row>
     <row r="22" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
       <c r="G22" s="9" t="s">
         <v>5</v>
       </c>
@@ -11050,15 +11186,22 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="8"/>
+      <c r="M22" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="42"/>
     </row>
     <row r="23" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
       <c r="G23" s="9" t="s">
         <v>16</v>
       </c>
@@ -11066,34 +11209,53 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="8"/>
+      <c r="M23" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
     </row>
     <row r="24" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="8"/>
+      <c r="M24" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
     </row>
     <row r="25" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="8"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -11104,6 +11266,13 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="8"/>
+      <c r="M26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G27" s="11" t="s">
@@ -11113,206 +11282,213 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="13"/>
+      <c r="M27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="39"/>
+    </row>
     <row r="29" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="6:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="6:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F37" s="1"/>
-      <c r="G37" s="4" t="s">
+    <row r="35" spans="6:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="6:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="1"/>
+      <c r="G36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="M37" s="90" t="s">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="M36" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N37" s="91"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="91"/>
-      <c r="Q37" s="92"/>
-      <c r="S37" s="47" t="s">
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="33"/>
+      <c r="S36" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="49"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="37"/>
+    </row>
+    <row r="37" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="19"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="29"/>
     </row>
     <row r="38" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="M38" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="46"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
-      <c r="W38" s="80"/>
+      <c r="G38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c r="Q38" s="10"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="8"/>
     </row>
     <row r="39" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="37"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="39"/>
+      <c r="G39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="M39" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q39" s="10"/>
+      <c r="S39" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="8"/>
     </row>
     <row r="40" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="M40" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="37"/>
-      <c r="S40" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="39"/>
+      <c r="G40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="M40" s="9"/>
+      <c r="Q40" s="10"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="8"/>
     </row>
     <row r="41" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G41" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="37"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="39"/>
+      <c r="G41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="M41" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q41" s="10"/>
+      <c r="S41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="8"/>
     </row>
     <row r="42" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G42" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="M42" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="37"/>
-      <c r="S42" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="39"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="8"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="8"/>
     </row>
     <row r="43" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M43" s="35"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="39"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="39"/>
+      <c r="M43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="8"/>
+      <c r="S43" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="8"/>
     </row>
-    <row r="44" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M44" s="9" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="8"/>
-      <c r="S44" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="8"/>
+      <c r="S44" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="16"/>
     </row>
-    <row r="45" spans="6:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M45" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="8"/>
-      <c r="S45" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="16"/>
+    <row r="45" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M45" s="9"/>
+      <c r="Q45" s="10"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="29"/>
     </row>
     <row r="46" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M46" s="9"/>
-      <c r="Q46" s="10"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="29"/>
+      <c r="M46" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="8"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="8"/>
     </row>
     <row r="47" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M47" s="9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="8"/>
-      <c r="S47" s="9"/>
+      <c r="S47" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
@@ -11320,15 +11496,13 @@
     </row>
     <row r="48" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M48" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="8"/>
-      <c r="S48" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="S48" s="9"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
@@ -11336,13 +11510,15 @@
     </row>
     <row r="49" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M49" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="8"/>
-      <c r="S49" s="9"/>
+      <c r="S49" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
@@ -11350,15 +11526,13 @@
     </row>
     <row r="50" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M50" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="8"/>
-      <c r="S50" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="S50" s="9"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
@@ -11366,13 +11540,12 @@
     </row>
     <row r="51" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="8"/>
-      <c r="S51" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q51" s="10"/>
+      <c r="S51" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
@@ -11380,50 +11553,45 @@
     </row>
     <row r="52" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M52" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q52" s="10"/>
-      <c r="S52" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="8"/>
+      <c r="S52" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="16"/>
     </row>
-    <row r="53" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M53" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q53" s="10"/>
-      <c r="S53" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="16"/>
+    <row r="53" spans="13:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M53" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="13"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="24"/>
     </row>
-    <row r="54" spans="13:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M54" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="13"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="24"/>
+    <row r="54" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="8"/>
     </row>
     <row r="55" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
+      <c r="M55" s="1"/>
       <c r="S55" s="9"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
@@ -11432,109 +11600,124 @@
     </row>
     <row r="56" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M56" s="1"/>
-      <c r="S56" s="9"/>
+      <c r="S56" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="8"/>
     </row>
     <row r="57" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M57" s="1"/>
-      <c r="S57" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="M57" s="5"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="S57" s="9"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
       <c r="W57" s="8"/>
     </row>
     <row r="58" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M58" s="5"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
       <c r="S58" s="9"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="8"/>
     </row>
-    <row r="59" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="S59" s="9"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="8"/>
+    <row r="59" spans="13:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S59" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="T59" s="26"/>
+      <c r="U59" s="26"/>
+      <c r="V59" s="26"/>
+      <c r="W59" s="27"/>
     </row>
-    <row r="60" spans="13:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S60" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="T60" s="26"/>
-      <c r="U60" s="26"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="27"/>
-    </row>
+    <row r="60" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+    <row r="67" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M68" s="6" t="s">
+      <c r="M67" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="6"/>
-      <c r="M69" s="6"/>
+    <row r="68" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="6"/>
+      <c r="M68" s="6"/>
+    </row>
+    <row r="69" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="33"/>
+      <c r="M69" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="33"/>
+      <c r="S69" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="T69" s="32"/>
+      <c r="U69" s="32"/>
+      <c r="V69" s="32"/>
+      <c r="W69" s="33"/>
     </row>
     <row r="70" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="33"/>
-      <c r="M70" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="32"/>
-      <c r="Q70" s="33"/>
-      <c r="S70" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="T70" s="32"/>
-      <c r="U70" s="32"/>
-      <c r="V70" s="32"/>
-      <c r="W70" s="33"/>
+      <c r="A70" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="8"/>
+      <c r="M70" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="8"/>
+      <c r="S70" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="T70" s="18"/>
+      <c r="U70" s="18"/>
+      <c r="V70" s="18"/>
+      <c r="W70" s="19"/>
     </row>
     <row r="71" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="8"/>
-      <c r="M71" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="8"/>
+      <c r="A71" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="19"/>
+      <c r="M71" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="19"/>
       <c r="S71" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
@@ -11542,210 +11725,140 @@
       <c r="W71" s="19"/>
     </row>
     <row r="72" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="19"/>
+      <c r="A72" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="8"/>
       <c r="M72" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N72" s="18"/>
       <c r="O72" s="18"/>
       <c r="P72" s="18"/>
       <c r="Q72" s="19"/>
       <c r="S72" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
       <c r="V72" s="18"/>
       <c r="W72" s="19"/>
     </row>
-    <row r="73" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
+    <row r="73" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="13"/>
+      <c r="M73" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="8"/>
-      <c r="M73" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="19"/>
-      <c r="S73" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="T73" s="18"/>
-      <c r="U73" s="18"/>
-      <c r="V73" s="18"/>
-      <c r="W73" s="19"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="8"/>
+      <c r="S73" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="13"/>
     </row>
-    <row r="74" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="13"/>
+    <row r="74" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="8"/>
       <c r="M74" s="9" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="8"/>
-      <c r="S74" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="12"/>
-      <c r="W74" s="13"/>
     </row>
     <row r="75" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="8"/>
-      <c r="M75" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="M75" s="9"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="8"/>
     </row>
     <row r="76" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
-        <v>71</v>
+      <c r="A76" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="8"/>
-      <c r="M76" s="9"/>
+      <c r="M76" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="8"/>
     </row>
     <row r="77" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="34" t="s">
-        <v>50</v>
+      <c r="A77" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="8"/>
-      <c r="M77" s="9" t="s">
-        <v>58</v>
+      <c r="M77" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="8"/>
     </row>
-    <row r="78" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="8"/>
-      <c r="M78" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="8"/>
-    </row>
-    <row r="79" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="11" t="s">
+    <row r="78" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="13"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="13"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="13"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="S42:W42"/>
-    <mergeCell ref="S43:W43"/>
-    <mergeCell ref="M37:Q37"/>
-    <mergeCell ref="M38:Q38"/>
-    <mergeCell ref="M40:Q40"/>
-    <mergeCell ref="S37:W37"/>
-    <mergeCell ref="S38:W38"/>
-    <mergeCell ref="S39:W39"/>
-    <mergeCell ref="S40:W40"/>
-    <mergeCell ref="S41:W41"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
+  <mergeCells count="75">
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="G2:K2"/>
@@ -11762,24 +11875,54 @@
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="M41:Q41"/>
-    <mergeCell ref="M42:Q42"/>
-    <mergeCell ref="M43:Q43"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="M39:Q39"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="M15:Q15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\OneDrive\문서\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0376FB-54DF-4CE5-8634-D2FB7AAD54FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47375286-6DC1-4A20-8CEA-04D028BB09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t>마약류통합관리시스템 (https://www.nims.or.kr) &gt; sims 연동</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -914,6 +914,10 @@
     <t xml:space="preserve">                             파악한 수가 같은지 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">                                     체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1445,7 +1449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1566,13 +1570,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
@@ -1584,12 +1627,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1597,54 +1634,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
@@ -1656,28 +1645,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1707,41 +1681,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3596,13 +3606,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>397509</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>208962</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3646,13 +3656,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>209564</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>209561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3696,13 +3706,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>396254</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>209561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3746,13 +3756,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>209564</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>207656</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3846,13 +3856,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>321309</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>212772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4124,13 +4134,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4188,13 +4198,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>45796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>27</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4238,13 +4248,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>285519</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4288,13 +4298,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4352,13 +4362,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4416,13 +4426,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>563881</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>287099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8265,7 +8275,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -8310,7 +8320,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -10303,6 +10313,114 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47812</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>266731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088B472F-A7C5-6202-EBBD-CFEF26327AA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638550" y="3629025"/>
+          <a:ext cx="1343212" cy="219106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>348615</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>243839</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="화살표: 오른쪽 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E01AA2-1065-451B-B7F2-A3C157DCC0DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038725" y="3657600"/>
+          <a:ext cx="243840" cy="167639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>v</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10612,8 +10730,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10629,477 +10747,473 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="70" t="s">
+      <c r="M2" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="72"/>
-      <c r="S2" s="48" t="s">
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="79"/>
+      <c r="S2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="50"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="61"/>
     </row>
     <row r="3" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
-      <c r="G3" s="67" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="G3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="74"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="53"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="81"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="87"/>
     </row>
     <row r="4" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="42"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="52"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="52"/>
     </row>
     <row r="5" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="G5" s="40" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="G5" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="52"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="42"/>
-      <c r="S5" s="40" t="s">
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="52"/>
+      <c r="S5" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="42"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="52"/>
     </row>
     <row r="6" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="G6" s="78" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="G6" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="80"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="70"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="42"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="42"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="52"/>
     </row>
     <row r="7" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="G7" s="40" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="G7" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="42"/>
-      <c r="S7" s="40" t="s">
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="52"/>
+      <c r="S7" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="42"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="52"/>
     </row>
     <row r="8" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="G8" s="75" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="G8" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="99"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="42"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="42"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="52"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="52"/>
     </row>
     <row r="9" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="G9" s="75" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="G9" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="77"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="42"/>
-      <c r="S9" s="40" t="s">
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="52"/>
+      <c r="S9" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="42"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="G10" s="87" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="G10" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="42"/>
-      <c r="S10" s="67" t="s">
+      <c r="M10" s="48"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="52"/>
+      <c r="S10" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="69"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="64"/>
     </row>
     <row r="11" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="G11" s="78" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="G11" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="42"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="42"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="52"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="52"/>
     </row>
     <row r="12" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-      <c r="G12" s="9" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="G12" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="42"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="42"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="52"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="52"/>
     </row>
     <row r="13" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="G13" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="G13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="8"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="93" t="s">
+      <c r="M13" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="42"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="52"/>
     </row>
     <row r="14" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="G14" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="G14" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="92"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="93" t="s">
+      <c r="M14" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="S14" s="40" t="s">
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="S14" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="42"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
-      <c r="G15" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
-      <c r="M15" s="78" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="G15" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="44"/>
+      <c r="M15" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="80"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="42"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="70"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="52"/>
     </row>
     <row r="16" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="G16" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="G16" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="90"/>
+      <c r="M16" s="45"/>
       <c r="Q16" s="10"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="42"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="52"/>
     </row>
     <row r="17" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="G17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="G17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="M17" s="45"/>
       <c r="Q17" s="10"/>
-      <c r="S17" s="64" t="s">
+      <c r="S17" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="66"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="84"/>
     </row>
     <row r="18" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="47"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="G18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -11107,161 +11221,156 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="G19" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
-      <c r="M19" s="40" t="s">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="M19" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="42"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="52"/>
     </row>
     <row r="20" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
-      <c r="M20" s="40" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="G20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
+      <c r="M20" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="42"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="G21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="8"/>
-      <c r="M21" s="40" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="M21" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="42"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="52"/>
     </row>
     <row r="22" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
       <c r="G22" s="9" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="8"/>
-      <c r="M22" s="40" t="s">
+      <c r="M22" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="42"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="52"/>
     </row>
     <row r="23" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
       <c r="G23" s="9" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="8"/>
-      <c r="M23" s="93" t="s">
+      <c r="M23" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
     </row>
     <row r="24" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="G24" s="9"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="G24" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="8"/>
-      <c r="M24" s="93" t="s">
+      <c r="M24" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
     </row>
     <row r="25" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="91"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="8"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
+      <c r="M25" s="45"/>
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="G26" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="G26" s="9"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -11274,20 +11383,27 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13"/>
+    <row r="27" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="8"/>
       <c r="M27" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13"/>
       <c r="M28" s="11" t="s">
         <v>25</v>
       </c>
@@ -11847,20 +11963,52 @@
       <c r="Q78" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
+  <mergeCells count="74">
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="G4:K4"/>
@@ -11877,52 +12025,19 @@
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\OneDrive\문서\TIL\anjou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b49f789d9aa8c49/문서/TIL/anjou/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47375286-6DC1-4A20-8CEA-04D028BB09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{47375286-6DC1-4A20-8CEA-04D028BB09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFCC85ED-F400-4D05-A239-DEBD3D0C91E7}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateCount="1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>마약류통합관리시스템 (https://www.nims.or.kr) &gt; sims 연동</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -918,6 +919,36 @@
     <t xml:space="preserve">                                     체크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>갑지 / 을지 Excel File</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크 하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>익일로 설정하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 --- 건 / 0,000,000원  확인해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1449,7 +1480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1588,19 +1619,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1609,23 +1652,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1636,32 +1691,50 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1681,77 +1754,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5610,13 +5656,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>51906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>510541</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5646,8 +5692,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10599421" y="2863686"/>
-          <a:ext cx="1021080" cy="222414"/>
+          <a:off x="10839451" y="3633306"/>
+          <a:ext cx="1043940" cy="230034"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5660,13 +5706,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>441290</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5760,13 +5806,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>244968</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5809,14 +5855,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>575310</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5832,8 +5878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13075920" y="1897380"/>
-          <a:ext cx="647700" cy="266700"/>
+          <a:off x="13342620" y="2661285"/>
+          <a:ext cx="662940" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5873,13 +5919,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5936,13 +5982,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>285350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5986,13 +6032,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>487679</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>434987</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7614,13 +7660,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10421,6 +10467,433 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457277</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>295315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDCB9324-6149-AC97-9DF2-3136A1675D21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13335000" y="2019300"/>
+          <a:ext cx="552527" cy="285790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600106</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>257245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55A08B3-D150-6C2A-AC02-8F5F8649EDC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11068050" y="2390775"/>
+          <a:ext cx="219106" cy="504895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>224789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="화살표: 오른쪽 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0DF21FE-65A3-46B3-AB91-07D116225F40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12258675" y="2695575"/>
+          <a:ext cx="228600" cy="167639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>v00</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAA6FFA-AA6E-44FC-AF02-9D33C147FDC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:srcRect r="-4334" b="45291"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12058650" y="3286125"/>
+          <a:ext cx="228600" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219266</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>276260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D495A95B-BDE7-0567-733D-82669AF5795F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10906125" y="6124575"/>
+          <a:ext cx="1371791" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>277659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70827FE2-88EF-4038-A8CE-8C5DAB3DF5F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10782300" y="5829300"/>
+          <a:ext cx="1043940" cy="230034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>524174</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>295314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB50D68-98BC-75EE-5035-29F6802358D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11125200" y="6429375"/>
+          <a:ext cx="2143424" cy="276264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>283445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="그림 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC755550-D3C7-45A6-A263-1BC3E3232311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11449050" y="7067550"/>
+          <a:ext cx="678180" cy="254870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133617</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>247681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="그림 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7025E9A5-6E81-DB3C-313E-A82C002C880E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11649075" y="7381875"/>
+          <a:ext cx="1914792" cy="219106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10731,7 +11204,7 @@
   <dimension ref="A1:W78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:K12"/>
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10747,329 +11220,331 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="77" t="s">
+      <c r="M2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="79"/>
-      <c r="S2" s="59" t="s">
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="74"/>
+      <c r="S2" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="61"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="69"/>
     </row>
     <row r="3" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="G3" s="95" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90"/>
+      <c r="G3" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="81"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="87"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="77"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="63"/>
     </row>
     <row r="4" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="77"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="52"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="52"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="G5" s="48" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="G5" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="52"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="52"/>
-      <c r="S5" s="48" t="s">
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="56"/>
+      <c r="S5" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="52"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="G6" s="68" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="G6" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="70"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="52"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="56"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="56"/>
     </row>
     <row r="7" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="G7" s="48" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="G7" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="52"/>
-      <c r="S7" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="52"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="56"/>
+      <c r="S7" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="56"/>
     </row>
     <row r="8" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="G8" s="65" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="G8" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="99"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="48" t="s">
+      <c r="M8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="52"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="52"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="56"/>
     </row>
     <row r="9" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="G9" s="65" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="G9" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="66"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="48" t="s">
+      <c r="M9" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="52"/>
-      <c r="S9" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="52"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="G10" s="66" t="s">
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+      <c r="G10" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="67"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="84"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="52"/>
-      <c r="S10" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="64"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="56"/>
+      <c r="S10" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="56"/>
     </row>
     <row r="11" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-      <c r="G11" s="68" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="G11" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="70"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="48" t="s">
+      <c r="M11" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="52"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="52"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="56"/>
+      <c r="S11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="G12" s="100" t="s">
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="G12" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="48" t="s">
+      <c r="M12" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="52"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="52"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="56"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
       <c r="G13" s="9" t="s">
         <v>5</v>
       </c>
@@ -11078,107 +11553,107 @@
       <c r="J13" s="1"/>
       <c r="K13" s="8"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="46" t="s">
+      <c r="M13" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="52"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="G14" s="91" t="s">
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="G14" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="92"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="46" t="s">
+      <c r="M14" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="S14" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="52"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
       <c r="G15" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
       <c r="K15" s="44"/>
-      <c r="M15" s="68" t="s">
+      <c r="M15" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="70"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="52"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
+      <c r="S15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="G16" s="88" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
+      <c r="G16" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
       <c r="M16" s="45"/>
       <c r="Q16" s="10"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="52"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
       <c r="G17" s="20" t="s">
         <v>11</v>
       </c>
@@ -11188,20 +11663,18 @@
       <c r="K17" s="22"/>
       <c r="M17" s="45"/>
       <c r="Q17" s="10"/>
-      <c r="S17" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="84"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="8"/>
     </row>
     <row r="18" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
       <c r="G18" s="17" t="s">
         <v>14</v>
       </c>
@@ -11209,46 +11682,53 @@
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="50"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="71"/>
+      <c r="S18" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="98"/>
     </row>
     <row r="19" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
       <c r="G19" s="40"/>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="42"/>
-      <c r="M19" s="48" t="s">
+      <c r="M19" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="52"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="56"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="100"/>
+      <c r="V19" s="100"/>
+      <c r="W19" s="101"/>
     </row>
     <row r="20" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
       <c r="G20" s="20" t="s">
         <v>12</v>
       </c>
@@ -11256,41 +11736,51 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
-      <c r="M20" s="48" t="s">
+      <c r="M20" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="52"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="56"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="60"/>
     </row>
     <row r="21" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71"/>
       <c r="G21" s="17"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="24"/>
-      <c r="M21" s="48" t="s">
+      <c r="M21" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="52"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="56"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="60"/>
     </row>
     <row r="22" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71"/>
       <c r="G22" s="9" t="s">
         <v>15</v>
       </c>
@@ -11298,22 +11788,29 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="8"/>
-      <c r="M22" s="48" t="s">
+      <c r="M22" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="52"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="56"/>
+      <c r="S22" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="60"/>
     </row>
     <row r="23" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
       <c r="G23" s="9" t="s">
         <v>5</v>
       </c>
@@ -11321,22 +11818,27 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="8"/>
-      <c r="M23" s="46" t="s">
+      <c r="M23" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="60"/>
     </row>
     <row r="24" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
       <c r="G24" s="9" t="s">
         <v>16</v>
       </c>
@@ -11344,22 +11846,27 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="8"/>
-      <c r="M24" s="46" t="s">
+      <c r="M24" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="60"/>
     </row>
     <row r="25" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="93"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -11367,6 +11874,13 @@
       <c r="K25" s="8"/>
       <c r="M25" s="45"/>
       <c r="Q25" s="10"/>
+      <c r="S25" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="105"/>
     </row>
     <row r="26" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -11964,67 +12478,19 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="S21:W21"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A16:E16"/>
@@ -12033,11 +12499,59 @@
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E21"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="M15:Q15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b49f789d9aa8c49/문서/TIL/anjou/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{47375286-6DC1-4A20-8CEA-04D028BB09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFCC85ED-F400-4D05-A239-DEBD3D0C91E7}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{47375286-6DC1-4A20-8CEA-04D028BB09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{726727E8-3095-4979-9383-6691916AE0DB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateCount="1"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1480,7 +1479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1622,39 +1621,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1664,13 +1630,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1681,51 +1704,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1754,50 +1732,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10896,10 +10892,58 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485826</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="그림 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38633D57-FEB5-CA59-9183-9B73D1998010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686175" y="7715250"/>
+          <a:ext cx="362001" cy="1314633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -11203,8 +11247,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11220,286 +11264,284 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="72" t="s">
+      <c r="M2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="74"/>
-      <c r="S2" s="67" t="s">
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="89"/>
+      <c r="S2" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="69"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="86"/>
     </row>
     <row r="3" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90"/>
-      <c r="G3" s="78" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
+      <c r="G3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="104"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="77"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="63"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="96"/>
     </row>
     <row r="4" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="91"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="56"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="56"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="65"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="65"/>
     </row>
     <row r="5" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="G5" s="54" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
+      <c r="G5" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="56"/>
-      <c r="S5" s="54" t="s">
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
+      <c r="S5" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="56"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="65"/>
     </row>
     <row r="6" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="G6" s="58" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="G6" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="56"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="56"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="65"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="65"/>
     </row>
     <row r="7" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-      <c r="G7" s="54" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="G7" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="56"/>
-      <c r="S7" s="54" t="s">
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="65"/>
+      <c r="S7" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="56"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="65"/>
     </row>
     <row r="8" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="G8" s="64" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="G8" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="66"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="56"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="56"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="65"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="65"/>
     </row>
     <row r="9" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="G9" s="64" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="G9" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="54" t="s">
+      <c r="M9" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="65"/>
       <c r="S9" s="45"/>
-      <c r="T9" s="95" t="s">
+      <c r="T9" t="s">
         <v>89</v>
       </c>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="G10" s="82" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="G10" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="84"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56"/>
-      <c r="S10" s="54" t="s">
+      <c r="M10" s="61"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="65"/>
+      <c r="S10" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="56"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="65"/>
     </row>
     <row r="11" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="G11" s="58" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
+      <c r="G11" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="54" t="s">
+      <c r="M11" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="56"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="65"/>
       <c r="S11" s="14" t="s">
         <v>42</v>
       </c>
@@ -11509,28 +11551,28 @@
       <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="G12" s="53" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="G12" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="54" t="s">
+      <c r="M12" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="56"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="65"/>
       <c r="S12" s="9"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -11538,13 +11580,13 @@
       <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
       <c r="G13" s="9" t="s">
         <v>5</v>
       </c>
@@ -11553,13 +11595,13 @@
       <c r="J13" s="1"/>
       <c r="K13" s="8"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="57" t="s">
+      <c r="M13" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
       <c r="S13" s="9"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -11567,28 +11609,28 @@
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="G14" s="47" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="G14" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="99"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="57" t="s">
+      <c r="M14" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
       <c r="S14" s="9"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -11596,13 +11638,13 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
       <c r="G15" s="43" t="s">
         <v>79</v>
       </c>
@@ -11610,13 +11652,13 @@
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="K15" s="44"/>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="60"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="49"/>
       <c r="S15" s="9" t="s">
         <v>31</v>
       </c>
@@ -11626,18 +11668,18 @@
       <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
-      <c r="G16" s="50" t="s">
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
+      <c r="G16" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="102"/>
       <c r="M16" s="45"/>
       <c r="Q16" s="10"/>
       <c r="S16" s="9"/>
@@ -11647,13 +11689,13 @@
       <c r="W16" s="8"/>
     </row>
     <row r="17" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
       <c r="G17" s="20" t="s">
         <v>11</v>
       </c>
@@ -11670,11 +11712,11 @@
       <c r="W17" s="8"/>
     </row>
     <row r="18" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
       <c r="G18" s="17" t="s">
         <v>14</v>
       </c>
@@ -11682,53 +11724,53 @@
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="71"/>
-      <c r="S18" s="96" t="s">
+      <c r="M18" s="61"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="63"/>
+      <c r="S18" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="97"/>
-      <c r="W18" s="98"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="55"/>
     </row>
     <row r="19" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
       <c r="G19" s="40"/>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="42"/>
-      <c r="M19" s="54" t="s">
+      <c r="M19" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="56"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="100"/>
-      <c r="U19" s="100"/>
-      <c r="V19" s="100"/>
-      <c r="W19" s="101"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="65"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="58"/>
     </row>
     <row r="20" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
       <c r="G20" s="20" t="s">
         <v>12</v>
       </c>
@@ -11736,51 +11778,51 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
-      <c r="M20" s="54" t="s">
+      <c r="M20" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="56"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="102"/>
-      <c r="V20" s="102"/>
-      <c r="W20" s="60"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="65"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="49"/>
     </row>
     <row r="21" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
       <c r="G21" s="17"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="24"/>
-      <c r="M21" s="54" t="s">
+      <c r="M21" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="56"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="102"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="60"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="65"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="49"/>
     </row>
     <row r="22" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
       <c r="G22" s="9" t="s">
         <v>15</v>
       </c>
@@ -11788,29 +11830,29 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="8"/>
-      <c r="M22" s="54" t="s">
+      <c r="M22" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="56"/>
-      <c r="S22" s="58" t="s">
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="65"/>
+      <c r="S22" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="T22" s="102"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="60"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="49"/>
     </row>
     <row r="23" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="65"/>
       <c r="G23" s="9" t="s">
         <v>5</v>
       </c>
@@ -11818,27 +11860,27 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="8"/>
-      <c r="M23" s="57" t="s">
+      <c r="M23" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="102"/>
-      <c r="V23" s="102"/>
-      <c r="W23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="49"/>
     </row>
     <row r="24" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
       <c r="G24" s="9" t="s">
         <v>16</v>
       </c>
@@ -11846,27 +11888,27 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="8"/>
-      <c r="M24" s="57" t="s">
+      <c r="M24" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="102"/>
-      <c r="V24" s="102"/>
-      <c r="W24" s="60"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="49"/>
     </row>
     <row r="25" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="93"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -11874,13 +11916,13 @@
       <c r="K25" s="8"/>
       <c r="M25" s="45"/>
       <c r="Q25" s="10"/>
-      <c r="S25" s="103" t="s">
+      <c r="S25" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="T25" s="104"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="104"/>
-      <c r="W25" s="105"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="52"/>
     </row>
     <row r="26" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -12478,32 +12520,35 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="M12:Q12"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
@@ -12515,43 +12560,40 @@
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="G6:K6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="M6:Q6"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="G7:K7"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
     <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="S21:W21"/>
+    <mergeCell ref="S22:W22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b49f789d9aa8c49/문서/TIL/anjou/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{47375286-6DC1-4A20-8CEA-04D028BB09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{726727E8-3095-4979-9383-6691916AE0DB}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{47375286-6DC1-4A20-8CEA-04D028BB09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6EC6E5E-CA20-4D5E-BD14-F49E16ADA093}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">                                      확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                           신고 한달전    ~    신고 전일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -948,6 +944,10 @@
     <t>총 --- 건 / 0,000,000원  확인해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">                                           신고 일년전    ~    신고 전일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1479,7 +1479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1621,6 +1621,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1630,64 +1660,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1732,68 +1744,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10936,6 +10945,226 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419218</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>238187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="그림 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09ECAECC-6695-6A7B-A1B9-9343014474E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="8401050"/>
+          <a:ext cx="847843" cy="447737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>343001</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="그림 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA11631A-01C0-FAC5-921F-A3F54A23EE3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="9020175"/>
+          <a:ext cx="724001" cy="362001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314418</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="그림 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3697D15-B8F7-E51B-40CC-6C93D5A34FF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="9648825"/>
+          <a:ext cx="666843" cy="333422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295363</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="그림 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05002EF-5018-8C68-8B6F-2698C01417E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="10296525"/>
+          <a:ext cx="628738" cy="362001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323943</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="그림 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609F26A4-4903-476E-A611-C7DF09A4C6F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="10953750"/>
+          <a:ext cx="666843" cy="333422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10944,6 +11173,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -11248,7 +11481,7 @@
   <dimension ref="A1:W78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11260,290 +11493,290 @@
   <sheetData>
     <row r="1" spans="1:23" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="87" t="s">
-        <v>13</v>
+      <c r="M2" s="66" t="s">
+        <v>12</v>
       </c>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="89"/>
-      <c r="S2" s="84" t="s">
-        <v>26</v>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68"/>
+      <c r="S2" s="63" t="s">
+        <v>25</v>
       </c>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="86"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="65"/>
     </row>
     <row r="3" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="G3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
-      <c r="G3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="104"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
       <c r="L3" s="1"/>
       <c r="M3" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="96"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="71"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="62"/>
     </row>
     <row r="4" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
       <c r="G4" s="69"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="91"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="65"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="65"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="56"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="G5" s="61" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="G5" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="56"/>
+      <c r="S5" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="56"/>
+    </row>
+    <row r="6" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="G6" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="61" t="s">
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="56"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="56"/>
+    </row>
+    <row r="7" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="G7" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="56"/>
+      <c r="S7" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="T7" s="104"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="104"/>
+      <c r="W7" s="56"/>
+    </row>
+    <row r="8" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="G8" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="56"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="56"/>
+    </row>
+    <row r="9" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="G9" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
-      <c r="S5" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="65"/>
-    </row>
-    <row r="6" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="G6" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="65"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="65"/>
-    </row>
-    <row r="7" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="G7" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="65"/>
-      <c r="S7" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="65"/>
-    </row>
-    <row r="8" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="G8" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="65"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="65"/>
-    </row>
-    <row r="9" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="G9" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="65"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="56"/>
       <c r="S9" s="45"/>
       <c r="T9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="G10" s="75" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="G10" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="56"/>
+      <c r="S10" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="56"/>
+    </row>
+    <row r="11" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="G11" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="65"/>
-      <c r="S10" s="61" t="s">
-        <v>29</v>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="54" t="s">
+        <v>40</v>
       </c>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="65"/>
-    </row>
-    <row r="11" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="G11" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="61" t="s">
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="56"/>
+      <c r="S11" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="65"/>
-      <c r="S11" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
@@ -11551,28 +11784,28 @@
       <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="G12" s="103" t="s">
-        <v>87</v>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="G12" s="53" t="s">
+        <v>86</v>
       </c>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="61" t="s">
+      <c r="M12" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="65"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="56"/>
       <c r="S12" s="9"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -11580,13 +11813,13 @@
       <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
       <c r="G13" s="9" t="s">
         <v>5</v>
       </c>
@@ -11595,13 +11828,13 @@
       <c r="J13" s="1"/>
       <c r="K13" s="8"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="59" t="s">
-        <v>83</v>
+      <c r="M13" s="101" t="s">
+        <v>82</v>
       </c>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="103"/>
       <c r="S13" s="9"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -11609,28 +11842,28 @@
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="G14" s="97" t="s">
-        <v>81</v>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="G14" s="47" t="s">
+        <v>80</v>
       </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="59" t="s">
-        <v>84</v>
+      <c r="M14" s="101" t="s">
+        <v>83</v>
       </c>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="103"/>
       <c r="S14" s="9"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -11639,28 +11872,28 @@
     </row>
     <row r="15" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
       <c r="G15" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="K15" s="44"/>
-      <c r="M15" s="47" t="s">
-        <v>82</v>
+      <c r="M15" s="57" t="s">
+        <v>81</v>
       </c>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="59"/>
       <c r="S15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -11668,18 +11901,18 @@
       <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="G16" s="100" t="s">
-        <v>80</v>
+      <c r="A16" s="54"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="G16" s="50" t="s">
+        <v>79</v>
       </c>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="102"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
       <c r="M16" s="45"/>
       <c r="Q16" s="10"/>
       <c r="S16" s="9"/>
@@ -11689,15 +11922,15 @@
       <c r="W16" s="8"/>
     </row>
     <row r="17" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
       <c r="G17" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -11712,147 +11945,147 @@
       <c r="W17" s="8"/>
     </row>
     <row r="18" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
       <c r="G18" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="63"/>
-      <c r="S18" s="53" t="s">
-        <v>30</v>
+      <c r="M18" s="54"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="56"/>
+      <c r="S18" s="105" t="s">
+        <v>29</v>
       </c>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="55"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="107"/>
     </row>
     <row r="19" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
       <c r="G19" s="40"/>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="42"/>
-      <c r="M19" s="61" t="s">
-        <v>32</v>
+      <c r="M19" s="54" t="s">
+        <v>31</v>
       </c>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="65"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="58"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="56"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="99"/>
     </row>
     <row r="20" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
       <c r="G20" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
-      <c r="M20" s="61" t="s">
-        <v>21</v>
+      <c r="M20" s="54" t="s">
+        <v>20</v>
       </c>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="65"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="49"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="56"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="100"/>
+      <c r="W20" s="59"/>
     </row>
     <row r="21" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
       <c r="G21" s="17"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="24"/>
-      <c r="M21" s="61" t="s">
-        <v>20</v>
+      <c r="M21" s="54" t="s">
+        <v>19</v>
       </c>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="65"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="49"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="56"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="100"/>
+      <c r="U21" s="100"/>
+      <c r="V21" s="100"/>
+      <c r="W21" s="59"/>
     </row>
     <row r="22" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
       <c r="G22" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="8"/>
-      <c r="M22" s="61" t="s">
-        <v>22</v>
+      <c r="M22" s="54" t="s">
+        <v>21</v>
       </c>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="65"/>
-      <c r="S22" s="47" t="s">
-        <v>90</v>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="56"/>
+      <c r="S22" s="57" t="s">
+        <v>89</v>
       </c>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="49"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="100"/>
+      <c r="W22" s="59"/>
     </row>
     <row r="23" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="65"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
       <c r="G23" s="9" t="s">
         <v>5</v>
       </c>
@@ -11860,55 +12093,55 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="8"/>
-      <c r="M23" s="59" t="s">
-        <v>85</v>
+      <c r="M23" s="101" t="s">
+        <v>84</v>
       </c>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="49"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="103"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="100"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="59"/>
     </row>
     <row r="24" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
       <c r="G24" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="8"/>
-      <c r="M24" s="59" t="s">
-        <v>86</v>
+      <c r="M24" s="101" t="s">
+        <v>85</v>
       </c>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="49"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="103"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="59"/>
     </row>
     <row r="25" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="93"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -11916,13 +12149,13 @@
       <c r="K25" s="8"/>
       <c r="M25" s="45"/>
       <c r="Q25" s="10"/>
-      <c r="S25" s="50" t="s">
-        <v>91</v>
+      <c r="S25" s="94" t="s">
+        <v>90</v>
       </c>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="52"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="96"/>
     </row>
     <row r="26" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -11932,7 +12165,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="8"/>
       <c r="M26" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -11941,27 +12174,27 @@
     </row>
     <row r="27" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G27" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="8"/>
       <c r="M27" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G28" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="13"/>
       <c r="M28" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N28" s="38"/>
       <c r="O28" s="38"/>
@@ -11978,20 +12211,20 @@
     <row r="36" spans="6:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F36" s="1"/>
       <c r="G36" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="M36" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N36" s="32"/>
       <c r="O36" s="32"/>
       <c r="P36" s="32"/>
       <c r="Q36" s="33"/>
       <c r="S36" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T36" s="36"/>
       <c r="U36" s="36"/>
@@ -12000,10 +12233,10 @@
     </row>
     <row r="37" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
@@ -12017,7 +12250,7 @@
     </row>
     <row r="38" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M38" s="9"/>
       <c r="Q38" s="10"/>
@@ -12029,18 +12262,18 @@
     </row>
     <row r="39" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G39" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="M39" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q39" s="10"/>
       <c r="S39" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
@@ -12049,7 +12282,7 @@
     </row>
     <row r="40" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G40" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -12065,18 +12298,18 @@
     </row>
     <row r="41" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G41" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="M41" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q41" s="10"/>
       <c r="S41" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
@@ -12097,14 +12330,14 @@
     </row>
     <row r="43" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M43" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="8"/>
       <c r="S43" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
@@ -12120,7 +12353,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="8"/>
       <c r="S44" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
@@ -12138,7 +12371,7 @@
     </row>
     <row r="46" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M46" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -12152,14 +12385,14 @@
     </row>
     <row r="47" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M47" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="8"/>
       <c r="S47" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
@@ -12168,7 +12401,7 @@
     </row>
     <row r="48" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M48" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -12182,14 +12415,14 @@
     </row>
     <row r="49" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M49" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="8"/>
       <c r="S49" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
@@ -12198,7 +12431,7 @@
     </row>
     <row r="50" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M50" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -12212,11 +12445,11 @@
     </row>
     <row r="51" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M51" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="S51" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
@@ -12225,11 +12458,11 @@
     </row>
     <row r="52" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M52" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q52" s="10"/>
       <c r="S52" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T52" s="15"/>
       <c r="U52" s="15"/>
@@ -12238,7 +12471,7 @@
     </row>
     <row r="53" spans="13:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M53" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
@@ -12273,7 +12506,7 @@
     <row r="56" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M56" s="1"/>
       <c r="S56" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
@@ -12301,7 +12534,7 @@
     </row>
     <row r="59" spans="13:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="S59" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T59" s="26"/>
       <c r="U59" s="26"/>
@@ -12317,10 +12550,10 @@
     <row r="66" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12329,21 +12562,21 @@
     </row>
     <row r="69" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
       <c r="D69" s="32"/>
       <c r="E69" s="33"/>
       <c r="M69" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N69" s="32"/>
       <c r="O69" s="32"/>
       <c r="P69" s="32"/>
       <c r="Q69" s="33"/>
       <c r="S69" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T69" s="32"/>
       <c r="U69" s="32"/>
@@ -12352,21 +12585,21 @@
     </row>
     <row r="70" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="8"/>
       <c r="M70" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="8"/>
       <c r="S70" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T70" s="18"/>
       <c r="U70" s="18"/>
@@ -12375,21 +12608,21 @@
     </row>
     <row r="71" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
       <c r="E71" s="19"/>
       <c r="M71" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N71" s="18"/>
       <c r="O71" s="18"/>
       <c r="P71" s="18"/>
       <c r="Q71" s="19"/>
       <c r="S71" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
@@ -12405,14 +12638,14 @@
       <c r="D72" s="1"/>
       <c r="E72" s="8"/>
       <c r="M72" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N72" s="18"/>
       <c r="O72" s="18"/>
       <c r="P72" s="18"/>
       <c r="Q72" s="19"/>
       <c r="S72" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
@@ -12421,7 +12654,7 @@
     </row>
     <row r="73" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -12444,14 +12677,14 @@
     </row>
     <row r="74" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="8"/>
       <c r="M74" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -12460,7 +12693,7 @@
     </row>
     <row r="75" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -12474,14 +12707,14 @@
     </row>
     <row r="76" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="8"/>
       <c r="M76" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
@@ -12497,7 +12730,7 @@
       <c r="D77" s="1"/>
       <c r="E77" s="8"/>
       <c r="M77" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -12506,7 +12739,7 @@
     </row>
     <row r="78" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -12520,46 +12753,31 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="M13:Q13"/>
     <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="S21:W21"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="G11:K11"/>
@@ -12572,28 +12790,43 @@
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="G7:K7"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b49f789d9aa8c49/문서/TIL/anjou/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{47375286-6DC1-4A20-8CEA-04D028BB09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6EC6E5E-CA20-4D5E-BD14-F49E16ADA093}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF695B9-D0D5-43FB-9CB5-3BD7715BF968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
-  <si>
-    <t>마약류통합관리시스템 (https://www.nims.or.kr) &gt; sims 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
   <si>
     <t>의약품관리종합정보포탈 (https://biz.kpis.or.kr) &gt; sims</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -861,37 +857,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 체크 해제 (10건 선택이 되어있으면 맞아)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">                   / 제품구분 / 보험 0 단가율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>입고거래처 미엘꺼 -있는지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 화면검토          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>출고금액(장부) / 이익률</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                            확인 눌러줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -946,6 +916,118 @@
   </si>
   <si>
     <t xml:space="preserve">                                           신고 일년전    ~    신고 전일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마약류 통합관리시스템 NIMS 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭</t>
+  </si>
+  <si>
+    <t>클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 올라 갔는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마약류통합관리시스템 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(https://www.nims.or.kr) &gt; sims 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         체크 해제 (10건 선택이 되어있으면 맞아)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 화면검토  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>출고금액(장부) / 이익률</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 눌러줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금계산서 날짜로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">매입, 매출처 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기 날짜 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘병원은 &gt; 엘병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조은은 &gt; 참조은병원-조영제로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 조영제 직송/이동 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기에는 직송이라고 적어줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 입력하고 엔터! &gt;&gt; 보험코드 일치 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쭉쭉 입력하다가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,7 +1199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1194,90 +1276,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1479,7 +1477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1489,7 +1487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1501,28 +1499,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -1531,7 +1529,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1540,7 +1538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1555,52 +1553,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1609,106 +1604,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1717,7 +1658,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1726,83 +1667,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1825,15 +1769,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>209564</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>209561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1875,182 +1819,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>53341</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>320044</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>283845</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="335281" y="647700"/>
-          <a:ext cx="925833" cy="274320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>60961</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>289559</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="342901" y="4084320"/>
-          <a:ext cx="929639" cy="274319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>121919</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403859" y="960120"/>
-          <a:ext cx="784861" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>629155</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>320044</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2063,6 +1857,156 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="335281" y="647700"/>
+          <a:ext cx="925833" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60961</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>289559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342901" y="4084320"/>
+          <a:ext cx="929639" cy="274319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>121919</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="403859" y="960120"/>
+          <a:ext cx="784861" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>629155</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>283845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="1310640" y="960120"/>
           <a:ext cx="2269360" cy="274320"/>
         </a:xfrm>
@@ -2075,15 +2019,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2125,15 +2069,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>26182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>288290</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2175,15 +2119,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>487394</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>607265</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2225,15 +2169,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2289,200 +2233,200 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>588645</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="2842260"/>
+          <a:ext cx="2225040" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>121919</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="784861" cy="266700"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="그림 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="403859" y="960120"/>
+          <a:ext cx="784861" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2269360" cy="274320"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="그림 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1310640" y="960120"/>
+          <a:ext cx="2269360" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2255520" cy="266700"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="그림 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1318260" y="1592580"/>
+          <a:ext cx="2255520" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>588645</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="그림 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1341120" y="2842260"/>
-          <a:ext cx="2225040" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>121919</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="784861" cy="266700"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="그림 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403859" y="960120"/>
-          <a:ext cx="784861" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2269360" cy="274320"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="그림 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1310640" y="960120"/>
-          <a:ext cx="2269360" cy="274320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2255520" cy="266700"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="그림 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1318260" y="1592580"/>
-          <a:ext cx="2255520" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>9</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2545,15 +2489,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2605,9 +2549,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>26182</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="190500" cy="273538"/>
@@ -2650,9 +2594,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>487394</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2131551" cy="289560"/>
@@ -2695,15 +2639,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2759,9 +2703,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>26182</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="190500" cy="273538"/>
@@ -2804,9 +2748,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>487394</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2131551" cy="289560"/>
@@ -2849,15 +2793,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2913,9 +2857,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>26182</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="190500" cy="273538"/>
@@ -2958,9 +2902,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>487394</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2131551" cy="289560"/>
@@ -3003,15 +2947,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3067,9 +3011,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2225040" cy="259080"/>
@@ -3112,15 +3056,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3183,15 +3127,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3243,15 +3187,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3314,15 +3258,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3374,15 +3318,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3445,15 +3389,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3505,13 +3449,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>209564</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>207656</xdr:rowOff>
@@ -3555,15 +3499,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>18414</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>208962</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3605,13 +3549,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>588009</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>208962</xdr:rowOff>
@@ -3655,13 +3599,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>397509</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>208962</xdr:rowOff>
@@ -3705,13 +3649,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>209564</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>209561</xdr:rowOff>
@@ -3755,13 +3699,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>396254</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>209561</xdr:rowOff>
@@ -3805,13 +3749,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>209564</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>207656</xdr:rowOff>
@@ -3855,13 +3799,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>205754</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>209561</xdr:rowOff>
@@ -3893,8 +3837,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="320040" y="7802880"/>
-          <a:ext cx="160034" cy="129551"/>
+          <a:off x="7162800" y="521970"/>
+          <a:ext cx="167654" cy="125741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3905,13 +3849,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>321309</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>212772</xdr:rowOff>
@@ -3955,13 +3899,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>626109</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>212772</xdr:rowOff>
@@ -4005,13 +3949,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
@@ -4069,13 +4013,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
@@ -4119,13 +4063,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>211455</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>440055</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>217169</xdr:rowOff>
@@ -4183,13 +4127,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>640080</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
@@ -4247,13 +4191,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>45796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>27</xdr:rowOff>
@@ -4297,13 +4241,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>285519</xdr:rowOff>
@@ -4347,13 +4291,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
@@ -4411,13 +4355,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
@@ -4475,13 +4419,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>563881</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>287099</xdr:rowOff>
@@ -4525,13 +4469,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>649952</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
@@ -4575,13 +4519,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>321945</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
@@ -4625,13 +4569,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>251395</xdr:rowOff>
@@ -4675,13 +4619,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>30479</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>55245</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
@@ -4725,13 +4669,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
@@ -4789,13 +4733,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
@@ -4853,13 +4797,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
@@ -4903,13 +4847,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
@@ -4967,13 +4911,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>144781</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>93345</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>284906</xdr:rowOff>
@@ -5017,13 +4961,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>251459</xdr:rowOff>
@@ -5081,13 +5025,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
@@ -5145,13 +5089,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>398167</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>283867</xdr:rowOff>
@@ -5195,13 +5139,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>129541</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>305865</xdr:rowOff>
@@ -5245,13 +5189,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>655320</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
@@ -6087,7 +6031,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -6132,7 +6076,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -6163,7 +6107,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7002780" y="8648700"/>
+          <a:off x="7162800" y="18962370"/>
           <a:ext cx="160034" cy="129551"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6177,7 +6121,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -6222,7 +6166,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1638300" cy="251460"/>
@@ -6267,7 +6211,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2004060" cy="209484"/>
@@ -6312,7 +6256,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>30479</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2049781" cy="228600"/>
@@ -6357,13 +6301,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6421,13 +6365,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6485,7 +6429,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="586740" cy="382189"/>
@@ -6530,7 +6474,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="655320" cy="191556"/>
@@ -6575,7 +6519,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914479" cy="289585"/>
@@ -6620,7 +6564,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>640079</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="708661" cy="225104"/>
@@ -6665,7 +6609,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1447800" cy="230542"/>
@@ -6710,7 +6654,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>632461</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="616528" cy="228600"/>
@@ -6755,7 +6699,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1493520" cy="259080"/>
@@ -6800,7 +6744,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="835193" cy="259080"/>
@@ -6845,7 +6789,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>83821</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="815339" cy="253737"/>
@@ -6890,7 +6834,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="797418" cy="243839"/>
@@ -6935,13 +6879,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6998,7 +6942,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914479" cy="289585"/>
@@ -7043,7 +6987,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>640079</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="708661" cy="225104"/>
@@ -7088,7 +7032,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1447800" cy="230542"/>
@@ -7133,7 +7077,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>632461</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="616528" cy="228600"/>
@@ -7178,7 +7122,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1493520" cy="259080"/>
@@ -7223,7 +7167,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="835193" cy="259080"/>
@@ -7268,7 +7212,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>83821</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="815339" cy="253737"/>
@@ -7313,7 +7257,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="797418" cy="243839"/>
@@ -7358,13 +7302,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7421,7 +7365,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>51906</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1021080" cy="222414"/>
@@ -7466,7 +7410,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1473800" cy="182880"/>
@@ -7511,7 +7455,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="655320" cy="258680"/>
@@ -7556,7 +7500,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>487679</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2621928" cy="556260"/>
@@ -7601,13 +7545,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7729,7 +7673,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -7774,7 +7718,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2103120" cy="236220"/>
@@ -7819,13 +7763,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7883,7 +7827,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>144781</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2644139" cy="267761"/>
@@ -7928,13 +7872,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>251459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7992,13 +7936,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8056,7 +8000,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="259102" cy="259102"/>
@@ -8101,7 +8045,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>129541</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2042159" cy="283004"/>
@@ -8144,18 +8088,198 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314597" cy="259080"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="171" name="그림 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CD66CF-5BD4-4316-9386-6A20AF8C96EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7040879" y="9837420"/>
+          <a:ext cx="314597" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314597" cy="259080"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="172" name="그림 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19CF36B-D140-4313-9413-ECB205190B24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76199" y="5775960"/>
+          <a:ext cx="314597" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314597" cy="259080"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="173" name="그림 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64889BA0-DE75-4BE0-AF96-03043727BE43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76199" y="5775960"/>
+          <a:ext cx="314597" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314597" cy="259080"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="181" name="그림 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8165870F-CE63-425B-8D98-328F9F41B81C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76199" y="3589020"/>
+          <a:ext cx="314597" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="171" name="그림 170">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CD66CF-5BD4-4316-9386-6A20AF8C96EC}"/>
+        <xdr:cNvPr id="182" name="그림 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C01F7C2B-DA3E-4D33-8BE7-EB1A3341CAA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8177,7 +8301,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7040879" y="9837420"/>
+          <a:off x="3638549" y="2975610"/>
           <a:ext cx="314597" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8197,10 +8321,10 @@
     <xdr:ext cx="314597" cy="259080"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="172" name="그림 171">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19CF36B-D140-4313-9413-ECB205190B24}"/>
+        <xdr:cNvPr id="183" name="그림 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC974C4-D5F1-47E5-A3E0-E33720017BE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8222,7 +8346,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76199" y="5775960"/>
+          <a:off x="3558539" y="2651760"/>
           <a:ext cx="314597" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8234,7 +8358,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -8242,10 +8366,10 @@
     <xdr:ext cx="314597" cy="259080"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="173" name="그림 172">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64889BA0-DE75-4BE0-AF96-03043727BE43}"/>
+        <xdr:cNvPr id="184" name="그림 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B57D4D-3944-47DA-884F-FE60AADBF7CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8267,141 +8391,6 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76199" y="5775960"/>
-          <a:ext cx="314597" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="314597" cy="259080"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="181" name="그림 180">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8165870F-CE63-425B-8D98-328F9F41B81C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="76199" y="3589020"/>
-          <a:ext cx="314597" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="314597" cy="259080"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="182" name="그림 181">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C01F7C2B-DA3E-4D33-8BE7-EB1A3341CAA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3638549" y="2975610"/>
-          <a:ext cx="314597" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="314597" cy="259080"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="183" name="그림 182">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC974C4-D5F1-47E5-A3E0-E33720017BE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="3558539" y="2651760"/>
           <a:ext cx="314597" cy="259080"/>
         </a:xfrm>
@@ -8412,62 +8401,17 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="314597" cy="259080"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="184" name="그림 183">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B57D4D-3944-47DA-884F-FE60AADBF7CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3558539" y="2651760"/>
-          <a:ext cx="314597" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8524,13 +8468,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8588,13 +8532,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8651,13 +8595,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8715,7 +8659,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -8760,7 +8704,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -8805,7 +8749,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -8850,13 +8794,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8921,13 +8865,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8981,7 +8925,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182879</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>33802</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167641" cy="240716"/>
@@ -9026,13 +8970,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>53341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9090,7 +9034,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9135,13 +9079,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9199,7 +9143,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -9244,7 +9188,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -9289,7 +9233,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9334,13 +9278,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>163830</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9430,13 +9374,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>240031</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>396241</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9515,7 +9459,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -9560,7 +9504,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -9605,7 +9549,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>59054</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="154306" cy="221567"/>
@@ -9650,7 +9594,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9695,13 +9639,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9745,13 +9689,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>72390</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>210813</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9795,13 +9739,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>72391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>246522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9845,13 +9789,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>156209</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>441959</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>249556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9895,7 +9839,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>205739</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>41422</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167641" cy="240716"/>
@@ -9940,13 +9884,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10015,13 +9959,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10088,13 +10032,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>97156</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>312420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>459252</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>7665</xdr:rowOff>
@@ -10132,13 +10076,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>123967</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>43</xdr:rowOff>
@@ -10176,13 +10120,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>628927</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>295314</xdr:rowOff>
@@ -10220,13 +10164,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>304804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>347661</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
@@ -10280,16 +10224,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>254133</xdr:rowOff>
+      <xdr:rowOff>263658</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10312,7 +10256,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7181851" y="3962400"/>
+          <a:off x="3724276" y="3971925"/>
           <a:ext cx="1752600" cy="1444758"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10324,13 +10268,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>333451</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>276258</xdr:rowOff>
@@ -10368,14 +10312,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47812</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38287</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>266731</xdr:rowOff>
     </xdr:to>
@@ -10400,7 +10344,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3638550" y="3629025"/>
+          <a:off x="3629025" y="3629025"/>
           <a:ext cx="1343212" cy="219106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10412,13 +10356,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>348615</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
@@ -10903,13 +10847,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>485826</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>104958</xdr:rowOff>
@@ -10947,40 +10891,260 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295393</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>238187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="그림 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09ECAECC-6695-6A7B-A1B9-9343014474E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="8401050"/>
+          <a:ext cx="847843" cy="447737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>362051</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="그림 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA11631A-01C0-FAC5-921F-A3F54A23EE3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="9220200"/>
+          <a:ext cx="724001" cy="362001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676368</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="그림 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3697D15-B8F7-E51B-40CC-6C93D5A34FF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="9239250"/>
+          <a:ext cx="666843" cy="333422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314413</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="그림 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05002EF-5018-8C68-8B6F-2698C01417E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="10163175"/>
+          <a:ext cx="628738" cy="362001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666843</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="그림 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609F26A4-4903-476E-A611-C7DF09A4C6F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10172700"/>
+          <a:ext cx="666843" cy="333422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>419218</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>238187</xdr:rowOff>
+      <xdr:colOff>171351</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>266670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="그림 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09ECAECC-6695-6A7B-A1B9-9343014474E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="257175" y="8401050"/>
-          <a:ext cx="847843" cy="447737"/>
+        <xdr:cNvPr id="65" name="그림 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E1A8B7-5B09-5C57-202F-41AE8BA1B4A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="11782425"/>
+          <a:ext cx="790476" cy="238095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10991,40 +11155,84 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76064</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>276199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="그림 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11C2000-9FC3-E4CB-72DE-3D751B5A6875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="11820525"/>
+          <a:ext cx="1085714" cy="209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>343001</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142926</xdr:rowOff>
+      <xdr:colOff>599926</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>314288</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="그림 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA11631A-01C0-FAC5-921F-A3F54A23EE3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="304800" y="9020175"/>
-          <a:ext cx="724001" cy="362001"/>
+        <xdr:cNvPr id="67" name="그림 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CAC092-D53B-70AA-2158-6741B67B5A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="12087225"/>
+          <a:ext cx="1190476" cy="295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11036,39 +11244,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314418</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114347</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609402</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>285718</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="그림 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3697D15-B8F7-E51B-40CC-6C93D5A34FF4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="333375" y="9648825"/>
-          <a:ext cx="666843" cy="333422"/>
+        <xdr:cNvPr id="69" name="그림 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E96771-1A65-5293-2539-5ACAD2C5A202}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="12411075"/>
+          <a:ext cx="1580952" cy="257143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11080,39 +11288,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295363</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161976</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638004</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>247588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="그림 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05002EF-5018-8C68-8B6F-2698C01417E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="352425" y="10296525"/>
-          <a:ext cx="628738" cy="362001"/>
+        <xdr:cNvPr id="73" name="그림 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6DF06E-4E20-5D0D-AD33-D45BA0DC4374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="12763500"/>
+          <a:ext cx="1371429" cy="495238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11124,39 +11332,171 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628458</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>304765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="그림 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2FDD44-BB39-F745-F15A-EF3AA30B76F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="13354050"/>
+          <a:ext cx="1533333" cy="276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>323943</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161972</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>295242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="그림 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609F26A4-4903-476E-A611-C7DF09A4C6F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="342900" y="10953750"/>
-          <a:ext cx="666843" cy="333422"/>
+        <xdr:cNvPr id="79" name="그림 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FDB55D-1FC9-89EC-0A20-72B15C48F91C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="13668375"/>
+          <a:ext cx="1400000" cy="266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285463</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>304764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="그림 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A6BF3F-E905-0B5C-0A50-FBACE3E20F3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="14601825"/>
+          <a:ext cx="2295238" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266417</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>228545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="그림 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E924E10-2203-B0BD-7B64-3E439F197020}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="15316200"/>
+          <a:ext cx="2266667" cy="438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11177,6 +11517,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -11478,10 +11822,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E280DA-2D42-45F4-819A-68D3B6CA9BBF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:W132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11493,290 +11837,291 @@
   <sheetData>
     <row r="1" spans="1:23" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="68"/>
-      <c r="S2" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="65"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="74"/>
+      <c r="S2" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="36"/>
     </row>
-    <row r="3" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="G3" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="71"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="8"/>
+      <c r="M3" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="77"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="56"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="56"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="8"/>
+      <c r="M4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="64"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="8"/>
     </row>
     <row r="5" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
-      <c r="G5" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="56"/>
-      <c r="S5" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="56"/>
+      <c r="A5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="8"/>
+      <c r="M5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
+      <c r="S5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="G6" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="56"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="56"/>
+      <c r="A6" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="8"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-      <c r="G7" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="56"/>
-      <c r="S7" s="54" t="s">
+      <c r="A7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="8"/>
+      <c r="M7" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="56"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="8"/>
+      <c r="S7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="G8" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="56"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="56"/>
+      <c r="A8" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="8"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="8"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="8"/>
     </row>
     <row r="9" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="G9" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="56"/>
-      <c r="S9" s="45"/>
+      <c r="A9" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="8"/>
+      <c r="M9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="8"/>
+      <c r="S9" s="44"/>
       <c r="T9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
-      <c r="G10" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="56"/>
-      <c r="S10" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="56"/>
+      <c r="A10" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="8"/>
+      <c r="M10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="8"/>
+      <c r="S10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
-      <c r="G11" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="54" t="s">
+      <c r="A11" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="8"/>
+      <c r="M11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="8"/>
+      <c r="S11" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="56"/>
-      <c r="S11" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
@@ -11784,28 +12129,26 @@
       <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="G12" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="56"/>
+      <c r="A12" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="8"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="8"/>
       <c r="S12" s="9"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -11813,28 +12156,28 @@
       <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="G13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="101" t="s">
-        <v>82</v>
-      </c>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="103"/>
+      <c r="A13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="47"/>
+      <c r="M13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="8"/>
       <c r="S13" s="9"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -11842,28 +12185,28 @@
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="G14" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="103"/>
+      <c r="A14" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="47"/>
+      <c r="M14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="8"/>
       <c r="S14" s="9"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -11871,29 +12214,29 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-      <c r="G15" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="44"/>
-      <c r="M15" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="59"/>
+      <c r="A15" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="43"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="49"/>
+      <c r="M15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="8"/>
       <c r="S15" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -11901,20 +12244,22 @@
       <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="G16" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="M16" s="45"/>
-      <c r="Q16" s="10"/>
+      <c r="A16" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="G16" s="44"/>
+      <c r="K16" s="10"/>
+      <c r="M16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="8"/>
       <c r="S16" s="9"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -11922,22 +12267,20 @@
       <c r="W16" s="8"/>
     </row>
     <row r="17" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="G17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
-      <c r="M17" s="45"/>
-      <c r="Q17" s="10"/>
+      <c r="A17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="G17" s="44"/>
+      <c r="K17" s="10"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="8"/>
       <c r="S17" s="9"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -11945,889 +12288,983 @@
       <c r="W17" s="8"/>
     </row>
     <row r="18" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="G18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="56"/>
-      <c r="S18" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="107"/>
+      <c r="A18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="8"/>
+      <c r="M18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="8"/>
+      <c r="S18" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="53"/>
     </row>
     <row r="19" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="M19" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="56"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="99"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="G19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="8"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="8"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="56"/>
     </row>
     <row r="20" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="G20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-      <c r="M20" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="56"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="59"/>
+      <c r="A20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="G20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="8"/>
+      <c r="M20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="8"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="49"/>
     </row>
     <row r="21" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
-      <c r="M21" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="56"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="100"/>
-      <c r="W21" s="59"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="G21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="8"/>
+      <c r="M21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="8"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="49"/>
     </row>
     <row r="22" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="8"/>
       <c r="G22" s="9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="8"/>
-      <c r="M22" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="56"/>
-      <c r="S22" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="T22" s="100"/>
-      <c r="U22" s="100"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="59"/>
+      <c r="M22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="8"/>
+      <c r="S22" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="49"/>
     </row>
     <row r="23" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="G23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="8"/>
-      <c r="M23" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="103"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="100"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="59"/>
+      <c r="A23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="8"/>
+      <c r="G23" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="47"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="8"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="49"/>
     </row>
     <row r="24" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
-      <c r="G24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="8"/>
-      <c r="M24" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="103"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="59"/>
+      <c r="A24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="8"/>
+      <c r="G24" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="47"/>
+      <c r="M24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="8"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="49"/>
     </row>
     <row r="25" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="93"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="8"/>
-      <c r="M25" s="45"/>
-      <c r="Q25" s="10"/>
-      <c r="S25" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="96"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="8"/>
+      <c r="G25" s="44"/>
+      <c r="K25" s="10"/>
+      <c r="M25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="8"/>
+      <c r="S25" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="51"/>
     </row>
     <row r="26" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="8"/>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="8"/>
-      <c r="M26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="8"/>
+      <c r="M26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="16"/>
     </row>
     <row r="27" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="8"/>
       <c r="G27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="8"/>
-      <c r="M27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="M27" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="70"/>
     </row>
     <row r="28" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
       <c r="G28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="56"/>
+    </row>
+    <row r="29" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M29" s="48"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="49"/>
+    </row>
+    <row r="30" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M30" s="44"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="49"/>
+    </row>
+    <row r="31" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M31" s="44"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="49"/>
+    </row>
+    <row r="32" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M32" s="48"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="49"/>
+    </row>
+    <row r="33" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M33" s="48"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="49"/>
+    </row>
+    <row r="34" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M34" s="48"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="49"/>
+    </row>
+    <row r="35" spans="1:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M35" s="80"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="51"/>
+    </row>
+    <row r="36" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="6:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="86" spans="6:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F86" s="1"/>
+      <c r="G86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="M86" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N86" s="31"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="32"/>
+      <c r="S86" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="35"/>
+      <c r="W86" s="36"/>
+    </row>
+    <row r="87" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M87" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N87" s="18"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="19"/>
+      <c r="S87" s="27"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="28"/>
+    </row>
+    <row r="88" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M88" s="9"/>
+      <c r="Q88" s="10"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="8"/>
+    </row>
+    <row r="89" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G89" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="M89" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q89" s="10"/>
+      <c r="S89" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="8"/>
+    </row>
+    <row r="90" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="M90" s="9"/>
+      <c r="Q90" s="10"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="8"/>
+    </row>
+    <row r="91" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G91" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="M91" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q91" s="10"/>
+      <c r="S91" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="13"/>
-      <c r="M28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="39"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="8"/>
     </row>
-    <row r="29" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="6:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="6:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F36" s="1"/>
-      <c r="G36" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="M36" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="33"/>
-      <c r="S36" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="37"/>
+    <row r="92" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M92" s="9"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="8"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="8"/>
     </row>
-    <row r="37" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M37" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="19"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="29"/>
+    <row r="93" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M93" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="8"/>
+      <c r="S93" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="8"/>
     </row>
-    <row r="38" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M38" s="9"/>
-      <c r="Q38" s="10"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="8"/>
+    <row r="94" spans="6:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M94" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="8"/>
+      <c r="S94" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="T94" s="15"/>
+      <c r="U94" s="15"/>
+      <c r="V94" s="15"/>
+      <c r="W94" s="16"/>
     </row>
-    <row r="39" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="M39" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q39" s="10"/>
-      <c r="S39" s="9" t="s">
+    <row r="95" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M95" s="9"/>
+      <c r="Q95" s="10"/>
+      <c r="S95" s="27"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="28"/>
+    </row>
+    <row r="96" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M96" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="8"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="8"/>
+    </row>
+    <row r="97" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M97" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="8"/>
+      <c r="S97" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="8"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="8"/>
     </row>
-    <row r="40" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="M40" s="9"/>
-      <c r="Q40" s="10"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="8"/>
+    <row r="98" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M98" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="8"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="8"/>
     </row>
-    <row r="41" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G41" s="5" t="s">
+    <row r="99" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M99" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="8"/>
+      <c r="S99" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="8"/>
+    </row>
+    <row r="100" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M100" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="8"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="8"/>
+    </row>
+    <row r="101" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M101" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q101" s="10"/>
+      <c r="S101" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="8"/>
+    </row>
+    <row r="102" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M102" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q102" s="10"/>
+      <c r="S102" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="T102" s="15"/>
+      <c r="U102" s="15"/>
+      <c r="V102" s="15"/>
+      <c r="W102" s="16"/>
+    </row>
+    <row r="103" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M103" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="13"/>
+      <c r="S103" s="17"/>
+      <c r="T103" s="23"/>
+      <c r="U103" s="23"/>
+      <c r="V103" s="23"/>
+      <c r="W103" s="24"/>
+    </row>
+    <row r="104" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="8"/>
+    </row>
+    <row r="105" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M105" s="1"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="8"/>
+    </row>
+    <row r="106" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M106" s="1"/>
+      <c r="S106" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="8"/>
+    </row>
+    <row r="107" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M107" s="5"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="8"/>
+    </row>
+    <row r="108" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S108" s="9"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="8"/>
+    </row>
+    <row r="109" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S109" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="T109" s="25"/>
+      <c r="U109" s="25"/>
+      <c r="V109" s="25"/>
+      <c r="W109" s="26"/>
+    </row>
+    <row r="110" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="M41" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q41" s="10"/>
-      <c r="S41" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="8"/>
+      <c r="M112" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="42" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M42" s="9"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="8"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="8"/>
+    <row r="113" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="6"/>
+      <c r="M113" s="6"/>
     </row>
-    <row r="43" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M43" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="8"/>
-      <c r="S43" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="8"/>
+    <row r="114" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="32"/>
+      <c r="M114" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N114" s="31"/>
+      <c r="O114" s="31"/>
+      <c r="P114" s="31"/>
+      <c r="Q114" s="32"/>
+      <c r="S114" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="T114" s="31"/>
+      <c r="U114" s="31"/>
+      <c r="V114" s="31"/>
+      <c r="W114" s="32"/>
     </row>
-    <row r="44" spans="6:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="8"/>
-      <c r="S44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="16"/>
+    <row r="115" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="8"/>
+      <c r="M115" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="8"/>
+      <c r="S115" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="T115" s="18"/>
+      <c r="U115" s="18"/>
+      <c r="V115" s="18"/>
+      <c r="W115" s="19"/>
     </row>
-    <row r="45" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M45" s="9"/>
-      <c r="Q45" s="10"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="29"/>
+    <row r="116" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="19"/>
+      <c r="M116" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N116" s="18"/>
+      <c r="O116" s="18"/>
+      <c r="P116" s="18"/>
+      <c r="Q116" s="19"/>
+      <c r="S116" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="T116" s="18"/>
+      <c r="U116" s="18"/>
+      <c r="V116" s="18"/>
+      <c r="W116" s="19"/>
     </row>
-    <row r="46" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M46" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="8"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="8"/>
+    <row r="117" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="8"/>
+      <c r="M117" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N117" s="18"/>
+      <c r="O117" s="18"/>
+      <c r="P117" s="18"/>
+      <c r="Q117" s="19"/>
+      <c r="S117" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="T117" s="18"/>
+      <c r="U117" s="18"/>
+      <c r="V117" s="18"/>
+      <c r="W117" s="19"/>
     </row>
-    <row r="47" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M47" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="8"/>
-      <c r="S47" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="8"/>
+    <row r="118" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="13"/>
+      <c r="M118" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="8"/>
+      <c r="S118" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T118" s="12"/>
+      <c r="U118" s="12"/>
+      <c r="V118" s="12"/>
+      <c r="W118" s="13"/>
     </row>
-    <row r="48" spans="6:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="8"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="8"/>
+    <row r="119" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="8"/>
+      <c r="M119" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="8"/>
     </row>
-    <row r="49" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M49" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="8"/>
-      <c r="S49" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="8"/>
+    <row r="120" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="8"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="8"/>
     </row>
-    <row r="50" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M50" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="8"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="8"/>
+    <row r="121" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="8"/>
+      <c r="M121" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="8"/>
     </row>
-    <row r="51" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q51" s="10"/>
-      <c r="S51" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="8"/>
+    <row r="122" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="8"/>
+      <c r="M122" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="8"/>
     </row>
-    <row r="52" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M52" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q52" s="10"/>
-      <c r="S52" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="16"/>
+    <row r="123" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="13"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="13"/>
     </row>
-    <row r="53" spans="13:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M53" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="13"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="24"/>
-    </row>
-    <row r="54" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="8"/>
-    </row>
-    <row r="55" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M55" s="1"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="8"/>
-    </row>
-    <row r="56" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M56" s="1"/>
-      <c r="S56" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="8"/>
-    </row>
-    <row r="57" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M57" s="5"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="8"/>
-    </row>
-    <row r="58" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="S58" s="9"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="8"/>
-    </row>
-    <row r="59" spans="13:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S59" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="T59" s="26"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="27"/>
-    </row>
-    <row r="60" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="13:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="6"/>
-      <c r="M68" s="6"/>
-    </row>
-    <row r="69" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="33"/>
-      <c r="M69" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32"/>
-      <c r="Q69" s="33"/>
-      <c r="S69" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="T69" s="32"/>
-      <c r="U69" s="32"/>
-      <c r="V69" s="32"/>
-      <c r="W69" s="33"/>
-    </row>
-    <row r="70" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="8"/>
-      <c r="M70" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="8"/>
-      <c r="S70" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="T70" s="18"/>
-      <c r="U70" s="18"/>
-      <c r="V70" s="18"/>
-      <c r="W70" s="19"/>
-    </row>
-    <row r="71" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="19"/>
-      <c r="M71" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="19"/>
-      <c r="S71" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T71" s="18"/>
-      <c r="U71" s="18"/>
-      <c r="V71" s="18"/>
-      <c r="W71" s="19"/>
-    </row>
-    <row r="72" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="8"/>
-      <c r="M72" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="19"/>
-      <c r="S72" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="T72" s="18"/>
-      <c r="U72" s="18"/>
-      <c r="V72" s="18"/>
-      <c r="W72" s="19"/>
-    </row>
-    <row r="73" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="13"/>
-      <c r="M73" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="8"/>
-      <c r="S73" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="T73" s="12"/>
-      <c r="U73" s="12"/>
-      <c r="V73" s="12"/>
-      <c r="W73" s="13"/>
-    </row>
-    <row r="74" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="8"/>
-      <c r="M74" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="8"/>
-    </row>
-    <row r="75" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="8"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="8"/>
-    </row>
-    <row r="76" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="8"/>
-      <c r="M76" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="8"/>
-    </row>
-    <row r="77" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="8"/>
-      <c r="M77" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="8"/>
-    </row>
-    <row r="78" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="13"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="13"/>
-    </row>
+    <row r="124" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G12:K12"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIL\anjou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF695B9-D0D5-43FB-9CB5-3BD7715BF968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76D974A-F25C-45F8-9B7D-DAE281539CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -1477,7 +1477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1682,16 +1682,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1713,9 +1707,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1769,13 +1760,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>209564</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>209561</xdr:rowOff>
@@ -1819,13 +1810,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>53341</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>320044</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
@@ -1869,13 +1860,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>60961</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>289559</xdr:rowOff>
@@ -1919,13 +1910,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>121919</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
@@ -1969,13 +1960,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>629155</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
@@ -2019,13 +2010,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
@@ -2069,13 +2060,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>26182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>288290</xdr:rowOff>
@@ -2119,13 +2110,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>487394</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>607265</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -2169,13 +2160,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
@@ -2233,13 +2224,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>588645</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
@@ -2283,7 +2274,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>121919</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -2328,7 +2319,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -2373,7 +2364,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -2418,13 +2409,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
@@ -2489,13 +2480,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
@@ -2549,7 +2540,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>26182</xdr:rowOff>
@@ -2594,7 +2585,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>487394</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -2639,13 +2630,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
@@ -2703,7 +2694,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>26182</xdr:rowOff>
@@ -2748,7 +2739,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>487394</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -2793,13 +2784,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
@@ -2857,7 +2848,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>26182</xdr:rowOff>
@@ -2902,7 +2893,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>487394</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -2947,13 +2938,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
@@ -3011,7 +3002,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -3056,13 +3047,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
@@ -3127,13 +3118,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
@@ -3187,13 +3178,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
@@ -3258,13 +3249,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
@@ -3318,13 +3309,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
@@ -3389,13 +3380,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
@@ -3499,14 +3490,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>18414</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>18415</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>208962</xdr:rowOff>
     </xdr:to>
@@ -3799,13 +3790,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>205754</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>209561</xdr:rowOff>
@@ -3899,13 +3890,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>626109</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>212772</xdr:rowOff>
@@ -4469,13 +4460,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>649952</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
@@ -4519,13 +4510,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>321945</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
@@ -4569,13 +4560,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>251395</xdr:rowOff>
@@ -4619,13 +4610,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>30479</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>55245</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
@@ -4669,13 +4660,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
@@ -4733,13 +4724,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
@@ -4797,13 +4788,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
@@ -4847,13 +4838,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
@@ -4911,13 +4902,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>144781</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>93345</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>284906</xdr:rowOff>
@@ -4961,13 +4952,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>251459</xdr:rowOff>
@@ -5025,13 +5016,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
@@ -5089,13 +5080,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>398167</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>283867</xdr:rowOff>
@@ -5139,13 +5130,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>129541</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>305865</xdr:rowOff>
@@ -5189,13 +5180,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>655320</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
@@ -8088,7 +8079,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -8133,7 +8124,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -8178,7 +8169,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -8223,7 +8214,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -8358,7 +8349,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -10224,14 +10215,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>263658</xdr:rowOff>
     </xdr:to>
@@ -10268,13 +10259,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>333451</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>276258</xdr:rowOff>
@@ -10891,13 +10882,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>295393</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>238187</xdr:rowOff>
@@ -10935,13 +10926,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>362051</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>28626</xdr:rowOff>
@@ -10979,13 +10970,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>676368</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>19097</xdr:rowOff>
@@ -11023,13 +11014,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>314413</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>28626</xdr:rowOff>
@@ -11067,13 +11058,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>666843</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>9572</xdr:rowOff>
@@ -11207,8 +11198,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>599926</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>314288</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1324</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11824,8 +11815,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11841,7 +11832,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="79" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="35"/>
@@ -11849,21 +11840,21 @@
       <c r="D2" s="35"/>
       <c r="E2" s="36"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="70"/>
+      <c r="H2" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72"/>
+      <c r="M2" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="74"/>
-      <c r="S2" s="82" t="s">
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="86"/>
+      <c r="S2" s="79" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="35"/>
@@ -11880,20 +11871,20 @@
       <c r="D3" s="63"/>
       <c r="E3" s="64"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75"/>
+      <c r="M3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="8"/>
-      <c r="M3" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="77"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="8"/>
       <c r="S3" s="27"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -11907,18 +11898,18 @@
       <c r="D4" s="23"/>
       <c r="E4" s="24"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="8"/>
-      <c r="M4" s="30" t="s">
+      <c r="G4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="64"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="8"/>
       <c r="S4" s="9"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -11934,20 +11925,20 @@
       <c r="D5" s="1"/>
       <c r="E5" s="8"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="M5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="8"/>
-      <c r="M5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="24"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="8"/>
       <c r="S5" s="9" t="s">
         <v>31</v>
       </c>
@@ -11971,9 +11962,9 @@
       <c r="J6" s="1"/>
       <c r="K6" s="8"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="8"/>
       <c r="S6" s="9"/>
       <c r="T6" s="1"/>
@@ -11991,18 +11982,18 @@
       <c r="E7" s="8"/>
       <c r="F7" s="1"/>
       <c r="G7" s="9" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="8"/>
       <c r="M7" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
+        <v>17</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
       <c r="Q7" s="8"/>
       <c r="S7" s="9" t="s">
         <v>83</v>
@@ -12021,17 +12012,17 @@
       <c r="D8" s="58"/>
       <c r="E8" s="59"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="8"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
+      <c r="M8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
       <c r="Q8" s="8"/>
       <c r="S8" s="9"/>
       <c r="T8" s="1"/>
@@ -12049,18 +12040,18 @@
       <c r="E9" s="59"/>
       <c r="F9" s="1"/>
       <c r="G9" s="9" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
+        <v>67</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="8"/>
       <c r="S9" s="44"/>
       <c r="T9" t="s">
@@ -12077,17 +12068,17 @@
       <c r="D10" s="61"/>
       <c r="E10" s="62"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="8"/>
-      <c r="M10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
       <c r="Q10" s="8"/>
       <c r="S10" s="9" t="s">
         <v>27</v>
@@ -12107,18 +12098,18 @@
       <c r="E11" s="49"/>
       <c r="F11" s="1"/>
       <c r="G11" s="9" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="8"/>
       <c r="M11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
+        <v>39</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
       <c r="Q11" s="8"/>
       <c r="S11" s="14" t="s">
         <v>40</v>
@@ -12137,17 +12128,17 @@
       <c r="D12" s="60"/>
       <c r="E12" s="62"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="G12" s="9"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="8"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
+      <c r="M12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
       <c r="Q12" s="8"/>
       <c r="S12" s="9"/>
       <c r="T12" s="1"/>
@@ -12164,20 +12155,20 @@
       <c r="D13" s="1"/>
       <c r="E13" s="8"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="8"/>
+      <c r="M13" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="47"/>
-      <c r="M13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="8"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="47"/>
       <c r="S13" s="9"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -12185,7 +12176,7 @@
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="80" t="s">
         <v>95</v>
       </c>
       <c r="B14" s="65"/>
@@ -12193,20 +12184,20 @@
       <c r="D14" s="65"/>
       <c r="E14" s="66"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="8"/>
+      <c r="M14" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="47"/>
-      <c r="M14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="8"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="47"/>
       <c r="S14" s="9"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -12221,20 +12212,20 @@
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
       <c r="E15" s="43"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
+      <c r="G15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="8"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="49"/>
-      <c r="M15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="8"/>
+      <c r="Q15" s="49"/>
       <c r="S15" s="9" t="s">
         <v>29</v>
       </c>
@@ -12244,22 +12235,22 @@
       <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="81" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="41"/>
-      <c r="G16" s="44"/>
-      <c r="K16" s="10"/>
-      <c r="M16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="8"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="8"/>
+      <c r="M16" s="44"/>
+      <c r="Q16" s="10"/>
       <c r="S16" s="9"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -12274,13 +12265,13 @@
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
-      <c r="G17" s="44"/>
-      <c r="K17" s="10"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="8"/>
+      <c r="M17" s="44"/>
+      <c r="Q17" s="10"/>
       <c r="S17" s="9"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -12295,19 +12286,19 @@
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="24"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="8"/>
-      <c r="M18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
       <c r="Q18" s="8"/>
-      <c r="S18" s="85" t="s">
+      <c r="S18" s="82" t="s">
         <v>28</v>
       </c>
       <c r="T18" s="52"/>
@@ -12321,17 +12312,17 @@
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="41"/>
-      <c r="G19" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="G19" s="9"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="8"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
+      <c r="M19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
       <c r="Q19" s="8"/>
       <c r="S19" s="54"/>
       <c r="T19" s="55"/>
@@ -12348,18 +12339,18 @@
       <c r="D20" s="21"/>
       <c r="E20" s="22"/>
       <c r="G20" s="9" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="8"/>
       <c r="M20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
+        <v>19</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
       <c r="Q20" s="8"/>
       <c r="S20" s="48"/>
       <c r="T20" s="2"/>
@@ -12374,18 +12365,18 @@
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
       <c r="G21" s="9" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="8"/>
       <c r="M21" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
+        <v>18</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
       <c r="Q21" s="8"/>
       <c r="S21" s="48"/>
       <c r="T21" s="2"/>
@@ -12402,18 +12393,18 @@
       <c r="D22" s="1"/>
       <c r="E22" s="8"/>
       <c r="G22" s="9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="8"/>
       <c r="M22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
+        <v>20</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
       <c r="Q22" s="8"/>
       <c r="S22" s="60" t="s">
         <v>85</v>
@@ -12431,18 +12422,18 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="8"/>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="8"/>
+      <c r="M23" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="47"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="8"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="47"/>
       <c r="S23" s="48"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -12457,20 +12448,20 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="8"/>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="8"/>
+      <c r="M24" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="47"/>
-      <c r="M24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="8"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="47"/>
       <c r="S24" s="48"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -12483,16 +12474,16 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="8"/>
-      <c r="G25" s="44"/>
-      <c r="K25" s="10"/>
-      <c r="M25" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="8"/>
-      <c r="S25" s="80" t="s">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="8"/>
+      <c r="M25" s="44"/>
+      <c r="Q25" s="10"/>
+      <c r="S25" s="77" t="s">
         <v>86</v>
       </c>
       <c r="T25" s="50"/>
@@ -12506,20 +12497,20 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="8"/>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+      <c r="M26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="8"/>
-      <c r="M26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="16"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
@@ -12529,17 +12520,17 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="8"/>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="69"/>
+      <c r="M27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="M27" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="70"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
@@ -12549,125 +12540,125 @@
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="54"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="56"/>
+      <c r="M28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="56"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M29" s="48"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="49"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="49"/>
     </row>
     <row r="30" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M30" s="44"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71" t="s">
+      <c r="G30" s="44"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="49"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="49"/>
     </row>
     <row r="31" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M31" s="44"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71" t="s">
+      <c r="G31" s="44"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="49"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="49"/>
     </row>
     <row r="32" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M32" s="48"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79" t="s">
+      <c r="G32" s="48"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="49"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="49"/>
     </row>
-    <row r="33" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M33" s="48"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71" t="s">
+    <row r="33" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="48"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="49"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M34" s="48"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71" t="s">
+    <row r="34" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="48"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="49"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M35" s="80"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="81" t="s">
+    <row r="35" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="77"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="51"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
     </row>
-    <row r="36" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>105</v>
       </c>
@@ -13042,7 +13033,7 @@
       <c r="W108" s="8"/>
     </row>
     <row r="109" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S109" s="86" t="s">
+      <c r="S109" s="83" t="s">
         <v>28</v>
       </c>
       <c r="T109" s="25"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76D974A-F25C-45F8-9B7D-DAE281539CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B34794E-D4E0-4738-A72B-DC1733EC2A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateCount="1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6020,9 +6021,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -6065,9 +6066,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -6110,9 +6111,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -6155,9 +6156,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1638300" cy="251460"/>
@@ -6200,9 +6201,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2004060" cy="209484"/>
@@ -6245,9 +6246,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>30479</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2049781" cy="228600"/>
@@ -6290,15 +6291,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6354,15 +6355,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6418,27 +6419,342 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586740" cy="382189"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="180" name="그림 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A9B733-F74D-4F74-9680-EFD3D1F65D52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7025640" y="8923020"/>
+          <a:ext cx="586740" cy="382189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="655320" cy="191556"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="210" name="그림 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA41431-37EF-47F2-B9E3-69077EEE89DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12984480" y="8618220"/>
+          <a:ext cx="655320" cy="191556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914479" cy="289585"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="211" name="그림 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6B9B03-21A0-4ED2-9CFE-1A26C983B0F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10614660" y="8930640"/>
+          <a:ext cx="914479" cy="289585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>640079</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="708661" cy="225104"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="212" name="그림 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E3300F-8393-44EE-A9C9-636CD69E99E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11757659" y="8930640"/>
+          <a:ext cx="708661" cy="225104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1447800" cy="230542"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="213" name="그림 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE9E762-076F-4D75-A15E-294B9E1FBC89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11917680" y="9235440"/>
+          <a:ext cx="1447800" cy="230542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>632461</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="616528" cy="228600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="214" name="그림 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B37AA41-A137-45D0-833B-03A748AC2178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13091161" y="9875520"/>
+          <a:ext cx="616528" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1493520" cy="259080"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="215" name="그림 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD796A0A-BC83-4F33-9D30-BE7D3593E7FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11391900" y="9540240"/>
+          <a:ext cx="1493520" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="586740" cy="382189"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="180" name="그림 179">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A9B733-F74D-4F74-9680-EFD3D1F65D52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="835193" cy="259080"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="216" name="그림 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{105A989A-62A9-40EC-9CEB-051D394EFFF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6451,8 +6767,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7025640" y="8923020"/>
-          <a:ext cx="586740" cy="382189"/>
+          <a:off x="10507980" y="9532620"/>
+          <a:ext cx="835193" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6463,27 +6779,27 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="655320" cy="191556"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="210" name="그림 209">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA41431-37EF-47F2-B9E3-69077EEE89DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83821</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="815339" cy="253737"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="219" name="그림 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCCA6D6-FFF7-4F61-95EE-2742D528CC2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6496,8 +6812,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12984480" y="8618220"/>
-          <a:ext cx="655320" cy="191556"/>
+          <a:off x="10530841" y="10165080"/>
+          <a:ext cx="815339" cy="253737"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6508,27 +6824,27 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="914479" cy="289585"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="211" name="그림 210">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6B9B03-21A0-4ED2-9CFE-1A26C983B0F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="797418" cy="243839"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="220" name="그림 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1236C5-CD57-4FD3-80F3-BF4736A4A0A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6541,321 +6857,6 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10614660" y="8930640"/>
-          <a:ext cx="914479" cy="289585"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>640079</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="708661" cy="225104"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="212" name="그림 211">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E3300F-8393-44EE-A9C9-636CD69E99E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11757659" y="8930640"/>
-          <a:ext cx="708661" cy="225104"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1447800" cy="230542"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="213" name="그림 212">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE9E762-076F-4D75-A15E-294B9E1FBC89}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11917680" y="9235440"/>
-          <a:ext cx="1447800" cy="230542"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>632461</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="616528" cy="228600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="214" name="그림 213">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B37AA41-A137-45D0-833B-03A748AC2178}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13091161" y="9875520"/>
-          <a:ext cx="616528" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1493520" cy="259080"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="215" name="그림 214">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD796A0A-BC83-4F33-9D30-BE7D3593E7FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11391900" y="9540240"/>
-          <a:ext cx="1493520" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="835193" cy="259080"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="216" name="그림 215">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{105A989A-62A9-40EC-9CEB-051D394EFFF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10507980" y="9532620"/>
-          <a:ext cx="835193" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>83821</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="815339" cy="253737"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="219" name="그림 218">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCCA6D6-FFF7-4F61-95EE-2742D528CC2D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10530841" y="10165080"/>
-          <a:ext cx="815339" cy="253737"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="797418" cy="243839"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="220" name="그림 219">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1236C5-CD57-4FD3-80F3-BF4736A4A0A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="10553700" y="10789921"/>
           <a:ext cx="797418" cy="243839"/>
         </a:xfrm>
@@ -6868,15 +6869,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6931,9 +6932,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914479" cy="289585"/>
@@ -6976,9 +6977,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>640079</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="708661" cy="225104"/>
@@ -7021,9 +7022,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1447800" cy="230542"/>
@@ -7066,9 +7067,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>632461</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="616528" cy="228600"/>
@@ -7111,9 +7112,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1493520" cy="259080"/>
@@ -7156,9 +7157,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="835193" cy="259080"/>
@@ -7201,9 +7202,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>83821</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="815339" cy="253737"/>
@@ -7246,9 +7247,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="797418" cy="243839"/>
@@ -7291,15 +7292,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7354,9 +7355,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>51906</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1021080" cy="222414"/>
@@ -7399,9 +7400,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1473800" cy="182880"/>
@@ -7444,9 +7445,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="655320" cy="258680"/>
@@ -7489,9 +7490,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>487679</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2621928" cy="556260"/>
@@ -7534,15 +7535,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7662,9 +7663,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -7707,9 +7708,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2103120" cy="236220"/>
@@ -7752,15 +7753,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7816,9 +7817,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>144781</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2644139" cy="267761"/>
@@ -7861,15 +7862,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>251459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7925,15 +7926,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7989,9 +7990,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="259102" cy="259102"/>
@@ -8034,9 +8035,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>129541</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2042159" cy="283004"/>
@@ -8394,15 +8395,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8457,15 +8458,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8521,15 +8522,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8584,15 +8585,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8650,7 +8651,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -8695,7 +8696,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -8740,7 +8741,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -8785,13 +8786,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8856,13 +8857,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8916,7 +8917,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182879</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>33802</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167641" cy="240716"/>
@@ -8961,13 +8962,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>53341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9025,7 +9026,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9070,13 +9071,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9134,7 +9135,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -9179,7 +9180,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -9224,7 +9225,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9269,13 +9270,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>163830</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9365,13 +9366,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>240031</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>396241</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9450,7 +9451,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -9495,7 +9496,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -9540,7 +9541,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>59054</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="154306" cy="221567"/>
@@ -9585,7 +9586,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9628,15 +9629,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9680,13 +9681,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>72390</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>210813</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9730,13 +9731,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>72391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>246522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9780,13 +9781,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>156209</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>441959</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>249556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9830,7 +9831,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>205739</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>41422</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167641" cy="240716"/>
@@ -9875,13 +9876,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9950,13 +9951,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11815,8 +11816,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12663,594 +12664,594 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="6:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="86" spans="6:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F86" s="1"/>
-      <c r="G86" s="4" t="s">
+    <row r="53" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="M86" s="30" t="s">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N86" s="31"/>
-      <c r="O86" s="31"/>
-      <c r="P86" s="31"/>
-      <c r="Q86" s="32"/>
-      <c r="S86" s="34" t="s">
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="32"/>
+      <c r="M57" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="T86" s="35"/>
-      <c r="U86" s="35"/>
-      <c r="V86" s="35"/>
-      <c r="W86" s="36"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="36"/>
     </row>
-    <row r="87" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G87" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M87" s="17" t="s">
+    <row r="58" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="19"/>
-      <c r="S87" s="27"/>
-      <c r="T87" s="3"/>
-      <c r="U87" s="3"/>
-      <c r="V87" s="3"/>
-      <c r="W87" s="28"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="19"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="28"/>
     </row>
-    <row r="88" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G88" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M88" s="9"/>
-      <c r="Q88" s="10"/>
-      <c r="S88" s="9"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="8"/>
+    <row r="59" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="G59" s="9"/>
+      <c r="K59" s="10"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="8"/>
     </row>
-    <row r="89" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G89" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="M89" s="9" t="s">
+    <row r="60" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="G60" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Q89" s="10"/>
-      <c r="S89" s="9" t="s">
+      <c r="K60" s="10"/>
+      <c r="M60" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="8"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="8"/>
     </row>
-    <row r="90" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G90" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="M90" s="9"/>
-      <c r="Q90" s="10"/>
-      <c r="S90" s="9"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="8"/>
+    <row r="61" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="G61" s="9"/>
+      <c r="K61" s="10"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="8"/>
     </row>
-    <row r="91" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G91" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="M91" s="9" t="s">
+    <row r="62" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="Q91" s="10"/>
-      <c r="S91" s="9" t="s">
+      <c r="K62" s="10"/>
+      <c r="M62" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="8"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="8"/>
     </row>
-    <row r="92" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M92" s="9"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="8"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="8"/>
+    <row r="63" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="9"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="8"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="8"/>
     </row>
-    <row r="93" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M93" s="9" t="s">
+    <row r="64" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="8"/>
-      <c r="S93" s="9" t="s">
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="8"/>
+      <c r="M64" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
-      <c r="V93" s="1"/>
-      <c r="W93" s="8"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="8"/>
     </row>
-    <row r="94" spans="6:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M94" s="9" t="s">
+    <row r="65" spans="7:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G65" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="8"/>
-      <c r="S94" s="14" t="s">
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="8"/>
+      <c r="M65" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T94" s="15"/>
-      <c r="U94" s="15"/>
-      <c r="V94" s="15"/>
-      <c r="W94" s="16"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="16"/>
     </row>
-    <row r="95" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M95" s="9"/>
-      <c r="Q95" s="10"/>
-      <c r="S95" s="27"/>
-      <c r="T95" s="3"/>
-      <c r="U95" s="3"/>
-      <c r="V95" s="3"/>
-      <c r="W95" s="28"/>
+    <row r="66" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="9"/>
+      <c r="K66" s="10"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="28"/>
     </row>
-    <row r="96" spans="6:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M96" s="9" t="s">
+    <row r="67" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="8"/>
-      <c r="S96" s="9"/>
-      <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="W96" s="8"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="8"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="8"/>
     </row>
-    <row r="97" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M97" s="9" t="s">
+    <row r="68" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="8"/>
-      <c r="S97" s="9" t="s">
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="8"/>
+      <c r="M68" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="W97" s="8"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="8"/>
     </row>
-    <row r="98" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M98" s="9" t="s">
+    <row r="69" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="8"/>
-      <c r="S98" s="9"/>
-      <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
-      <c r="W98" s="8"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="8"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="8"/>
     </row>
-    <row r="99" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M99" s="9" t="s">
+    <row r="70" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="8"/>
-      <c r="S99" s="9" t="s">
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="8"/>
+      <c r="M70" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="8"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="8"/>
     </row>
-    <row r="100" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M100" s="9" t="s">
+    <row r="71" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="8"/>
-      <c r="S100" s="9"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="8"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="8"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="8"/>
     </row>
-    <row r="101" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M101" s="9" t="s">
+    <row r="72" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q101" s="10"/>
-      <c r="S101" s="9" t="s">
+      <c r="K72" s="10"/>
+      <c r="M72" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="W101" s="8"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="8"/>
     </row>
-    <row r="102" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M102" s="9" t="s">
+    <row r="73" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q102" s="10"/>
-      <c r="S102" s="14" t="s">
+      <c r="K73" s="10"/>
+      <c r="M73" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T102" s="15"/>
-      <c r="U102" s="15"/>
-      <c r="V102" s="15"/>
-      <c r="W102" s="16"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="16"/>
     </row>
-    <row r="103" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M103" s="29" t="s">
+    <row r="74" spans="7:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G74" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="N103" s="12"/>
-      <c r="O103" s="12"/>
-      <c r="P103" s="12"/>
-      <c r="Q103" s="13"/>
-      <c r="S103" s="17"/>
-      <c r="T103" s="23"/>
-      <c r="U103" s="23"/>
-      <c r="V103" s="23"/>
-      <c r="W103" s="24"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="13"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="24"/>
     </row>
-    <row r="104" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
-      <c r="Q104" s="3"/>
-      <c r="S104" s="9"/>
-      <c r="T104" s="1"/>
-      <c r="U104" s="1"/>
-      <c r="V104" s="1"/>
-      <c r="W104" s="8"/>
+    <row r="75" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="8"/>
+    </row>
+    <row r="76" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="1"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="8"/>
+    </row>
+    <row r="77" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="1"/>
+      <c r="M77" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="8"/>
+    </row>
+    <row r="78" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="5"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="8"/>
+    </row>
+    <row r="79" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M79" s="9"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="8"/>
+    </row>
+    <row r="80" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M80" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="26"/>
+    </row>
+    <row r="81" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="6"/>
+      <c r="M104" s="6"/>
     </row>
     <row r="105" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M105" s="1"/>
-      <c r="S105" s="9"/>
-      <c r="T105" s="1"/>
-      <c r="U105" s="1"/>
-      <c r="V105" s="1"/>
-      <c r="W105" s="8"/>
+      <c r="A105" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="32"/>
+      <c r="M105" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N105" s="31"/>
+      <c r="O105" s="31"/>
+      <c r="P105" s="31"/>
+      <c r="Q105" s="32"/>
+      <c r="S105" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="T105" s="31"/>
+      <c r="U105" s="31"/>
+      <c r="V105" s="31"/>
+      <c r="W105" s="32"/>
     </row>
     <row r="106" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M106" s="1"/>
-      <c r="S106" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T106" s="1"/>
-      <c r="U106" s="1"/>
-      <c r="V106" s="1"/>
-      <c r="W106" s="8"/>
+      <c r="A106" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="8"/>
+      <c r="M106" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="8"/>
+      <c r="S106" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="T106" s="18"/>
+      <c r="U106" s="18"/>
+      <c r="V106" s="18"/>
+      <c r="W106" s="19"/>
     </row>
     <row r="107" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M107" s="5"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-      <c r="S107" s="9"/>
-      <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
-      <c r="W107" s="8"/>
+      <c r="A107" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="19"/>
+      <c r="M107" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N107" s="18"/>
+      <c r="O107" s="18"/>
+      <c r="P107" s="18"/>
+      <c r="Q107" s="19"/>
+      <c r="S107" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="T107" s="18"/>
+      <c r="U107" s="18"/>
+      <c r="V107" s="18"/>
+      <c r="W107" s="19"/>
     </row>
     <row r="108" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S108" s="9"/>
-      <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
-      <c r="W108" s="8"/>
+      <c r="A108" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="8"/>
+      <c r="M108" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N108" s="18"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+      <c r="Q108" s="19"/>
+      <c r="S108" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="T108" s="18"/>
+      <c r="U108" s="18"/>
+      <c r="V108" s="18"/>
+      <c r="W108" s="19"/>
     </row>
     <row r="109" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S109" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="T109" s="25"/>
-      <c r="U109" s="25"/>
-      <c r="V109" s="25"/>
-      <c r="W109" s="26"/>
+      <c r="A109" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="13"/>
+      <c r="M109" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="8"/>
+      <c r="S109" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T109" s="12"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="12"/>
+      <c r="W109" s="13"/>
     </row>
-    <row r="110" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="8"/>
+      <c r="M110" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="8"/>
+    </row>
+    <row r="111" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="8"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="8"/>
+    </row>
     <row r="112" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M112" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="A112" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="8"/>
+      <c r="M112" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="8"/>
     </row>
-    <row r="113" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="6"/>
-      <c r="M113" s="6"/>
+    <row r="113" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="8"/>
+      <c r="M113" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="8"/>
     </row>
-    <row r="114" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="32"/>
-      <c r="M114" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N114" s="31"/>
-      <c r="O114" s="31"/>
-      <c r="P114" s="31"/>
-      <c r="Q114" s="32"/>
-      <c r="S114" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="T114" s="31"/>
-      <c r="U114" s="31"/>
-      <c r="V114" s="31"/>
-      <c r="W114" s="32"/>
+    <row r="114" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="13"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="13"/>
     </row>
-    <row r="115" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="8"/>
-      <c r="M115" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="8"/>
-      <c r="S115" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="T115" s="18"/>
-      <c r="U115" s="18"/>
-      <c r="V115" s="18"/>
-      <c r="W115" s="19"/>
-    </row>
-    <row r="116" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="19"/>
-      <c r="M116" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="N116" s="18"/>
-      <c r="O116" s="18"/>
-      <c r="P116" s="18"/>
-      <c r="Q116" s="19"/>
-      <c r="S116" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="T116" s="18"/>
-      <c r="U116" s="18"/>
-      <c r="V116" s="18"/>
-      <c r="W116" s="19"/>
-    </row>
-    <row r="117" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="8"/>
-      <c r="M117" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
-      <c r="P117" s="18"/>
-      <c r="Q117" s="19"/>
-      <c r="S117" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T117" s="18"/>
-      <c r="U117" s="18"/>
-      <c r="V117" s="18"/>
-      <c r="W117" s="19"/>
-    </row>
-    <row r="118" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="13"/>
-      <c r="M118" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="8"/>
-      <c r="S118" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="T118" s="12"/>
-      <c r="U118" s="12"/>
-      <c r="V118" s="12"/>
-      <c r="W118" s="13"/>
-    </row>
-    <row r="119" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="8"/>
-      <c r="M119" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="8"/>
-    </row>
-    <row r="120" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="8"/>
-      <c r="M120" s="9"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="8"/>
-    </row>
-    <row r="121" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="8"/>
-      <c r="M121" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
-      <c r="Q121" s="8"/>
-    </row>
-    <row r="122" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="8"/>
-      <c r="M122" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="8"/>
-    </row>
-    <row r="123" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="13"/>
-      <c r="M123" s="11"/>
-      <c r="N123" s="12"/>
-      <c r="O123" s="12"/>
-      <c r="P123" s="12"/>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="129" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="130" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="131" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B34794E-D4E0-4738-A72B-DC1733EC2A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5727B827-D907-4F5A-850E-5F802F49DD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateCount="1"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="124">
   <si>
     <t>의약품관리종합정보포탈 (https://biz.kpis.or.kr) &gt; sims</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,40 +409,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  기       간                                        일자 Set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">   거래처명                                        거래처 Set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">수기 &gt; 공급가액 / 세액            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>직접 입력</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1031,6 +997,102 @@
     <t>쭉쭉 입력하다가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">         &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지지난 달부터로 날짜 세팅하고 조회 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호 순서대로 더블 클릭후 창 그대로 둔 상태로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금계산서 관리 창 내리면 두개가 보여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전달거와 똑같이 이번달꺼를 만들어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국세청 홈텍스에 들어가서 세금계산서 건별발급</t>
+  </si>
+  <si>
+    <t>국세청 홈텍스에 들어가서 세금계산서 건별발급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산기 이용하여 우리측 매출액 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리꺼 매출원장에 공급가액, 세액 입력후 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  기       간                                        전달 기간으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수기 &gt; 공급가액 / 세액      ★</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>직접 입력</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sims에서와 똑같이 만들어줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고, 품목 까먹지 말고 입력해줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">바로 발급하지 말고 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정확하면 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다 발급했으면 전자(세금)계산서 발급 목록조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">들어가서 sims 와 교차확인 해줘 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1478,7 +1540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1740,6 +1802,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5921,16 +5995,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>232410</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>285350</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>224790</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>256775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5959,8 +6033,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11079480" y="3467100"/>
-          <a:ext cx="655320" cy="258680"/>
+          <a:off x="11605260" y="4526280"/>
+          <a:ext cx="678180" cy="254870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8651,7 +8725,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -8696,7 +8770,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -8741,7 +8815,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -8786,13 +8860,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8857,13 +8931,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8917,7 +8991,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182879</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>33802</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167641" cy="240716"/>
@@ -8962,13 +9036,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>53341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9026,7 +9100,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9071,13 +9145,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9133,9 +9207,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -9178,9 +9252,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -9223,9 +9297,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9268,15 +9342,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>163830</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9364,15 +9438,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>240031</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>396241</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9449,9 +9523,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -9494,9 +9568,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -9539,9 +9613,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>59054</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="154306" cy="221567"/>
@@ -9584,9 +9658,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9681,13 +9755,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>72390</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>210813</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9729,15 +9803,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>72391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>246522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9779,15 +9853,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>156209</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>441959</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>249556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9831,7 +9905,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>205739</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>41422</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167641" cy="240716"/>
@@ -9876,13 +9950,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9951,13 +10025,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11489,6 +11563,270 @@
         <a:xfrm>
           <a:off x="57150" y="15316200"/>
           <a:ext cx="2266667" cy="438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438013</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>276196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="그림 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4783495-CF18-89C2-1AC3-98FB4874B3C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="30660975"/>
+          <a:ext cx="1095238" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571349</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>276198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="그림 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F71F38-49DA-6048-20EA-6F888790184C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="30670500"/>
+          <a:ext cx="1209524" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514306</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>257127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="그림 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D663EFEC-342D-8C76-134F-EA1590C594AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="31746825"/>
+          <a:ext cx="352381" cy="380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295158</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>314286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="그림 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380C91DC-5867-BAF7-E2B6-0721340D2808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172325" y="30927675"/>
+          <a:ext cx="933333" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295142</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>38052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="그림 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267546E3-579D-6DD7-6CC8-58F88B1FF371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8410575" y="31842075"/>
+          <a:ext cx="1066667" cy="380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95156</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>38054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="그림 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA31D31B-1D91-D946-2FAB-9BA08FFEED79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839075" y="32165925"/>
+          <a:ext cx="752381" cy="371429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11816,8 +12154,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T101" sqref="T101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11843,7 +12181,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="70"/>
       <c r="H2" s="71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I2" s="71"/>
       <c r="J2" s="71"/>
@@ -11873,7 +12211,7 @@
       <c r="E3" s="64"/>
       <c r="F3" s="1"/>
       <c r="G3" s="73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H3" s="74"/>
       <c r="I3" s="74"/>
@@ -11919,7 +12257,7 @@
     </row>
     <row r="5" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -11934,7 +12272,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
       <c r="M5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -11950,7 +12288,7 @@
     </row>
     <row r="6" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -11975,7 +12313,7 @@
     </row>
     <row r="7" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -11983,7 +12321,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="1"/>
       <c r="G7" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -11997,7 +12335,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="8"/>
       <c r="S7" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -12006,7 +12344,7 @@
     </row>
     <row r="8" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
@@ -12033,7 +12371,7 @@
     </row>
     <row r="9" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
@@ -12048,7 +12386,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -12056,13 +12394,13 @@
       <c r="Q9" s="8"/>
       <c r="S9" s="44"/>
       <c r="T9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
@@ -12091,7 +12429,7 @@
     </row>
     <row r="11" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -12122,7 +12460,7 @@
     </row>
     <row r="12" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -12164,7 +12502,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="8"/>
       <c r="M13" s="46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -12178,7 +12516,7 @@
     </row>
     <row r="14" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -12193,7 +12531,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="8"/>
       <c r="M14" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -12207,7 +12545,7 @@
     </row>
     <row r="15" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
@@ -12224,7 +12562,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="49"/>
       <c r="S15" s="9" t="s">
@@ -12237,7 +12575,7 @@
     </row>
     <row r="16" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -12408,7 +12746,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="8"/>
       <c r="S22" s="60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -12429,7 +12767,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="8"/>
       <c r="M23" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -12457,7 +12795,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="8"/>
       <c r="M24" s="46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -12485,7 +12823,7 @@
       <c r="M25" s="44"/>
       <c r="Q25" s="10"/>
       <c r="S25" s="77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
@@ -12522,7 +12860,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="8"/>
       <c r="G27" s="76" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H27" s="68"/>
       <c r="I27" s="68"/>
@@ -12565,7 +12903,7 @@
       <c r="G30" s="44"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="49"/>
@@ -12574,7 +12912,7 @@
       <c r="G31" s="44"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="49"/>
@@ -12583,7 +12921,7 @@
       <c r="G32" s="48"/>
       <c r="H32" s="61"/>
       <c r="I32" s="61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="49"/>
@@ -12592,7 +12930,7 @@
       <c r="G33" s="48"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="49"/>
@@ -12601,7 +12939,7 @@
       <c r="G34" s="48"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="49"/>
@@ -12610,7 +12948,7 @@
       <c r="G35" s="77"/>
       <c r="H35" s="50"/>
       <c r="I35" s="78" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J35" s="50"/>
       <c r="K35" s="51"/>
@@ -12618,62 +12956,62 @@
     <row r="36" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12711,7 +13049,7 @@
         <v>36</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H58" s="18"/>
       <c r="I58" s="18"/>
@@ -12748,7 +13086,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="G60" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K60" s="10"/>
       <c r="M60" s="9" t="s">
@@ -12777,7 +13115,7 @@
     </row>
     <row r="62" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G62" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K62" s="10"/>
       <c r="M62" s="9" t="s">
@@ -12943,7 +13281,7 @@
     </row>
     <row r="74" spans="7:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G74" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
@@ -13013,245 +13351,414 @@
       <c r="P80" s="25"/>
       <c r="Q80" s="26"/>
     </row>
-    <row r="81" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
+    <row r="81" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M103" s="6" t="s">
+    </row>
+    <row r="83" spans="1:5" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="32"/>
+    </row>
+    <row r="85" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="19"/>
+    </row>
+    <row r="87" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="13"/>
+    </row>
+    <row r="89" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" spans="1:5" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="13"/>
+    </row>
+    <row r="94" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="6"/>
-      <c r="M104" s="6"/>
+    <row r="97" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="88"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="88"/>
+      <c r="E98" s="89"/>
+      <c r="G98" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="31"/>
+      <c r="K98" s="32"/>
+      <c r="M98" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="N98" s="88"/>
+      <c r="O98" s="88"/>
+      <c r="P98" s="88"/>
+      <c r="Q98" s="89"/>
     </row>
-    <row r="105" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="32"/>
-      <c r="M105" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N105" s="31"/>
-      <c r="O105" s="31"/>
-      <c r="P105" s="31"/>
-      <c r="Q105" s="32"/>
-      <c r="S105" s="30" t="s">
+    <row r="99" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="90"/>
+      <c r="C99" s="90"/>
+      <c r="D99" s="90"/>
+      <c r="E99" s="10"/>
+      <c r="G99" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="8"/>
+      <c r="M99" s="44"/>
+      <c r="N99" s="90"/>
+      <c r="O99" s="90"/>
+      <c r="P99" s="90"/>
+      <c r="Q99" s="10"/>
+    </row>
+    <row r="100" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" s="90"/>
+      <c r="C100" s="90"/>
+      <c r="D100" s="90"/>
+      <c r="E100" s="10"/>
+      <c r="G100" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="19"/>
+      <c r="M100" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="N100" s="90"/>
+      <c r="O100" s="90"/>
+      <c r="P100" s="90"/>
+      <c r="Q100" s="10"/>
+    </row>
+    <row r="101" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="88"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="88"/>
+      <c r="D101" s="88"/>
+      <c r="E101" s="88"/>
+      <c r="G101" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="19"/>
+      <c r="M101" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="N101" s="90"/>
+      <c r="O101" s="90"/>
+      <c r="P101" s="90"/>
+      <c r="Q101" s="10"/>
+    </row>
+    <row r="102" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="87"/>
+      <c r="B102" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="88"/>
+      <c r="D102" s="88"/>
+      <c r="E102" s="89"/>
+      <c r="G102" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="8"/>
+      <c r="M102" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="N102" s="90"/>
+      <c r="O102" s="90"/>
+      <c r="P102" s="90"/>
+      <c r="Q102" s="10"/>
+    </row>
+    <row r="103" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="90"/>
+      <c r="C103" s="90"/>
+      <c r="D103" s="90"/>
+      <c r="E103" s="10"/>
+      <c r="G103" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="8"/>
+      <c r="M103" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="N103" s="90"/>
+      <c r="O103" s="90"/>
+      <c r="P103" s="90"/>
+      <c r="Q103" s="10"/>
+    </row>
+    <row r="104" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="90"/>
+      <c r="C104" s="90"/>
+      <c r="D104" s="90"/>
+      <c r="E104" s="10"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="8"/>
+      <c r="M104" s="44"/>
+      <c r="N104" s="90"/>
+      <c r="O104" s="90"/>
+      <c r="P104" s="90"/>
+      <c r="Q104" s="10"/>
+    </row>
+    <row r="105" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="44"/>
+      <c r="B105" s="90"/>
+      <c r="C105" s="90"/>
+      <c r="D105" s="90"/>
+      <c r="E105" s="10"/>
+      <c r="G105" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="8"/>
+      <c r="M105" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="N105" s="90"/>
+      <c r="O105" s="90"/>
+      <c r="P105" s="90"/>
+      <c r="Q105" s="10"/>
+    </row>
+    <row r="106" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="44"/>
+      <c r="B106" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" s="90"/>
+      <c r="D106" s="90"/>
+      <c r="E106" s="10"/>
+      <c r="G106" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="8"/>
+      <c r="M106" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="N106" s="90"/>
+      <c r="O106" s="90"/>
+      <c r="P106" s="90"/>
+      <c r="Q106" s="10"/>
+    </row>
+    <row r="107" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="90"/>
+      <c r="C107" s="90"/>
+      <c r="D107" s="90"/>
+      <c r="E107" s="10"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="13"/>
+    </row>
+    <row r="108" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="90"/>
+      <c r="C108" s="90"/>
+      <c r="D108" s="90"/>
+      <c r="E108" s="10"/>
+      <c r="G108" s="6"/>
+    </row>
+    <row r="109" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="88"/>
+      <c r="B109" s="88"/>
+      <c r="C109" s="88"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="88"/>
+      <c r="G109" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
+      <c r="J109" s="31"/>
+      <c r="K109" s="32"/>
+    </row>
+    <row r="110" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="90"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="90"/>
+      <c r="D110" s="90"/>
+      <c r="E110" s="90"/>
+      <c r="G110" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="19"/>
+    </row>
+    <row r="111" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="90"/>
+      <c r="B111" s="90"/>
+      <c r="C111" s="90"/>
+      <c r="D111" s="90"/>
+      <c r="E111" s="90"/>
+      <c r="G111" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="T105" s="31"/>
-      <c r="U105" s="31"/>
-      <c r="V105" s="31"/>
-      <c r="W105" s="32"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="19"/>
     </row>
-    <row r="106" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="8"/>
-      <c r="M106" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="8"/>
-      <c r="S106" s="17" t="s">
+    <row r="112" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="90"/>
+      <c r="B112" s="90"/>
+      <c r="C112" s="90"/>
+      <c r="D112" s="90"/>
+      <c r="E112" s="90"/>
+      <c r="G112" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="T106" s="18"/>
-      <c r="U106" s="18"/>
-      <c r="V106" s="18"/>
-      <c r="W106" s="19"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="19"/>
     </row>
-    <row r="107" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="19"/>
-      <c r="M107" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="N107" s="18"/>
-      <c r="O107" s="18"/>
-      <c r="P107" s="18"/>
-      <c r="Q107" s="19"/>
-      <c r="S107" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="T107" s="18"/>
-      <c r="U107" s="18"/>
-      <c r="V107" s="18"/>
-      <c r="W107" s="19"/>
+    <row r="113" spans="7:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G113" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="13"/>
     </row>
-    <row r="108" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="8"/>
-      <c r="M108" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="N108" s="18"/>
-      <c r="O108" s="18"/>
-      <c r="P108" s="18"/>
-      <c r="Q108" s="19"/>
-      <c r="S108" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T108" s="18"/>
-      <c r="U108" s="18"/>
-      <c r="V108" s="18"/>
-      <c r="W108" s="19"/>
-    </row>
-    <row r="109" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="13"/>
-      <c r="M109" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="8"/>
-      <c r="S109" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="T109" s="12"/>
-      <c r="U109" s="12"/>
-      <c r="V109" s="12"/>
-      <c r="W109" s="13"/>
-    </row>
-    <row r="110" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="8"/>
-      <c r="M110" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="8"/>
-    </row>
-    <row r="111" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="8"/>
-      <c r="M111" s="9"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="8"/>
-    </row>
-    <row r="112" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="8"/>
-      <c r="M112" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="8"/>
-    </row>
-    <row r="113" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="8"/>
-      <c r="M113" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="8"/>
-    </row>
-    <row r="114" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="13"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="129" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="130" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="131" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5727B827-D907-4F5A-850E-5F802F49DD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D61A5B-EF84-4831-88DC-DB8B7BBFD628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="125">
   <si>
     <t>의약품관리종합정보포탈 (https://biz.kpis.or.kr) &gt; sims</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1093,12 +1093,16 @@
     <t xml:space="preserve">들어가서 sims 와 교차확인 해줘 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>작성일자, 월, 일 정확하게 기입해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1242,6 +1246,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1811,7 +1823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5995,16 +6007,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>232410</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>184785</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>224790</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177165</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>256775</xdr:rowOff>
+      <xdr:rowOff>285350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6033,7 +6045,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11605260" y="4526280"/>
+          <a:off x="12243435" y="4554855"/>
           <a:ext cx="678180" cy="254870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11751,13 +11763,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>295142</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>38052</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11795,13 +11807,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>95156</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>38054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12154,8 +12166,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T101" sqref="T101"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13485,9 +13497,6 @@
       <c r="A99" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B99" s="90"/>
-      <c r="C99" s="90"/>
-      <c r="D99" s="90"/>
       <c r="E99" s="10"/>
       <c r="G99" s="33" t="s">
         <v>52</v>
@@ -13497,18 +13506,12 @@
       <c r="J99" s="1"/>
       <c r="K99" s="8"/>
       <c r="M99" s="44"/>
-      <c r="N99" s="90"/>
-      <c r="O99" s="90"/>
-      <c r="P99" s="90"/>
       <c r="Q99" s="10"/>
     </row>
     <row r="100" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B100" s="90"/>
-      <c r="C100" s="90"/>
-      <c r="D100" s="90"/>
       <c r="E100" s="10"/>
       <c r="G100" s="17" t="s">
         <v>116</v>
@@ -13520,9 +13523,6 @@
       <c r="M100" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="N100" s="90"/>
-      <c r="O100" s="90"/>
-      <c r="P100" s="90"/>
       <c r="Q100" s="10"/>
     </row>
     <row r="101" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13538,12 +13538,9 @@
       <c r="I101" s="18"/>
       <c r="J101" s="18"/>
       <c r="K101" s="19"/>
-      <c r="M101" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="N101" s="90"/>
-      <c r="O101" s="90"/>
-      <c r="P101" s="90"/>
+      <c r="M101" s="90" t="s">
+        <v>124</v>
+      </c>
       <c r="Q101" s="10"/>
     </row>
     <row r="102" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -13562,20 +13559,14 @@
       <c r="J102" s="1"/>
       <c r="K102" s="8"/>
       <c r="M102" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="N102" s="90"/>
-      <c r="O102" s="90"/>
-      <c r="P102" s="90"/>
+        <v>119</v>
+      </c>
       <c r="Q102" s="10"/>
     </row>
     <row r="103" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="90"/>
-      <c r="C103" s="90"/>
-      <c r="D103" s="90"/>
       <c r="E103" s="10"/>
       <c r="G103" s="9" t="s">
         <v>55</v>
@@ -13585,37 +13576,27 @@
       <c r="J103" s="1"/>
       <c r="K103" s="8"/>
       <c r="M103" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="N103" s="90"/>
-      <c r="O103" s="90"/>
-      <c r="P103" s="90"/>
+        <v>120</v>
+      </c>
       <c r="Q103" s="10"/>
     </row>
     <row r="104" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B104" s="90"/>
-      <c r="C104" s="90"/>
-      <c r="D104" s="90"/>
       <c r="E104" s="10"/>
       <c r="G104" s="9"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="8"/>
-      <c r="M104" s="44"/>
-      <c r="N104" s="90"/>
-      <c r="O104" s="90"/>
-      <c r="P104" s="90"/>
+      <c r="M104" s="44" t="s">
+        <v>121</v>
+      </c>
       <c r="Q104" s="10"/>
     </row>
     <row r="105" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="44"/>
-      <c r="B105" s="90"/>
-      <c r="C105" s="90"/>
-      <c r="D105" s="90"/>
       <c r="E105" s="10"/>
       <c r="G105" s="9" t="s">
         <v>54</v>
@@ -13624,21 +13605,14 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="8"/>
-      <c r="M105" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="N105" s="90"/>
-      <c r="O105" s="90"/>
-      <c r="P105" s="90"/>
+      <c r="M105" s="44"/>
       <c r="Q105" s="10"/>
     </row>
     <row r="106" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="44"/>
-      <c r="B106" s="90" t="s">
+      <c r="B106" t="s">
         <v>109</v>
       </c>
-      <c r="C106" s="90"/>
-      <c r="D106" s="90"/>
       <c r="E106" s="10"/>
       <c r="G106" s="7" t="s">
         <v>117</v>
@@ -13648,34 +13622,29 @@
       <c r="J106" s="1"/>
       <c r="K106" s="8"/>
       <c r="M106" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="N106" s="90"/>
-      <c r="O106" s="90"/>
-      <c r="P106" s="90"/>
+        <v>122</v>
+      </c>
       <c r="Q106" s="10"/>
     </row>
     <row r="107" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="90"/>
-      <c r="C107" s="90"/>
-      <c r="D107" s="90"/>
       <c r="E107" s="10"/>
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
       <c r="J107" s="12"/>
       <c r="K107" s="13"/>
+      <c r="M107" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q107" s="10"/>
     </row>
     <row r="108" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B108" s="90"/>
-      <c r="C108" s="90"/>
-      <c r="D108" s="90"/>
       <c r="E108" s="10"/>
       <c r="G108" s="6"/>
     </row>
@@ -13694,11 +13663,6 @@
       <c r="K109" s="32"/>
     </row>
     <row r="110" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="90"/>
-      <c r="B110" s="90"/>
-      <c r="C110" s="90"/>
-      <c r="D110" s="90"/>
-      <c r="E110" s="90"/>
       <c r="G110" s="17" t="s">
         <v>57</v>
       </c>
@@ -13708,11 +13672,6 @@
       <c r="K110" s="19"/>
     </row>
     <row r="111" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="90"/>
-      <c r="B111" s="90"/>
-      <c r="C111" s="90"/>
-      <c r="D111" s="90"/>
-      <c r="E111" s="90"/>
       <c r="G111" s="17" t="s">
         <v>58</v>
       </c>
@@ -13722,11 +13681,6 @@
       <c r="K111" s="19"/>
     </row>
     <row r="112" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="90"/>
-      <c r="B112" s="90"/>
-      <c r="C112" s="90"/>
-      <c r="D112" s="90"/>
-      <c r="E112" s="90"/>
       <c r="G112" s="17" t="s">
         <v>59</v>
       </c>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D61A5B-EF84-4831-88DC-DB8B7BBFD628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C330ED86-53F3-4E76-818A-7780DB3FDBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="137">
   <si>
     <t>의약품관리종합정보포탈 (https://biz.kpis.or.kr) &gt; sims</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -970,10 +970,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여기 날짜 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>엘병원은 &gt; 엘병원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -991,10 +987,6 @@
   </si>
   <si>
     <t>제품 입력하고 엔터! &gt;&gt; 보험코드 일치 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쭉쭉 입력하다가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1095,6 +1087,62 @@
   </si>
   <si>
     <t>작성일자, 월, 일 정확하게 기입해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쭉쭉 입력하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입 합계금액 명세서랑 확인하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출 합계금액에 *0.85 곱해서 매입과 금액 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입 매출 날짜 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 하고 프린트 2장!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PDF로 스캔 뜨면서 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 입력한 원장 확인!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여기 누계 잔액과 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래명세서 미수금 금액 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스캔한 PDF </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J. 거래명세서(매출)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카톡으로 보내드려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">판매한곳 폴더 들어가서 파일 넣고 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1552,7 +1600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1826,6 +1874,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6109,16 +6166,106 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="111759" cy="128952"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="그림 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA82D944-6805-45CD-A4A5-A7ED8F9CFD9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="533400"/>
+          <a:ext cx="111759" cy="128952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160034" cy="129551"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="165" name="그림 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E59847B-E678-468F-B36D-ED5893FFC57D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="18962370"/>
+          <a:ext cx="160034" cy="129551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="그림 110">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA82D944-6805-45CD-A4A5-A7ED8F9CFD9A}"/>
+        <xdr:cNvPr id="166" name="그림 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387B321C-CEB2-4E87-8403-D18D8603AFF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6140,7 +6287,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8153400" y="533400"/>
+          <a:off x="8153400" y="8656320"/>
           <a:ext cx="111759" cy="128952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6152,27 +6299,27 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="160034" cy="129551"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="165" name="그림 164">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E59847B-E678-468F-B36D-ED5893FFC57D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1638300" cy="251460"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="167" name="그림 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D359BCD-DA64-4A02-BA8E-80B0D8D1FB6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6185,8 +6332,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7162800" y="18962370"/>
-          <a:ext cx="160034" cy="129551"/>
+          <a:off x="7673340" y="8915400"/>
+          <a:ext cx="1638300" cy="251460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6198,26 +6345,26 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="111759" cy="128952"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="166" name="그림 165">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387B321C-CEB2-4E87-8403-D18D8603AFF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2004060" cy="209484"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="168" name="그림 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB881A0-B5C6-41A6-B8F2-D8EEB51E128C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6230,8 +6377,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8153400" y="8656320"/>
-          <a:ext cx="111759" cy="128952"/>
+          <a:off x="7680960" y="9235441"/>
+          <a:ext cx="2004060" cy="209484"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6243,26 +6390,26 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1638300" cy="251460"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="167" name="그림 166">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D359BCD-DA64-4A02-BA8E-80B0D8D1FB6D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+      <xdr:colOff>30479</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2049781" cy="228600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="169" name="그림 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042B5108-45D1-459D-B2A7-680BC22114DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6275,96 +6422,6 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7673340" y="8915400"/>
-          <a:ext cx="1638300" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>45721</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2004060" cy="209484"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="168" name="그림 167">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB881A0-B5C6-41A6-B8F2-D8EEB51E128C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7680960" y="9235441"/>
-          <a:ext cx="2004060" cy="209484"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>30479</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2049781" cy="228600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="169" name="그림 168">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042B5108-45D1-459D-B2A7-680BC22114DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="7665719" y="9860280"/>
           <a:ext cx="2049781" cy="228600"/>
         </a:xfrm>
@@ -6379,13 +6436,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6443,13 +6500,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6507,7 +6564,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="586740" cy="382189"/>
@@ -6552,7 +6609,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="655320" cy="191556"/>
@@ -6597,7 +6654,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914479" cy="289585"/>
@@ -6642,7 +6699,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>640079</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="708661" cy="225104"/>
@@ -6687,7 +6744,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1447800" cy="230542"/>
@@ -6732,7 +6789,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>632461</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="616528" cy="228600"/>
@@ -6777,7 +6834,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1493520" cy="259080"/>
@@ -6822,7 +6879,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="835193" cy="259080"/>
@@ -6867,7 +6924,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>83821</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="815339" cy="253737"/>
@@ -6912,7 +6969,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="797418" cy="243839"/>
@@ -6957,13 +7014,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7020,7 +7077,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914479" cy="289585"/>
@@ -7065,7 +7122,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>640079</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="708661" cy="225104"/>
@@ -7110,7 +7167,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1447800" cy="230542"/>
@@ -7155,7 +7212,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>632461</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="616528" cy="228600"/>
@@ -7200,7 +7257,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1493520" cy="259080"/>
@@ -7245,7 +7302,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="835193" cy="259080"/>
@@ -7290,7 +7347,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>83821</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="815339" cy="253737"/>
@@ -7335,7 +7392,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="797418" cy="243839"/>
@@ -7380,13 +7437,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7443,7 +7500,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>51906</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1021080" cy="222414"/>
@@ -7488,7 +7545,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1473800" cy="182880"/>
@@ -7533,7 +7590,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="655320" cy="258680"/>
@@ -7578,7 +7635,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>487679</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2621928" cy="556260"/>
@@ -7623,13 +7680,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7751,7 +7808,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -7796,7 +7853,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2103120" cy="236220"/>
@@ -7841,13 +7898,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7905,7 +7962,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>144781</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2644139" cy="267761"/>
@@ -7950,13 +8007,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>251459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8014,13 +8071,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8078,7 +8135,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="259102" cy="259102"/>
@@ -8123,7 +8180,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>129541</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2042159" cy="283004"/>
@@ -8483,13 +8540,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8546,13 +8603,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8610,13 +8667,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8673,13 +8730,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8737,7 +8794,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -8782,7 +8839,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -8827,7 +8884,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -8872,13 +8929,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8943,13 +9000,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9003,7 +9060,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182879</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>33802</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167641" cy="240716"/>
@@ -9048,13 +9105,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>53341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9112,7 +9169,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9157,13 +9214,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9221,7 +9278,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -9266,7 +9323,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -9311,7 +9368,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9356,13 +9413,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>163830</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9452,13 +9509,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>240031</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>396241</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9537,7 +9594,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -9582,7 +9639,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -9627,7 +9684,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>59054</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="154306" cy="221567"/>
@@ -9672,7 +9729,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9717,13 +9774,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9767,13 +9824,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>72390</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>210813</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9817,13 +9874,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>72391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>246522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9867,13 +9924,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>156209</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>441959</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>249556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9917,7 +9974,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>205739</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>41422</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167641" cy="240716"/>
@@ -9962,13 +10019,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10037,13 +10094,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11191,13 +11248,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171351</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>266670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11235,13 +11292,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76064</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>276199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11279,13 +11336,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>599926</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>1324</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11323,13 +11380,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>609402</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>285718</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11367,13 +11424,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>638004</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>247588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11409,59 +11466,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>628458</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>304765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="그림 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2FDD44-BB39-F745-F15A-EF3AA30B76F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="466725" y="13354050"/>
-          <a:ext cx="1533333" cy="276190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66500</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>295242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11478,7 +11491,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11499,13 +11512,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285463</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>304764</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11522,7 +11535,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11543,13 +11556,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266417</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>228545</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11566,7 +11579,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11587,13 +11600,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>438013</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>276196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11610,7 +11623,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11631,13 +11644,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>571349</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>276198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11654,7 +11667,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11675,13 +11688,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>514306</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>257127</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11698,7 +11711,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11719,13 +11732,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295158</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>314286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11742,7 +11755,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11763,13 +11776,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>295142</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>38052</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11786,7 +11799,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11807,13 +11820,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>95156</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>38054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11830,7 +11843,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11839,6 +11852,182 @@
         <a:xfrm>
           <a:off x="7839075" y="32165925"/>
           <a:ext cx="752381" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>656979</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="그림 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3A2E35-1352-9766-18C8-1C6AEB5473C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="13611225"/>
+          <a:ext cx="1971429" cy="352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619035</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>314286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="그림 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD1249B-446A-E869-479C-DC0649714CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="17411700"/>
+          <a:ext cx="723810" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152302</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>266673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="그림 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B913C8-1390-ABFA-6680-4C2C4443A95D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="12115800"/>
+          <a:ext cx="780952" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609470</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>199974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="그림 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA2CA25-5AC4-317F-A17E-E0D789354819}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3819525" y="12801600"/>
+          <a:ext cx="1038095" cy="409524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12167,7 +12356,7 @@
   <dimension ref="A1:W132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12966,184 +13155,270 @@
       <c r="K35" s="51"/>
     </row>
     <row r="36" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>102</v>
+    <row r="37" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="39" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="87"/>
+      <c r="B39" s="88" t="s">
         <v>95</v>
       </c>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="89"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="89"/>
     </row>
-    <row r="39" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
-        <v>96</v>
-      </c>
+      <c r="A40" s="44"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="10"/>
+      <c r="G40" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
+      <c r="A41" s="44"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="J41" s="91"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="44"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
-        <v>97</v>
-      </c>
+      <c r="E42" s="10"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="J42" s="37"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
-        <v>99</v>
-      </c>
+      <c r="A43" s="44"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="G44" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="45" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>100</v>
+      <c r="A45" s="44"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="10"/>
+      <c r="G45" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>101</v>
+      <c r="A46" s="44"/>
+      <c r="B46" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="10"/>
+      <c r="G46" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="H46" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="44"/>
+      <c r="B47" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="10"/>
+      <c r="H47" t="s">
+        <v>134</v>
+      </c>
+    </row>
     <row r="48" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>103</v>
-      </c>
+      <c r="A48" s="44"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="44"/>
+      <c r="B49" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="44"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="10"/>
+    </row>
     <row r="51" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>104</v>
-      </c>
+      <c r="A51" s="44"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>105</v>
-      </c>
+      <c r="A52" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+    <row r="53" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="44"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="91"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="32"/>
-      <c r="M57" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="36"/>
+      <c r="A57" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
     </row>
-    <row r="58" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="19"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="28"/>
-    </row>
-    <row r="59" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="G59" s="9"/>
-      <c r="K59" s="10"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="8"/>
-    </row>
-    <row r="60" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>38</v>
+    <row r="58" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="G60" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K60" s="10"/>
-      <c r="M60" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="8"/>
     </row>
-    <row r="61" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="G61" s="9"/>
-      <c r="K61" s="10"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="8"/>
+    <row r="61" spans="1:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="32"/>
+      <c r="M61" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="36"/>
     </row>
     <row r="62" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G62" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K62" s="10"/>
-      <c r="M62" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="8"/>
+      <c r="A62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="19"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="28"/>
     </row>
     <row r="63" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
       <c r="G63" s="9"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="8"/>
+      <c r="K63" s="10"/>
       <c r="M63" s="9"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -13151,50 +13426,56 @@
       <c r="Q63" s="8"/>
     </row>
     <row r="64" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
       <c r="G64" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="K64" s="10"/>
       <c r="M64" s="9" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="8"/>
     </row>
-    <row r="65" spans="7:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G65" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="8"/>
-      <c r="M65" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="16"/>
+    <row r="65" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="G65" s="9"/>
+      <c r="K65" s="10"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="8"/>
     </row>
-    <row r="66" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G66" s="9"/>
+    <row r="66" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="K66" s="10"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="28"/>
+      <c r="M66" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="8"/>
     </row>
-    <row r="67" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G67" s="9" t="s">
-        <v>30</v>
-      </c>
+    <row r="67" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="9"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -13205,55 +13486,50 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="8"/>
     </row>
-    <row r="68" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G68" s="9" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="8"/>
       <c r="M68" s="9" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="8"/>
     </row>
-    <row r="69" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G69" s="9" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="8"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="8"/>
+      <c r="M69" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="16"/>
     </row>
-    <row r="70" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G70" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="8"/>
-      <c r="M70" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="8"/>
+    <row r="70" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="9"/>
+      <c r="K70" s="10"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="28"/>
     </row>
-    <row r="71" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G71" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -13265,454 +13541,510 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="8"/>
     </row>
-    <row r="72" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G72" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K72" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="8"/>
       <c r="M72" s="9" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="8"/>
     </row>
-    <row r="73" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G73" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K73" s="10"/>
-      <c r="M73" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="16"/>
+        <v>18</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="8"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="8"/>
     </row>
-    <row r="74" spans="7:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G74" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="13"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="23"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="24"/>
+    <row r="74" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G74" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="8"/>
+      <c r="M74" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="8"/>
     </row>
-    <row r="75" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
+    <row r="75" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="8"/>
       <c r="M75" s="9"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="8"/>
     </row>
-    <row r="76" spans="7:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G76" s="1"/>
-      <c r="M76" s="9"/>
+    <row r="76" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" s="10"/>
+      <c r="M76" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="8"/>
     </row>
-    <row r="77" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G77" s="1"/>
-      <c r="M77" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="8"/>
+    <row r="77" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77" s="10"/>
+      <c r="M77" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="16"/>
     </row>
-    <row r="78" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G78" s="5"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="8"/>
+    <row r="78" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G78" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="13"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="24"/>
     </row>
-    <row r="79" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
       <c r="M79" s="9"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="8"/>
     </row>
-    <row r="80" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M80" s="83" t="s">
+    <row r="80" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="1"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="8"/>
+    </row>
+    <row r="81" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G81" s="1"/>
+      <c r="M81" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="8"/>
+    </row>
+    <row r="82" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G82" s="5"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="8"/>
+    </row>
+    <row r="83" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M83" s="9"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="8"/>
+    </row>
+    <row r="84" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M84" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="N80" s="25"/>
-      <c r="O80" s="25"/>
-      <c r="P80" s="25"/>
-      <c r="Q80" s="26"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="26"/>
     </row>
-    <row r="81" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+    <row r="85" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="6"/>
+    <row r="87" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="6"/>
     </row>
-    <row r="84" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="30" t="s">
+    <row r="88" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="32"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="32"/>
     </row>
-    <row r="85" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
+    <row r="89" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="8"/>
-    </row>
-    <row r="86" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="19"/>
-    </row>
-    <row r="87" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88" spans="1:5" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="13"/>
-    </row>
-    <row r="89" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="8"/>
+    <row r="90" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="19"/>
     </row>
-    <row r="91" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="33" t="s">
-        <v>48</v>
+    <row r="91" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="9" t="s">
+    <row r="92" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="13"/>
+    </row>
+    <row r="93" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="8"/>
+    </row>
+    <row r="94" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="8"/>
+    </row>
+    <row r="95" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="8"/>
+    </row>
+    <row r="96" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="8"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="8"/>
     </row>
-    <row r="93" spans="1:5" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="11" t="s">
+    <row r="97" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="13"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="13"/>
     </row>
-    <row r="94" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
+    <row r="98" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="B98" s="88"/>
-      <c r="C98" s="88"/>
-      <c r="D98" s="88"/>
-      <c r="E98" s="89"/>
-      <c r="G98" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
-      <c r="K98" s="32"/>
-      <c r="M98" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="N98" s="88"/>
-      <c r="O98" s="88"/>
-      <c r="P98" s="88"/>
-      <c r="Q98" s="89"/>
-    </row>
-    <row r="99" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="E99" s="10"/>
-      <c r="G99" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="8"/>
-      <c r="M99" s="44"/>
-      <c r="Q99" s="10"/>
-    </row>
-    <row r="100" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="E100" s="10"/>
-      <c r="G100" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="19"/>
-      <c r="M100" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q100" s="10"/>
-    </row>
-    <row r="101" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="88"/>
-      <c r="B101" s="88"/>
-      <c r="C101" s="88"/>
-      <c r="D101" s="88"/>
-      <c r="E101" s="88"/>
-      <c r="G101" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="19"/>
-      <c r="M101" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q101" s="10"/>
-    </row>
+    <row r="101" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="102" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="87"/>
-      <c r="B102" s="88" t="s">
-        <v>106</v>
-      </c>
+      <c r="A102" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" s="88"/>
       <c r="C102" s="88"/>
       <c r="D102" s="88"/>
       <c r="E102" s="89"/>
-      <c r="G102" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="8"/>
-      <c r="M102" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q102" s="10"/>
+      <c r="G102" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H102" s="31"/>
+      <c r="I102" s="31"/>
+      <c r="J102" s="31"/>
+      <c r="K102" s="32"/>
+      <c r="M102" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="N102" s="88"/>
+      <c r="O102" s="88"/>
+      <c r="P102" s="88"/>
+      <c r="Q102" s="89"/>
     </row>
     <row r="103" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="44" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E103" s="10"/>
-      <c r="G103" s="9" t="s">
-        <v>55</v>
+      <c r="G103" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="8"/>
-      <c r="M103" s="44" t="s">
-        <v>120</v>
-      </c>
+      <c r="M103" s="44"/>
       <c r="Q103" s="10"/>
     </row>
-    <row r="104" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="44" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E104" s="10"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="8"/>
+      <c r="G104" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="19"/>
       <c r="M104" s="44" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q104" s="10"/>
     </row>
-    <row r="105" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="44"/>
-      <c r="E105" s="10"/>
-      <c r="G105" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="8"/>
-      <c r="M105" s="44"/>
+    <row r="105" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="88"/>
+      <c r="B105" s="88"/>
+      <c r="C105" s="88"/>
+      <c r="D105" s="88"/>
+      <c r="E105" s="88"/>
+      <c r="G105" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="19"/>
+      <c r="M105" s="90" t="s">
+        <v>122</v>
+      </c>
       <c r="Q105" s="10"/>
     </row>
     <row r="106" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="44"/>
-      <c r="B106" t="s">
-        <v>109</v>
-      </c>
-      <c r="E106" s="10"/>
-      <c r="G106" s="7" t="s">
-        <v>117</v>
+      <c r="A106" s="87"/>
+      <c r="B106" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="89"/>
+      <c r="G106" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="8"/>
       <c r="M106" s="44" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q106" s="10"/>
     </row>
-    <row r="107" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="44" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E107" s="10"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="13"/>
+      <c r="G107" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="8"/>
       <c r="M107" s="44" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Q107" s="10"/>
     </row>
-    <row r="108" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="44" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E108" s="10"/>
-      <c r="G108" s="6"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="8"/>
+      <c r="M108" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q108" s="10"/>
     </row>
     <row r="109" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="88"/>
-      <c r="B109" s="88"/>
-      <c r="C109" s="88"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="88"/>
-      <c r="G109" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="31"/>
-      <c r="K109" s="32"/>
+      <c r="A109" s="44"/>
+      <c r="E109" s="10"/>
+      <c r="G109" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="8"/>
+      <c r="M109" s="44"/>
+      <c r="Q109" s="10"/>
     </row>
     <row r="110" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G110" s="17" t="s">
+      <c r="A110" s="44"/>
+      <c r="B110" t="s">
+        <v>107</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="G110" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="8"/>
+      <c r="M110" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q110" s="10"/>
+    </row>
+    <row r="111" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="13"/>
+      <c r="M111" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q111" s="10"/>
+    </row>
+    <row r="112" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="G112" s="6"/>
+    </row>
+    <row r="113" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="88"/>
+      <c r="B113" s="88"/>
+      <c r="C113" s="88"/>
+      <c r="D113" s="88"/>
+      <c r="E113" s="88"/>
+      <c r="G113" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+      <c r="J113" s="31"/>
+      <c r="K113" s="32"/>
+    </row>
+    <row r="114" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G114" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="19"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="19"/>
     </row>
-    <row r="111" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G111" s="17" t="s">
+    <row r="115" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G115" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="19"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="19"/>
     </row>
-    <row r="112" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G112" s="17" t="s">
+    <row r="116" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G116" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="19"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="19"/>
     </row>
-    <row r="113" spans="7:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G113" s="11" t="s">
+    <row r="117" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G117" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="13"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="13"/>
     </row>
-    <row r="114" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="7:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="129" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="130" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="131" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C330ED86-53F3-4E76-818A-7780DB3FDBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFF555B-2203-4EC7-9F65-2777604C5AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="141">
   <si>
     <t>의약품관리종합정보포탈 (https://biz.kpis.or.kr) &gt; sims</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1017,10 +1017,6 @@
     <t>국세청 홈텍스에 들어가서 세금계산서 건별발급</t>
   </si>
   <si>
-    <t>국세청 홈텍스에 들어가서 세금계산서 건별발급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>계산기 이용하여 우리측 매출액 입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1143,6 +1139,26 @@
   </si>
   <si>
     <t>&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직송은 따로 완료 할 필요 없어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">월보고 건수야 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고 파일 옮겨두고!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국세청 홈텍스에 들어가서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1600,7 +1616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1874,14 +1890,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11600,13 +11619,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>438013</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>276196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11644,13 +11663,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>571349</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>276198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11688,13 +11707,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>514306</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>257127</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12028,6 +12047,138 @@
         <a:xfrm>
           <a:off x="3819525" y="12801600"/>
           <a:ext cx="1038095" cy="409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466505</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>152311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="그림 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E336D6D8-434D-BADF-6D00-89482A04A499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="32251650"/>
+          <a:ext cx="1761905" cy="714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380787</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>285719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="그림 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C0B7B9-185A-12A9-0CA9-B285153329F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="33166050"/>
+          <a:ext cx="1704762" cy="247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333026</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>304723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="그림 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E66598A-6611-28CA-F2A2-40611847CB6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="33442275"/>
+          <a:ext cx="2790476" cy="619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12355,8 +12506,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S103" sqref="S103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13101,6 +13252,9 @@
       <c r="K29" s="49"/>
     </row>
     <row r="30" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
       <c r="G30" s="44"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
@@ -13110,6 +13264,9 @@
       <c r="K30" s="49"/>
     </row>
     <row r="31" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="93" t="s">
+        <v>137</v>
+      </c>
       <c r="G31" s="44"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
@@ -13154,7 +13311,11 @@
       <c r="J35" s="50"/>
       <c r="K35" s="51"/>
     </row>
-    <row r="36" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="37" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
@@ -13177,186 +13338,138 @@
     </row>
     <row r="40" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
       <c r="E40" s="10"/>
       <c r="G40" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
+        <v>128</v>
+      </c>
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91" t="s">
+      <c r="D41" t="s">
         <v>96</v>
       </c>
       <c r="E41" s="10"/>
       <c r="G41" s="44"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="J41" s="91"/>
+      <c r="I41" t="s">
+        <v>129</v>
+      </c>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="44"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91" t="s">
+      <c r="D42" t="s">
         <v>98</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="G42" s="92"/>
+      <c r="G42" s="91"/>
       <c r="H42" s="37"/>
       <c r="I42" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J42" s="37"/>
       <c r="K42" s="38"/>
     </row>
     <row r="43" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91" t="s">
+      <c r="D43" t="s">
         <v>97</v>
       </c>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91" t="s">
-        <v>126</v>
+      <c r="D44" t="s">
+        <v>125</v>
       </c>
       <c r="E44" s="10"/>
       <c r="G44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
       <c r="E45" s="10"/>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="44"/>
-      <c r="B46" s="91" t="s">
+      <c r="B46" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
       <c r="E46" s="10"/>
-      <c r="G46" s="93" t="s">
-        <v>136</v>
+      <c r="G46" s="92" t="s">
+        <v>135</v>
       </c>
       <c r="H46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="44"/>
-      <c r="B47" s="91" t="s">
+      <c r="B47" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
       <c r="E47" s="10"/>
       <c r="H47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="44"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
       <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="44"/>
-      <c r="B49" s="91" t="s">
+      <c r="B49" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
       <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="44"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="44"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="91"/>
       <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
+        <v>122</v>
+      </c>
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
+        <v>123</v>
+      </c>
       <c r="E54" s="10"/>
     </row>
     <row r="55" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" s="91"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
+        <v>124</v>
+      </c>
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="44"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="91"/>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
       <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="92" t="s">
-        <v>128</v>
+      <c r="A57" s="91" t="s">
+        <v>127</v>
       </c>
       <c r="B57" s="37"/>
       <c r="C57" s="37"/>
@@ -13808,7 +13921,7 @@
     <row r="101" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="102" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="87" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="B102" s="88"/>
       <c r="C102" s="88"/>
@@ -13830,9 +13943,6 @@
       <c r="Q102" s="89"/>
     </row>
     <row r="103" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="44" t="s">
-        <v>112</v>
-      </c>
       <c r="E103" s="10"/>
       <c r="G103" s="33" t="s">
         <v>52</v>
@@ -13844,29 +13954,22 @@
       <c r="M103" s="44"/>
       <c r="Q103" s="10"/>
     </row>
-    <row r="104" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="44" t="s">
-        <v>113</v>
-      </c>
+    <row r="104" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E104" s="10"/>
       <c r="G104" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H104" s="18"/>
       <c r="I104" s="18"/>
       <c r="J104" s="18"/>
       <c r="K104" s="19"/>
       <c r="M104" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q104" s="10"/>
     </row>
-    <row r="105" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="88"/>
-      <c r="B105" s="88"/>
-      <c r="C105" s="88"/>
-      <c r="D105" s="88"/>
-      <c r="E105" s="88"/>
+    <row r="105" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E105" s="10"/>
       <c r="G105" s="17" t="s">
         <v>53</v>
       </c>
@@ -13875,18 +13978,15 @@
       <c r="J105" s="18"/>
       <c r="K105" s="19"/>
       <c r="M105" s="90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q105" s="10"/>
     </row>
     <row r="106" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="87"/>
-      <c r="B106" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C106" s="88"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="89"/>
+      <c r="A106" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="E106" s="10"/>
       <c r="G106" s="9" t="s">
         <v>4</v>
       </c>
@@ -13895,14 +13995,11 @@
       <c r="J106" s="1"/>
       <c r="K106" s="8"/>
       <c r="M106" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q106" s="10"/>
     </row>
     <row r="107" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="44" t="s">
-        <v>105</v>
-      </c>
       <c r="E107" s="10"/>
       <c r="G107" s="9" t="s">
         <v>55</v>
@@ -13912,14 +14009,11 @@
       <c r="J107" s="1"/>
       <c r="K107" s="8"/>
       <c r="M107" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q107" s="10"/>
     </row>
     <row r="108" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="44" t="s">
-        <v>106</v>
-      </c>
       <c r="E108" s="10"/>
       <c r="G108" s="9"/>
       <c r="H108" s="1"/>
@@ -13927,12 +14021,14 @@
       <c r="J108" s="1"/>
       <c r="K108" s="8"/>
       <c r="M108" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q108" s="10"/>
     </row>
     <row r="109" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="44"/>
+      <c r="A109" s="44" t="s">
+        <v>111</v>
+      </c>
       <c r="E109" s="10"/>
       <c r="G109" s="9" t="s">
         <v>54</v>
@@ -13944,52 +14040,53 @@
       <c r="M109" s="44"/>
       <c r="Q109" s="10"/>
     </row>
-    <row r="110" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="44"/>
-      <c r="B110" t="s">
-        <v>107</v>
-      </c>
-      <c r="E110" s="10"/>
+    <row r="110" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E110" s="38"/>
       <c r="G110" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="8"/>
       <c r="M110" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q110" s="10"/>
     </row>
     <row r="111" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="E111" s="10"/>
+      <c r="A111" s="88"/>
+      <c r="B111" s="88"/>
+      <c r="C111" s="88"/>
+      <c r="D111" s="88"/>
+      <c r="E111" s="88"/>
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="12"/>
       <c r="K111" s="13"/>
       <c r="M111" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q111" s="10"/>
     </row>
     <row r="112" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="E112" s="10"/>
+      <c r="A112" s="94"/>
+      <c r="B112" s="94"/>
+      <c r="C112" s="94"/>
+      <c r="D112" s="94"/>
+      <c r="E112" s="94"/>
       <c r="G112" s="6"/>
     </row>
-    <row r="113" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="88"/>
-      <c r="B113" s="88"/>
-      <c r="C113" s="88"/>
-      <c r="D113" s="88"/>
-      <c r="E113" s="88"/>
+    <row r="113" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="94"/>
+      <c r="B113" s="94"/>
+      <c r="C113" s="94"/>
+      <c r="D113" s="94"/>
+      <c r="E113" s="94"/>
       <c r="G113" s="30" t="s">
         <v>56</v>
       </c>
@@ -13999,6 +14096,13 @@
       <c r="K113" s="32"/>
     </row>
     <row r="114" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="87"/>
+      <c r="B114" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" s="88"/>
+      <c r="D114" s="88"/>
+      <c r="E114" s="89"/>
       <c r="G114" s="17" t="s">
         <v>57</v>
       </c>
@@ -14008,6 +14112,10 @@
       <c r="K114" s="19"/>
     </row>
     <row r="115" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E115" s="10"/>
       <c r="G115" s="17" t="s">
         <v>58</v>
       </c>
@@ -14017,6 +14125,10 @@
       <c r="K115" s="19"/>
     </row>
     <row r="116" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E116" s="10"/>
       <c r="G116" s="17" t="s">
         <v>59</v>
       </c>
@@ -14026,6 +14138,8 @@
       <c r="K116" s="19"/>
     </row>
     <row r="117" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="44"/>
+      <c r="E117" s="10"/>
       <c r="G117" s="11" t="s">
         <v>4</v>
       </c>
@@ -14034,9 +14148,25 @@
       <c r="J117" s="12"/>
       <c r="K117" s="13"/>
     </row>
-    <row r="118" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="44"/>
+      <c r="B118" t="s">
+        <v>107</v>
+      </c>
+      <c r="E118" s="10"/>
+    </row>
+    <row r="119" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E119" s="10"/>
+    </row>
+    <row r="120" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E120" s="10"/>
+    </row>
     <row r="121" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFF555B-2203-4EC7-9F65-2777604C5AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C0BA15-3909-4C7C-818A-8E33D0598A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateCount="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="141">
   <si>
     <t>의약품관리종합정보포탈 (https://biz.kpis.or.kr) &gt; sims</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,80 +402,6 @@
   </si>
   <si>
     <t xml:space="preserve">      세금계산서관리 &gt;       매출 세금계산서 발행(매출처별)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명세서기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   거래처명                                        거래처 Set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>발행일자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">말일 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  내역 전부 drag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -998,19 +924,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>번호 순서대로 더블 클릭후 창 그대로 둔 상태로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작성 버튼 클릭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>세금계산서 관리 창 내리면 두개가 보여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전달거와 똑같이 이번달꺼를 만들어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1022,39 +940,6 @@
   </si>
   <si>
     <t>우리꺼 매출원장에 공급가액, 세액 입력후 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  기       간                                        전달 기간으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수기 &gt; 공급가액 / 세액      ★</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>직접 입력</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1161,12 +1046,43 @@
     <t>국세청 홈텍스에 들어가서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">번호 순서대로 진행 할거야 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블 클릭후 창 그대로 둔 상태로</t>
+  </si>
+  <si>
+    <t>※ 에스케이팜 판매대행 수수료 부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전달거와 이번달꺼를 똑같이 만들어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      세금계산서관리 &gt;       세금계산서 전자구분 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발행월로 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종이로 되어 있는 거들 전부 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송금지로 만들고 변경 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,39 +1184,6 @@
       <b/>
       <sz val="12"/>
       <color theme="9"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF7030A0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF00B0F0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1616,7 +1499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1887,7 +1770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
@@ -1895,12 +1778,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9328,7 +9205,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="18402300"/>
+          <a:off x="3600450" y="31954470"/>
           <a:ext cx="160034" cy="129551"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9386,26 +9263,26 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="314597" cy="259080"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="176" name="그림 175">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B18D9E-28C3-426B-8684-E40359AE697A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160034" cy="129551"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="189" name="그림 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8B94B1-6D1F-4EAC-9ACC-6F6BBEB4079E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9418,8 +9295,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76199" y="19278600"/>
-          <a:ext cx="314597" cy="259080"/>
+          <a:off x="6972300" y="18402300"/>
+          <a:ext cx="160034" cy="129551"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9428,210 +9305,29 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>163830</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>283845</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="사각형: 둥근 모서리 176">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8030319B-7066-4753-9360-78FCB24B3B63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7170420" y="20865465"/>
-          <a:ext cx="594360" cy="249555"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>선</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>택</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>240031</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>396241</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>259080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="178" name="사각형: 둥근 모서리 177">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC8B4F5-2E6B-4B82-A549-1ED72C879794}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7204711" y="21393150"/>
-          <a:ext cx="826770" cy="224790"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>발  행 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>(F9)</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="160034" cy="129551"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="189" name="그림 188">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8B94B1-6D1F-4EAC-9ACC-6F6BBEB4079E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="111759" cy="128952"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="190" name="그림 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5463C824-86DE-4E43-A9F6-C6E5F5B746C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9644,8 +9340,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972300" y="18402300"/>
-          <a:ext cx="160034" cy="129551"/>
+          <a:off x="8201025" y="18411825"/>
+          <a:ext cx="111759" cy="128952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9656,27 +9352,27 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="111759" cy="128952"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="190" name="그림 189">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5463C824-86DE-4E43-A9F6-C6E5F5B746C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>59054</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="154306" cy="221567"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="191" name="그림 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB3644E-CE08-4D76-9865-5652B0A430E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9689,8 +9385,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8201025" y="18411825"/>
-          <a:ext cx="111759" cy="128952"/>
+          <a:off x="12115800" y="19004279"/>
+          <a:ext cx="154306" cy="221567"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9701,54 +9397,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>59054</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="154306" cy="221567"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="191" name="그림 190">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB3644E-CE08-4D76-9865-5652B0A430E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12115800" y="19004279"/>
-          <a:ext cx="154306" cy="221567"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9881,106 +9532,6 @@
         <a:xfrm>
           <a:off x="742950" y="19221450"/>
           <a:ext cx="795648" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>72391</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>246522</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6FDF20-1F29-4639-9DA3-D743584F046F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7791450" y="19331941"/>
-          <a:ext cx="1123950" cy="187466"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>156209</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>441959</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>249556</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="175" name="그림 174">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A6CCB6-018E-4CA7-A2CF-F8645B196A2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7757159" y="20577810"/>
-          <a:ext cx="960120" cy="196216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10211,7 +9762,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10255,7 +9806,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10299,7 +9850,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10403,7 +9954,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10447,7 +9998,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10491,7 +10042,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10599,7 +10150,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10643,7 +10194,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10751,7 +10302,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
         <a:srcRect r="-4334" b="45291"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -10794,7 +10345,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10888,7 +10439,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10982,7 +10533,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11026,7 +10577,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11070,7 +10621,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11114,7 +10665,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11158,7 +10709,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11202,7 +10753,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11246,7 +10797,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11290,7 +10841,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11334,7 +10885,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11378,7 +10929,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11422,7 +10973,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11466,7 +11017,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11510,7 +11061,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11554,7 +11105,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11598,7 +11149,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11642,7 +11193,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11686,7 +11237,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11707,14 +11258,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>514306</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>257127</xdr:rowOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>171402</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11730,14 +11281,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="161925" y="31746825"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="39204900"/>
           <a:ext cx="352381" cy="380952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11751,13 +11302,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295158</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>314286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11774,7 +11325,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11795,13 +11346,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>295142</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>38052</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11818,7 +11369,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11839,13 +11390,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>95156</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>38054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11862,7 +11413,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11906,7 +11457,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11950,7 +11501,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11994,7 +11545,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12038,7 +11589,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12082,7 +11633,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12126,7 +11677,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12170,7 +11721,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12179,6 +11730,359 @@
         <a:xfrm>
           <a:off x="285750" y="33442275"/>
           <a:ext cx="2790476" cy="619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9188</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>257149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="그림 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E1ABF7-A8DE-DC31-A770-0A88F719B2FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="36004500"/>
+          <a:ext cx="2695238" cy="209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552311</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="그림 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1482E210-A71E-A7C0-724B-FB4F9FEF422D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:srcRect b="32195"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="36652200"/>
+          <a:ext cx="1114286" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>646478</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>113715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="그림 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502A7AF4-592E-E58D-B2D4-C5BA91A52FB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="32337375"/>
+          <a:ext cx="9771428" cy="4676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160034" cy="129551"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="그림 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B25448-57F0-4EA5-B2FA-302DDC69A312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="31954470"/>
+          <a:ext cx="160034" cy="129551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="111759" cy="128952"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="그림 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8841EAB-6D8D-4BB9-9C8D-41E9AA446122}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4850130" y="31962090"/>
+          <a:ext cx="111759" cy="128952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>675940</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>276196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="그림 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFEE484D-DA26-68B1-E797-89DC513918B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="37890450"/>
+          <a:ext cx="2676190" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466593</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>276038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="그림 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E92C268-E1A4-8541-AE08-4D57364A7697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="38509575"/>
+          <a:ext cx="1057143" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552132</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>276195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="그림 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59253FC4-EB10-D517-1371-F18D05509E5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3629025" y="40395525"/>
+          <a:ext cx="2542857" cy="238095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12504,10 +12408,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E280DA-2D42-45F4-819A-68D3B6CA9BBF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W132"/>
+  <dimension ref="A1:W300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S103" sqref="S103"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S124" sqref="S124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12533,7 +12437,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="70"/>
       <c r="H2" s="71" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I2" s="71"/>
       <c r="J2" s="71"/>
@@ -12563,7 +12467,7 @@
       <c r="E3" s="64"/>
       <c r="F3" s="1"/>
       <c r="G3" s="73" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H3" s="74"/>
       <c r="I3" s="74"/>
@@ -12609,7 +12513,7 @@
     </row>
     <row r="5" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -12624,7 +12528,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
       <c r="M5" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -12640,7 +12544,7 @@
     </row>
     <row r="6" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12665,7 +12569,7 @@
     </row>
     <row r="7" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -12673,7 +12577,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="1"/>
       <c r="G7" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -12687,7 +12591,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="8"/>
       <c r="S7" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -12696,7 +12600,7 @@
     </row>
     <row r="8" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
@@ -12723,7 +12627,7 @@
     </row>
     <row r="9" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
@@ -12738,7 +12642,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -12746,13 +12650,13 @@
       <c r="Q9" s="8"/>
       <c r="S9" s="44"/>
       <c r="T9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
@@ -12781,7 +12685,7 @@
     </row>
     <row r="11" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -12812,7 +12716,7 @@
     </row>
     <row r="12" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -12854,7 +12758,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="8"/>
       <c r="M13" s="46" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -12868,7 +12772,7 @@
     </row>
     <row r="14" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="80" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -12883,7 +12787,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="8"/>
       <c r="M14" s="46" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -12897,7 +12801,7 @@
     </row>
     <row r="15" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
@@ -12914,7 +12818,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q15" s="49"/>
       <c r="S15" s="9" t="s">
@@ -12927,7 +12831,7 @@
     </row>
     <row r="16" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="81" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -13098,7 +13002,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="8"/>
       <c r="S22" s="60" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -13119,7 +13023,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="8"/>
       <c r="M23" s="46" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -13147,7 +13051,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="8"/>
       <c r="M24" s="46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -13175,7 +13079,7 @@
       <c r="M25" s="44"/>
       <c r="Q25" s="10"/>
       <c r="S25" s="77" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
@@ -13212,7 +13116,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="8"/>
       <c r="G27" s="76" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H27" s="68"/>
       <c r="I27" s="68"/>
@@ -13253,24 +13157,24 @@
     </row>
     <row r="30" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="49"/>
     </row>
     <row r="31" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="93" t="s">
-        <v>137</v>
+      <c r="A31" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="49"/>
@@ -13279,7 +13183,7 @@
       <c r="G32" s="48"/>
       <c r="H32" s="61"/>
       <c r="I32" s="61" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="49"/>
@@ -13288,7 +13192,7 @@
       <c r="G33" s="48"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="49"/>
@@ -13297,7 +13201,7 @@
       <c r="G34" s="48"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="49"/>
@@ -13306,26 +13210,26 @@
       <c r="G35" s="77"/>
       <c r="H35" s="50"/>
       <c r="I35" s="78" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J35" s="50"/>
       <c r="K35" s="51"/>
     </row>
     <row r="36" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="87"/>
       <c r="B39" s="88" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
@@ -13340,32 +13244,32 @@
       <c r="A40" s="44"/>
       <c r="E40" s="10"/>
       <c r="G40" s="44" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E41" s="10"/>
       <c r="G41" s="44"/>
       <c r="I41" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="44"/>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E42" s="10"/>
       <c r="G42" s="91"/>
       <c r="H42" s="37"/>
       <c r="I42" s="37" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J42" s="37"/>
       <c r="K42" s="38"/>
@@ -13373,48 +13277,48 @@
     <row r="43" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E44" s="10"/>
       <c r="G44" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="E45" s="10"/>
       <c r="G45" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="44"/>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E46" s="10"/>
       <c r="G46" s="92" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="44"/>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E47" s="10"/>
       <c r="H47" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13424,7 +13328,7 @@
     <row r="49" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="44"/>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E49" s="10"/>
     </row>
@@ -13438,38 +13342,38 @@
     </row>
     <row r="52" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="44" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E54" s="10"/>
     </row>
     <row r="55" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="44" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="44"/>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="91" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B57" s="37"/>
       <c r="C57" s="37"/>
@@ -13510,7 +13414,7 @@
         <v>36</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
@@ -13547,7 +13451,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="G64" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K64" s="10"/>
       <c r="M64" s="9" t="s">
@@ -13576,7 +13480,7 @@
     </row>
     <row r="66" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G66" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K66" s="10"/>
       <c r="M66" s="9" t="s">
@@ -13742,7 +13646,7 @@
     </row>
     <row r="78" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G78" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
@@ -13841,7 +13745,7 @@
     </row>
     <row r="90" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
@@ -13877,7 +13781,7 @@
     </row>
     <row r="94" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -13902,283 +13806,509 @@
       <c r="D96" s="1"/>
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="13"/>
     </row>
-    <row r="98" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="102" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="102" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="87" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B102" s="88"/>
       <c r="C102" s="88"/>
       <c r="D102" s="88"/>
       <c r="E102" s="89"/>
-      <c r="G102" s="30" t="s">
+      <c r="G102" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H102" s="31"/>
-      <c r="I102" s="31"/>
-      <c r="J102" s="31"/>
-      <c r="K102" s="32"/>
-      <c r="M102" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="N102" s="88"/>
-      <c r="O102" s="88"/>
-      <c r="P102" s="88"/>
-      <c r="Q102" s="89"/>
+      <c r="H102" s="88"/>
+      <c r="I102" s="88"/>
+      <c r="J102" s="88"/>
+      <c r="K102" s="89"/>
     </row>
-    <row r="103" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E103" s="10"/>
-      <c r="G103" s="33" t="s">
-        <v>52</v>
-      </c>
+      <c r="G103" s="33"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="8"/>
-      <c r="M103" s="44"/>
-      <c r="Q103" s="10"/>
     </row>
-    <row r="104" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E104" s="10"/>
-      <c r="G104" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="19"/>
-      <c r="M104" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q104" s="10"/>
+      <c r="G104" s="44"/>
+      <c r="K104" s="10"/>
     </row>
-    <row r="105" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E105" s="10"/>
-      <c r="G105" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="19"/>
-      <c r="M105" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q105" s="10"/>
+      <c r="G105" s="44"/>
+      <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="92" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E106" s="10"/>
-      <c r="G106" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="8"/>
-      <c r="M106" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q106" s="10"/>
+      <c r="G106" s="44"/>
+      <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E107" s="10"/>
-      <c r="G107" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="8"/>
-      <c r="M107" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q107" s="10"/>
+      <c r="G107" s="44"/>
+      <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E108" s="10"/>
       <c r="G108" s="9"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="8"/>
-      <c r="M108" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q108" s="10"/>
+      <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="44" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E109" s="10"/>
-      <c r="G109" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="8"/>
-      <c r="M109" s="44"/>
-      <c r="Q109" s="10"/>
+      <c r="G109" s="9"/>
+      <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="44" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E110" s="38"/>
-      <c r="G110" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="G110" s="9"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="8"/>
-      <c r="M110" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q110" s="10"/>
     </row>
-    <row r="111" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="88"/>
       <c r="B111" s="88"/>
       <c r="C111" s="88"/>
       <c r="D111" s="88"/>
       <c r="E111" s="88"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="13"/>
-      <c r="M111" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q111" s="10"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="94"/>
-      <c r="B112" s="94"/>
-      <c r="C112" s="94"/>
-      <c r="D112" s="94"/>
-      <c r="E112" s="94"/>
-      <c r="G112" s="6"/>
+    <row r="112" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G112" s="9"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="94"/>
-      <c r="B113" s="94"/>
-      <c r="C113" s="94"/>
-      <c r="D113" s="94"/>
-      <c r="E113" s="94"/>
-      <c r="G113" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="31"/>
-      <c r="K113" s="32"/>
+    <row r="113" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>135</v>
+      </c>
+      <c r="G113" s="9"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="87"/>
       <c r="B114" s="88" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C114" s="88"/>
       <c r="D114" s="88"/>
       <c r="E114" s="89"/>
-      <c r="G114" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="19"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="44" t="s">
-        <v>105</v>
-      </c>
+    <row r="115" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="44"/>
       <c r="E115" s="10"/>
-      <c r="G115" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="19"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="8"/>
     </row>
-    <row r="116" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="44" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E116" s="10"/>
-      <c r="G116" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="19"/>
+      <c r="G116" s="44"/>
+      <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="44"/>
       <c r="E117" s="10"/>
-      <c r="G117" s="11" t="s">
+      <c r="G117" s="44"/>
+      <c r="K117" s="10"/>
+    </row>
+    <row r="118" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="44"/>
+      <c r="E118" s="10"/>
+      <c r="G118" s="91"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="37"/>
+      <c r="J118" s="37"/>
+      <c r="K118" s="38"/>
+    </row>
+    <row r="119" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="44"/>
+      <c r="E119" s="10"/>
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="44"/>
+      <c r="E120" s="10"/>
+      <c r="G120" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H120" s="88"/>
+      <c r="I120" s="88"/>
+      <c r="J120" s="88"/>
+      <c r="K120" s="89"/>
+      <c r="M120" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="N120" s="88"/>
+      <c r="O120" s="88"/>
+      <c r="P120" s="88"/>
+      <c r="Q120" s="89"/>
+    </row>
+    <row r="121" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E121" s="10"/>
+      <c r="G121" s="44"/>
+      <c r="K121" s="10"/>
+      <c r="M121" s="44"/>
+      <c r="Q121" s="10"/>
+    </row>
+    <row r="122" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="G122" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="K122" s="10"/>
+      <c r="M122" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q122" s="10"/>
+    </row>
+    <row r="123" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="44"/>
+      <c r="E123" s="10"/>
+      <c r="G123" s="44"/>
+      <c r="K123" s="10"/>
+      <c r="M123" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q123" s="10"/>
+    </row>
+    <row r="124" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="44"/>
+      <c r="B124" t="s">
+        <v>102</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="G124" s="44"/>
+      <c r="K124" s="10"/>
+      <c r="M124" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q124" s="10"/>
+    </row>
+    <row r="125" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="G125" s="44"/>
+      <c r="K125" s="10"/>
+      <c r="M125" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q125" s="10"/>
+    </row>
+    <row r="126" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" s="37"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="38"/>
+      <c r="G126" s="44"/>
+      <c r="K126" s="10"/>
+      <c r="M126" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q126" s="10"/>
+    </row>
+    <row r="127" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G127" s="44"/>
+      <c r="K127" s="10"/>
+      <c r="M127" s="44"/>
+      <c r="Q127" s="10"/>
+    </row>
+    <row r="128" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G128" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="K128" s="10"/>
+      <c r="M128" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q128" s="10"/>
+    </row>
+    <row r="129" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G129" s="44"/>
+      <c r="K129" s="10"/>
+      <c r="M129" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q129" s="10"/>
+    </row>
+    <row r="130" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G130" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="H130" s="37"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="37"/>
+      <c r="K130" s="38"/>
+    </row>
+    <row r="131" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="133" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G133" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H133" s="31"/>
+      <c r="I133" s="31"/>
+      <c r="J133" s="31"/>
+      <c r="K133" s="32"/>
+    </row>
+    <row r="134" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G134" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="19"/>
+    </row>
+    <row r="135" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G135" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="19"/>
+    </row>
+    <row r="136" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G136" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="19"/>
+    </row>
+    <row r="137" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G137" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="13"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="13"/>
     </row>
-    <row r="118" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="44"/>
-      <c r="B118" t="s">
-        <v>107</v>
-      </c>
-      <c r="E118" s="10"/>
-    </row>
-    <row r="119" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="E119" s="10"/>
-    </row>
-    <row r="120" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="E120" s="10"/>
-    </row>
-    <row r="121" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C0BA15-3909-4C7C-818A-8E33D0598A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6779508-A723-4C85-9481-B6120095B85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -12410,8 +12410,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S124" sqref="S124"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6779508-A723-4C85-9481-B6120095B85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926FB230-6912-434C-8553-F6FF0D255AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="21270" windowHeight="15600" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="148">
   <si>
     <t>의약품관리종합정보포탈 (https://biz.kpis.or.kr) &gt; sims</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -912,10 +912,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제품 입력하고 엔터! &gt;&gt; 보험코드 일치 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">         &gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -971,18 +967,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쭉쭉 입력하고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매입 합계금액 명세서랑 확인하고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매출 합계금액에 *0.85 곱해서 매입과 금액 비교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매입 매출 날짜 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1076,6 +1060,47 @@
   <si>
     <t>전송금지로 만들고 변경 클릭</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선 메일로 온거를 처리해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전부다 엔터를 사용해서 넘어가줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">매출도 동일하게 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제품명부터 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순차적으로 입력</t>
+  </si>
+  <si>
+    <t>합계금액이 틀리면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세액은 건드리지 말고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급가액에서 마이너스해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험코드 일치 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명세서랑 확인하고</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *0.85 곱해서 매입과 금액 비교</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1779,6 +1804,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6062,7 +6090,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -6107,7 +6135,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -6152,7 +6180,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -6197,7 +6225,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1638300" cy="251460"/>
@@ -6242,7 +6270,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2004060" cy="209484"/>
@@ -6287,7 +6315,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>30479</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2049781" cy="228600"/>
@@ -6332,13 +6360,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6396,13 +6424,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6460,7 +6488,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="586740" cy="382189"/>
@@ -6505,7 +6533,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="655320" cy="191556"/>
@@ -6550,7 +6578,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914479" cy="289585"/>
@@ -6595,7 +6623,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>640079</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="708661" cy="225104"/>
@@ -6640,7 +6668,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1447800" cy="230542"/>
@@ -6685,7 +6713,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>632461</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="616528" cy="228600"/>
@@ -6730,7 +6758,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1493520" cy="259080"/>
@@ -6775,7 +6803,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="835193" cy="259080"/>
@@ -6820,7 +6848,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>83821</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="815339" cy="253737"/>
@@ -6865,7 +6893,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="797418" cy="243839"/>
@@ -6910,13 +6938,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6973,7 +7001,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914479" cy="289585"/>
@@ -7018,7 +7046,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>640079</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="708661" cy="225104"/>
@@ -7063,7 +7091,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1447800" cy="230542"/>
@@ -7108,7 +7136,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>632461</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="616528" cy="228600"/>
@@ -7153,7 +7181,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1493520" cy="259080"/>
@@ -7198,7 +7226,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="835193" cy="259080"/>
@@ -7243,7 +7271,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>83821</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="815339" cy="253737"/>
@@ -7288,7 +7316,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="797418" cy="243839"/>
@@ -7333,13 +7361,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7396,7 +7424,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>51906</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1021080" cy="222414"/>
@@ -7441,7 +7469,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1473800" cy="182880"/>
@@ -7486,7 +7514,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="655320" cy="258680"/>
@@ -7531,7 +7559,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>487679</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2621928" cy="556260"/>
@@ -7576,13 +7604,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7704,7 +7732,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -7749,7 +7777,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2103120" cy="236220"/>
@@ -7794,13 +7822,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7858,7 +7886,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>144781</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2644139" cy="267761"/>
@@ -7903,13 +7931,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>251459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7967,13 +7995,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8031,7 +8059,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="259102" cy="259102"/>
@@ -8076,7 +8104,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>129541</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2042159" cy="283004"/>
@@ -8436,13 +8464,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8499,13 +8527,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8563,13 +8591,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8626,13 +8654,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8690,7 +8718,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -8735,7 +8763,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -8780,7 +8808,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -8825,13 +8853,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8896,13 +8924,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8956,7 +8984,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182879</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>33802</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167641" cy="240716"/>
@@ -9001,13 +9029,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>53341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9065,7 +9093,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9110,13 +9138,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9174,7 +9202,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -9219,7 +9247,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -9264,7 +9292,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -9309,7 +9337,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -9354,7 +9382,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>59054</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="154306" cy="221567"/>
@@ -9399,7 +9427,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9444,13 +9472,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9494,13 +9522,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>72390</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>210813</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9544,7 +9572,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>205739</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>41422</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167641" cy="240716"/>
@@ -9589,13 +9617,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9664,13 +9692,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10818,13 +10846,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171351</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>266670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10862,13 +10890,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76064</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>276199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10905,15 +10933,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>599926</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>1324</xdr:rowOff>
+      <xdr:colOff>571351</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>287074</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10936,8 +10964,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="12087225"/>
-          <a:ext cx="1190476" cy="295238"/>
+          <a:off x="66675" y="13315950"/>
+          <a:ext cx="1190476" cy="296599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10950,13 +10978,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>609402</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>285718</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10994,13 +11022,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>638004</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>247588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11036,15 +11064,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66500</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>618950</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>295242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11068,7 +11096,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="13668375"/>
+          <a:off x="590550" y="15240000"/>
           <a:ext cx="1400000" cy="266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11082,13 +11110,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285463</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>304764</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11125,15 +11153,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>266417</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>228545</xdr:rowOff>
+      <xdr:colOff>20295</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11156,8 +11184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="15316200"/>
-          <a:ext cx="2266667" cy="438095"/>
+          <a:off x="57151" y="17202150"/>
+          <a:ext cx="2020544" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11170,13 +11198,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>438013</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>276196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11214,13 +11242,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>571349</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>276198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11258,13 +11286,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>514306</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>171402</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11302,14 +11330,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295158</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>314286</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>1322</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11346,13 +11374,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>295142</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>38052</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11390,14 +11418,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>95156</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>38054</xdr:rowOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>38053</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11434,13 +11462,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>656979</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>9481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11478,14 +11506,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>619035</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>314286</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>1322</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11610,13 +11638,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>466505</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>152311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11654,13 +11682,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>380787</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>285719</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11698,13 +11726,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333026</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>304723</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11742,13 +11770,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9188</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>257149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11786,13 +11814,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>552311</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11828,15 +11856,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>70757</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>646478</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>113715</xdr:rowOff>
+      <xdr:colOff>660085</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>59288</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11859,8 +11887,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619500" y="32337375"/>
-          <a:ext cx="9771428" cy="4676190"/>
+          <a:off x="3608614" y="37150222"/>
+          <a:ext cx="9706114" cy="4655780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11873,7 +11901,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -11918,7 +11946,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -11963,13 +11991,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>675940</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>276196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12007,13 +12035,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466593</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>276038</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12051,13 +12079,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>552132</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>276195</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12083,6 +12111,270 @@
         <a:xfrm>
           <a:off x="3629025" y="40395525"/>
           <a:ext cx="2542857" cy="238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>313377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1C562B-245A-69F1-691B-AAD2EB2DA30D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="16783050"/>
+          <a:ext cx="1695450" cy="313377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>674687</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="그림 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD615A8-E170-F5F6-DFDB-66219E781BA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="17716500"/>
+          <a:ext cx="722312" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>169920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="그림 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E70EF90B-C250-E90B-8A6E-F77D7364EF27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="18154651"/>
+          <a:ext cx="1333499" cy="369944"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638421</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>295353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="그림 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7A187A-353F-282C-2F2D-7C8C913E6ED7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="18716625"/>
+          <a:ext cx="1762371" cy="562053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600245</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>276257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="그림 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1FD9F8-C82A-276B-E62E-A7320EB08F18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="19345275"/>
+          <a:ext cx="1219370" cy="228632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>608012</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="그림 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A2E2CA-F57B-4256-96B7-76D61424F46A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="19564350"/>
+          <a:ext cx="722312" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12410,8 +12702,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13157,7 +13449,7 @@
     </row>
     <row r="30" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="2"/>
@@ -13169,7 +13461,7 @@
     </row>
     <row r="31" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="2"/>
@@ -13217,7 +13509,7 @@
     </row>
     <row r="36" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13227,13 +13519,9 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="87"/>
-      <c r="B39" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="89"/>
+      <c r="A39" t="s">
+        <v>137</v>
+      </c>
       <c r="G39" s="87"/>
       <c r="H39" s="88"/>
       <c r="I39" s="88"/>
@@ -13241,429 +13529,254 @@
       <c r="K39" s="89"/>
     </row>
     <row r="40" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
-      <c r="E40" s="10"/>
       <c r="G40" s="44" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="D41" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="10"/>
+    <row r="41" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G41" s="44"/>
       <c r="I41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="44"/>
-      <c r="D42" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="10"/>
+      <c r="A42" s="87"/>
+      <c r="B42" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="89"/>
       <c r="G42" s="91"/>
       <c r="H42" s="37"/>
       <c r="I42" s="37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J42" s="37"/>
       <c r="K42" s="38"/>
     </row>
     <row r="43" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
-      <c r="D43" t="s">
-        <v>93</v>
-      </c>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="D44" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" s="10"/>
+      <c r="A44" t="s">
+        <v>138</v>
+      </c>
       <c r="G44" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
+      <c r="D45" t="s">
+        <v>92</v>
+      </c>
       <c r="E45" s="10"/>
       <c r="G45" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="44"/>
-      <c r="B46" t="s">
-        <v>95</v>
+      <c r="D46" t="s">
+        <v>94</v>
       </c>
       <c r="E46" s="10"/>
       <c r="G46" s="92" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H46" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="44"/>
-      <c r="B47" t="s">
-        <v>96</v>
+      <c r="D47" t="s">
+        <v>93</v>
       </c>
       <c r="E47" s="10"/>
       <c r="H47" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="44"/>
+      <c r="D48" t="s">
+        <v>113</v>
+      </c>
       <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="44"/>
-      <c r="B49" t="s">
-        <v>98</v>
+      <c r="D49" t="s">
+        <v>92</v>
       </c>
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="44"/>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="44"/>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="44" t="s">
-        <v>99</v>
-      </c>
+    <row r="52" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="44"/>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="44" t="s">
-        <v>114</v>
+    <row r="53" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="44"/>
+      <c r="B53" t="s">
+        <v>98</v>
       </c>
       <c r="E53" s="10"/>
     </row>
-    <row r="54" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="10"/>
+    <row r="54" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="93" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="55" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="44" t="s">
-        <v>116</v>
+    <row r="55" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="44"/>
+      <c r="D55" t="s">
+        <v>140</v>
       </c>
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="44"/>
-      <c r="C56" t="s">
-        <v>118</v>
+      <c r="D56" t="s">
+        <v>141</v>
       </c>
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="38"/>
+    <row r="57" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="44"/>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
+    <row r="58" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="44"/>
+      <c r="C62" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="44"/>
+      <c r="C63" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="44"/>
+      <c r="C64" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="1:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="38"/>
+    </row>
+    <row r="66" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+    <row r="77" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G61" s="30" t="s">
+      <c r="G77" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="32"/>
-      <c r="M61" s="34" t="s">
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="32"/>
+      <c r="M77" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="36"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="36"/>
     </row>
-    <row r="62" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+    <row r="78" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G78" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="19"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="28"/>
-    </row>
-    <row r="63" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="G63" s="9"/>
-      <c r="K63" s="10"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="8"/>
-    </row>
-    <row r="64" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="G64" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K64" s="10"/>
-      <c r="M64" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="8"/>
-    </row>
-    <row r="65" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="G65" s="9"/>
-      <c r="K65" s="10"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="8"/>
-    </row>
-    <row r="66" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G66" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K66" s="10"/>
-      <c r="M66" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="8"/>
-    </row>
-    <row r="67" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G67" s="9"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="8"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="8"/>
-    </row>
-    <row r="68" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G68" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="8"/>
-      <c r="M68" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="8"/>
-    </row>
-    <row r="69" spans="1:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G69" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="8"/>
-      <c r="M69" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="16"/>
-    </row>
-    <row r="70" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G70" s="9"/>
-      <c r="K70" s="10"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="28"/>
-    </row>
-    <row r="71" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G71" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="8"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="8"/>
-    </row>
-    <row r="72" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G72" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="8"/>
-      <c r="M72" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="8"/>
-    </row>
-    <row r="73" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G73" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="8"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="8"/>
-    </row>
-    <row r="74" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G74" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="8"/>
-      <c r="M74" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="8"/>
-    </row>
-    <row r="75" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G75" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="8"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="8"/>
-    </row>
-    <row r="76" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G76" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K76" s="10"/>
-      <c r="M76" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="8"/>
-    </row>
-    <row r="77" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G77" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K77" s="10"/>
-      <c r="M77" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="16"/>
-    </row>
-    <row r="78" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G78" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="13"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="23"/>
-      <c r="O78" s="23"/>
-      <c r="P78" s="23"/>
-      <c r="Q78" s="24"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="19"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="28"/>
     </row>
     <row r="79" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
+      <c r="A79" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="G79" s="9"/>
+      <c r="K79" s="10"/>
       <c r="M79" s="9"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -13671,504 +13784,716 @@
       <c r="Q79" s="8"/>
     </row>
     <row r="80" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G80" s="1"/>
-      <c r="M80" s="9"/>
+      <c r="A80" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="G80" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K80" s="10"/>
+      <c r="M80" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="8"/>
     </row>
     <row r="81" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G81" s="1"/>
-      <c r="M81" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="A81" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="G81" s="9"/>
+      <c r="K81" s="10"/>
+      <c r="M81" s="9"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="8"/>
     </row>
     <row r="82" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G82" s="5"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="M82" s="9"/>
+      <c r="G82" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K82" s="10"/>
+      <c r="M82" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="8"/>
     </row>
     <row r="83" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G83" s="9"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="8"/>
       <c r="M83" s="9"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="8"/>
     </row>
-    <row r="84" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M84" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="26"/>
+    <row r="84" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="8"/>
+      <c r="M84" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="8"/>
     </row>
-    <row r="85" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G85" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="8"/>
+      <c r="M85" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="16"/>
+    </row>
     <row r="86" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="G86" s="9"/>
+      <c r="K86" s="10"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="28"/>
     </row>
-    <row r="87" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="6"/>
+    <row r="87" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G87" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="8"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="8"/>
     </row>
     <row r="88" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="32"/>
+      <c r="G88" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="8"/>
+      <c r="M88" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="8"/>
     </row>
     <row r="89" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="8"/>
+      <c r="G89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="8"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="8"/>
     </row>
     <row r="90" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="19"/>
+      <c r="G90" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="8"/>
+      <c r="M90" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="8"/>
     </row>
     <row r="91" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="8"/>
+      <c r="G91" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="8"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="8"/>
     </row>
-    <row r="92" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="13"/>
+    <row r="92" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G92" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K92" s="10"/>
+      <c r="M92" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="8"/>
     </row>
     <row r="93" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="8"/>
+      <c r="G93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" s="10"/>
+      <c r="M93" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="16"/>
     </row>
-    <row r="94" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="8"/>
+    <row r="94" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G94" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="13"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="23"/>
+      <c r="O94" s="23"/>
+      <c r="P94" s="23"/>
+      <c r="Q94" s="24"/>
     </row>
     <row r="95" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="8"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="8"/>
     </row>
     <row r="96" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="9" t="s">
+      <c r="G96" s="1"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="8"/>
+    </row>
+    <row r="97" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G97" s="1"/>
+      <c r="M97" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="8"/>
+    </row>
+    <row r="98" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G98" s="5"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="8"/>
+    </row>
+    <row r="99" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M99" s="9"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="8"/>
+    </row>
+    <row r="100" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M100" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="N100" s="25"/>
+      <c r="O100" s="25"/>
+      <c r="P100" s="25"/>
+      <c r="Q100" s="26"/>
+    </row>
+    <row r="101" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="6"/>
+    </row>
+    <row r="104" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="32"/>
+    </row>
+    <row r="105" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="8"/>
+    </row>
+    <row r="106" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="19"/>
+    </row>
+    <row r="107" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="8"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="8"/>
     </row>
-    <row r="97" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="11" t="s">
+    <row r="108" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="13"/>
+    </row>
+    <row r="109" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="8"/>
+    </row>
+    <row r="110" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="13"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="8"/>
     </row>
-    <row r="98" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
+    <row r="111" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="8"/>
+    </row>
+    <row r="112" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="8"/>
+    </row>
+    <row r="113" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="13"/>
+    </row>
+    <row r="114" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="102" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="B102" s="88"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="88"/>
-      <c r="E102" s="89"/>
-      <c r="G102" s="27" t="s">
+    <row r="117" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="118" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" s="88"/>
+      <c r="C118" s="88"/>
+      <c r="D118" s="88"/>
+      <c r="E118" s="89"/>
+      <c r="G118" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H102" s="88"/>
-      <c r="I102" s="88"/>
-      <c r="J102" s="88"/>
-      <c r="K102" s="89"/>
+      <c r="H118" s="88"/>
+      <c r="I118" s="88"/>
+      <c r="J118" s="88"/>
+      <c r="K118" s="89"/>
     </row>
-    <row r="103" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="10"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="8"/>
+    <row r="119" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E119" s="10"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="8"/>
     </row>
-    <row r="104" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E104" s="10"/>
-      <c r="G104" s="44"/>
-      <c r="K104" s="10"/>
+    <row r="120" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E120" s="10"/>
+      <c r="G120" s="44"/>
+      <c r="K120" s="10"/>
     </row>
-    <row r="105" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E105" s="10"/>
-      <c r="G105" s="44"/>
-      <c r="K105" s="10"/>
-    </row>
-    <row r="106" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="E106" s="10"/>
-      <c r="G106" s="44"/>
-      <c r="K106" s="10"/>
-    </row>
-    <row r="107" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E107" s="10"/>
-      <c r="G107" s="44"/>
-      <c r="K107" s="10"/>
-    </row>
-    <row r="108" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E108" s="10"/>
-      <c r="G108" s="9"/>
-      <c r="K108" s="10"/>
-    </row>
-    <row r="109" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="E109" s="10"/>
-      <c r="G109" s="9"/>
-      <c r="K109" s="10"/>
-    </row>
-    <row r="110" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="E110" s="38"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="8"/>
-    </row>
-    <row r="111" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="88"/>
-      <c r="B111" s="88"/>
-      <c r="C111" s="88"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="88"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="8"/>
-    </row>
-    <row r="112" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G112" s="9"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="8"/>
-    </row>
-    <row r="113" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>135</v>
-      </c>
-      <c r="G113" s="9"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="8"/>
-    </row>
-    <row r="114" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="87"/>
-      <c r="B114" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="C114" s="88"/>
-      <c r="D114" s="88"/>
-      <c r="E114" s="89"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="8"/>
-    </row>
-    <row r="115" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="44"/>
-      <c r="E115" s="10"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="8"/>
-    </row>
-    <row r="116" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="E116" s="10"/>
-      <c r="G116" s="44"/>
-      <c r="K116" s="10"/>
-    </row>
-    <row r="117" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="44"/>
-      <c r="E117" s="10"/>
-      <c r="G117" s="44"/>
-      <c r="K117" s="10"/>
-    </row>
-    <row r="118" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="44"/>
-      <c r="E118" s="10"/>
-      <c r="G118" s="91"/>
-      <c r="H118" s="37"/>
-      <c r="I118" s="37"/>
-      <c r="J118" s="37"/>
-      <c r="K118" s="38"/>
-    </row>
-    <row r="119" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="44"/>
-      <c r="E119" s="10"/>
-      <c r="G119" s="6"/>
-    </row>
-    <row r="120" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="44"/>
-      <c r="E120" s="10"/>
-      <c r="G120" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="H120" s="88"/>
-      <c r="I120" s="88"/>
-      <c r="J120" s="88"/>
-      <c r="K120" s="89"/>
-      <c r="M120" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="N120" s="88"/>
-      <c r="O120" s="88"/>
-      <c r="P120" s="88"/>
-      <c r="Q120" s="89"/>
-    </row>
-    <row r="121" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="44" t="s">
-        <v>133</v>
-      </c>
+    <row r="121" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E121" s="10"/>
       <c r="G121" s="44"/>
       <c r="K121" s="10"/>
-      <c r="M121" s="44"/>
-      <c r="Q121" s="10"/>
     </row>
-    <row r="122" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="44" t="s">
-        <v>134</v>
+    <row r="122" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="92" t="s">
+        <v>127</v>
       </c>
       <c r="E122" s="10"/>
-      <c r="G122" s="44" t="s">
-        <v>138</v>
-      </c>
+      <c r="G122" s="44"/>
       <c r="K122" s="10"/>
-      <c r="M122" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q122" s="10"/>
     </row>
-    <row r="123" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="44"/>
+    <row r="123" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E123" s="10"/>
       <c r="G123" s="44"/>
       <c r="K123" s="10"/>
-      <c r="M123" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q123" s="10"/>
     </row>
-    <row r="124" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="44"/>
-      <c r="B124" t="s">
+    <row r="124" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E124" s="10"/>
+      <c r="G124" s="9"/>
+      <c r="K124" s="10"/>
+    </row>
+    <row r="125" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="G125" s="9"/>
+      <c r="K125" s="10"/>
+    </row>
+    <row r="126" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E126" s="38"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="8"/>
+    </row>
+    <row r="127" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="88"/>
+      <c r="B127" s="88"/>
+      <c r="C127" s="88"/>
+      <c r="D127" s="88"/>
+      <c r="E127" s="88"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="8"/>
+    </row>
+    <row r="128" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G128" s="9"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="8"/>
+    </row>
+    <row r="129" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="G129" s="9"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="8"/>
+    </row>
+    <row r="130" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="87"/>
+      <c r="B130" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C130" s="88"/>
+      <c r="D130" s="88"/>
+      <c r="E130" s="89"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="8"/>
+    </row>
+    <row r="131" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="44"/>
+      <c r="E131" s="10"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="8"/>
+    </row>
+    <row r="132" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="G132" s="44"/>
+      <c r="K132" s="10"/>
+    </row>
+    <row r="133" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="44"/>
+      <c r="E133" s="10"/>
+      <c r="G133" s="44"/>
+      <c r="K133" s="10"/>
+    </row>
+    <row r="134" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="44"/>
+      <c r="E134" s="10"/>
+      <c r="G134" s="91"/>
+      <c r="H134" s="37"/>
+      <c r="I134" s="37"/>
+      <c r="J134" s="37"/>
+      <c r="K134" s="38"/>
+    </row>
+    <row r="135" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="44"/>
+      <c r="E135" s="10"/>
+      <c r="G135" s="6"/>
+    </row>
+    <row r="136" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="44"/>
+      <c r="E136" s="10"/>
+      <c r="G136" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H136" s="88"/>
+      <c r="I136" s="88"/>
+      <c r="J136" s="88"/>
+      <c r="K136" s="89"/>
+      <c r="M136" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N136" s="88"/>
+      <c r="O136" s="88"/>
+      <c r="P136" s="88"/>
+      <c r="Q136" s="89"/>
+    </row>
+    <row r="137" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="G137" s="44"/>
+      <c r="K137" s="10"/>
+      <c r="M137" s="44"/>
+      <c r="Q137" s="10"/>
+    </row>
+    <row r="138" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E138" s="10"/>
+      <c r="G138" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="K138" s="10"/>
+      <c r="M138" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q138" s="10"/>
+    </row>
+    <row r="139" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="44"/>
+      <c r="E139" s="10"/>
+      <c r="G139" s="44"/>
+      <c r="K139" s="10"/>
+      <c r="M139" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q139" s="10"/>
+    </row>
+    <row r="140" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="44"/>
+      <c r="B140" t="s">
+        <v>101</v>
+      </c>
+      <c r="E140" s="10"/>
+      <c r="G140" s="44"/>
+      <c r="K140" s="10"/>
+      <c r="M140" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q140" s="10"/>
+    </row>
+    <row r="141" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="E124" s="10"/>
-      <c r="G124" s="44"/>
-      <c r="K124" s="10"/>
-      <c r="M124" s="44" t="s">
+      <c r="E141" s="10"/>
+      <c r="G141" s="44"/>
+      <c r="K141" s="10"/>
+      <c r="M141" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="Q124" s="10"/>
+      <c r="Q141" s="10"/>
     </row>
-    <row r="125" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="E125" s="10"/>
-      <c r="G125" s="44"/>
-      <c r="K125" s="10"/>
-      <c r="M125" s="44" t="s">
+    <row r="142" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="38"/>
+      <c r="G142" s="44"/>
+      <c r="K142" s="10"/>
+      <c r="M142" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="Q125" s="10"/>
+      <c r="Q142" s="10"/>
     </row>
-    <row r="126" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="91" t="s">
+    <row r="143" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G143" s="44"/>
+      <c r="K143" s="10"/>
+      <c r="M143" s="44"/>
+      <c r="Q143" s="10"/>
+    </row>
+    <row r="144" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G144" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="K144" s="10"/>
+      <c r="M144" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q144" s="10"/>
+    </row>
+    <row r="145" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G145" s="44"/>
+      <c r="K145" s="10"/>
+      <c r="M145" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q145" s="10"/>
+    </row>
+    <row r="146" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G146" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="B126" s="37"/>
-      <c r="C126" s="37"/>
-      <c r="D126" s="37"/>
-      <c r="E126" s="38"/>
-      <c r="G126" s="44"/>
-      <c r="K126" s="10"/>
-      <c r="M126" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q126" s="10"/>
+      <c r="H146" s="37"/>
+      <c r="I146" s="37"/>
+      <c r="J146" s="37"/>
+      <c r="K146" s="38"/>
     </row>
-    <row r="127" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G127" s="44"/>
-      <c r="K127" s="10"/>
-      <c r="M127" s="44"/>
-      <c r="Q127" s="10"/>
+    <row r="147" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="149" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G149" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H149" s="31"/>
+      <c r="I149" s="31"/>
+      <c r="J149" s="31"/>
+      <c r="K149" s="32"/>
     </row>
-    <row r="128" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G128" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="K128" s="10"/>
-      <c r="M128" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q128" s="10"/>
+    <row r="150" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G150" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="19"/>
     </row>
-    <row r="129" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G129" s="44"/>
-      <c r="K129" s="10"/>
-      <c r="M129" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q129" s="10"/>
+    <row r="151" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G151" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="19"/>
     </row>
-    <row r="130" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G130" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="37"/>
-      <c r="K130" s="38"/>
+    <row r="152" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G152" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="19"/>
     </row>
-    <row r="131" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="133" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G133" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H133" s="31"/>
-      <c r="I133" s="31"/>
-      <c r="J133" s="31"/>
-      <c r="K133" s="32"/>
+    <row r="153" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G153" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="13"/>
     </row>
-    <row r="134" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G134" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
-      <c r="J134" s="18"/>
-      <c r="K134" s="19"/>
-    </row>
-    <row r="135" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G135" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
-      <c r="J135" s="18"/>
-      <c r="K135" s="19"/>
-    </row>
-    <row r="136" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G136" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
-      <c r="J136" s="18"/>
-      <c r="K136" s="19"/>
-    </row>
-    <row r="137" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G137" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="13"/>
-    </row>
-    <row r="138" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="161" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="162" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="163" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926FB230-6912-434C-8553-F6FF0D255AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D73F1D-8E35-4D0D-BC98-F0CD49365444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="21270" windowHeight="15600" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1524,7 +1524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1803,9 +1803,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12702,8 +12699,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13642,7 +13639,7 @@
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="93" t="s">
+      <c r="D54" t="s">
         <v>139</v>
       </c>
     </row>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D73F1D-8E35-4D0D-BC98-F0CD49365444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FEBE3A-6859-4CF1-8276-E03060D81FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -12699,8 +12699,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FEBE3A-6859-4CF1-8276-E03060D81FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653F471B-9CE8-47F1-828B-AA94FE9A47F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -12699,8 +12699,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653F471B-9CE8-47F1-828B-AA94FE9A47F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F597742D-7056-4F76-835B-A405C8E29384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -12699,8 +12699,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F597742D-7056-4F76-835B-A405C8E29384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63F968ED-9F71-4EB7-B55F-D1FE2CFC8907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="150">
   <si>
     <t>의약품관리종합정보포탈 (https://biz.kpis.or.kr) &gt; sims</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -928,9 +929,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>국세청 홈텍스에 들어가서 세금계산서 건별발급</t>
-  </si>
-  <si>
     <t>계산기 이용하여 우리측 매출액 입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1101,6 +1099,18 @@
   </si>
   <si>
     <t xml:space="preserve"> *0.85 곱해서 매입과 금액 비교</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 만든 애들과 이전달거 비교해서 비고란도 채워주고 전체적으로 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국세청 홈텍스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1524,7 +1534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1804,6 +1814,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -9287,9 +9303,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -9332,9 +9348,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -9377,9 +9393,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>59054</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="154306" cy="221567"/>
@@ -9422,9 +9438,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -11325,23 +11341,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295158</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>1322</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295142</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>38052</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="그림 106">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380C91DC-5867-BAF7-E2B6-0721340D2808}"/>
+        <xdr:cNvPr id="109" name="그림 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267546E3-579D-6DD7-6CC8-58F88B1FF371}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11357,8 +11373,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7172325" y="30927675"/>
-          <a:ext cx="933333" cy="314286"/>
+          <a:off x="8410575" y="31842075"/>
+          <a:ext cx="1066667" cy="380952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11369,59 +11385,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>295142</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>38052</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="그림 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267546E3-579D-6DD7-6CC8-58F88B1FF371}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8410575" y="31842075"/>
-          <a:ext cx="1066667" cy="380952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>95156</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>38053</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11438,7 +11410,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11482,7 +11454,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11526,7 +11498,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11570,7 +11542,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11614,7 +11586,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11658,7 +11630,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11702,7 +11674,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11746,7 +11718,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11790,7 +11762,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11834,7 +11806,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
         <a:srcRect b="32195"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -11855,13 +11827,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>70757</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:rowOff>97973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>660085</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>59288</xdr:rowOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11877,15 +11849,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3608614" y="37150222"/>
-          <a:ext cx="9706114" cy="4655780"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3633107" y="37312148"/>
+          <a:ext cx="9771428" cy="4531178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11896,9 +11868,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -11941,9 +11913,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -11986,15 +11958,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>675940</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>276196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12011,7 +11983,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12030,15 +12002,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>466593</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>276038</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12055,7 +12027,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12074,15 +12046,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>552132</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>276195</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12099,7 +12071,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12143,7 +12115,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12187,7 +12159,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12231,7 +12203,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12275,7 +12247,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12319,7 +12291,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12363,7 +12335,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12372,6 +12344,182 @@
         <a:xfrm>
           <a:off x="571500" y="19564350"/>
           <a:ext cx="722312" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485638</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>276196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="139" name="그림 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ACAAF91-FC75-4D05-885F-2912E7F6F3B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638550" y="41976675"/>
+          <a:ext cx="1095238" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552299</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>266673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="142" name="그림 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C11B9B6-4BDB-4C12-AFC4-9CDD24A07A91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962525" y="41976675"/>
+          <a:ext cx="1209524" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>292174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="그림 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F3B73DB-E7A8-3EFA-70B7-866FF570B966}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600451" y="43214925"/>
+          <a:ext cx="3333750" cy="263599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266824</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>295312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="146" name="그림 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9020B7EE-2C3A-36ED-EEED-9952123CAA7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3629025" y="43529250"/>
+          <a:ext cx="885949" cy="266737"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12699,8 +12847,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13446,7 +13594,7 @@
     </row>
     <row r="30" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="2"/>
@@ -13458,7 +13606,7 @@
     </row>
     <row r="31" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="2"/>
@@ -13506,7 +13654,7 @@
     </row>
     <row r="36" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13517,7 +13665,7 @@
     </row>
     <row r="39" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G39" s="87"/>
       <c r="H39" s="88"/>
@@ -13527,14 +13675,14 @@
     </row>
     <row r="40" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G40" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G41" s="44"/>
       <c r="I41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K41" s="10"/>
     </row>
@@ -13549,7 +13697,7 @@
       <c r="G42" s="91"/>
       <c r="H42" s="37"/>
       <c r="I42" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J42" s="37"/>
       <c r="K42" s="38"/>
@@ -13560,10 +13708,10 @@
     </row>
     <row r="44" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13573,7 +13721,7 @@
       </c>
       <c r="E45" s="10"/>
       <c r="G45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13583,10 +13731,10 @@
       </c>
       <c r="E46" s="10"/>
       <c r="G46" s="92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13596,13 +13744,13 @@
       </c>
       <c r="E47" s="10"/>
       <c r="H47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="44"/>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E48" s="10"/>
     </row>
@@ -13640,70 +13788,70 @@
     </row>
     <row r="54" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="44"/>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="44"/>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="44"/>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="44"/>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E62" s="10"/>
     </row>
     <row r="63" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="44"/>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E63" s="10"/>
     </row>
     <row r="64" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="44"/>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E64" s="10"/>
     </row>
     <row r="65" spans="1:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" s="37"/>
       <c r="C65" s="37"/>
@@ -14163,7 +14311,7 @@
     <row r="117" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="118" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B118" s="88"/>
       <c r="C118" s="88"/>
@@ -14197,7 +14345,7 @@
     </row>
     <row r="122" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E122" s="10"/>
       <c r="G122" s="44"/>
@@ -14215,7 +14363,7 @@
     </row>
     <row r="125" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E125" s="10"/>
       <c r="G125" s="9"/>
@@ -14223,7 +14371,7 @@
     </row>
     <row r="126" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E126" s="38"/>
       <c r="G126" s="9"/>
@@ -14253,7 +14401,7 @@
     </row>
     <row r="129" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="1"/>
@@ -14298,70 +14446,65 @@
       <c r="G133" s="44"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="44"/>
       <c r="E134" s="10"/>
-      <c r="G134" s="91"/>
-      <c r="H134" s="37"/>
-      <c r="I134" s="37"/>
-      <c r="J134" s="37"/>
-      <c r="K134" s="38"/>
+      <c r="G134" s="44"/>
+      <c r="H134" s="94"/>
+      <c r="I134" s="94"/>
+      <c r="J134" s="94"/>
+      <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="44"/>
       <c r="E135" s="10"/>
-      <c r="G135" s="6"/>
+      <c r="G135" s="44"/>
+      <c r="H135" t="s">
+        <v>147</v>
+      </c>
+      <c r="K135" s="10"/>
     </row>
-    <row r="136" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="44"/>
       <c r="E136" s="10"/>
-      <c r="G136" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H136" s="88"/>
-      <c r="I136" s="88"/>
-      <c r="J136" s="88"/>
-      <c r="K136" s="89"/>
-      <c r="M136" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="N136" s="88"/>
-      <c r="O136" s="88"/>
-      <c r="P136" s="88"/>
-      <c r="Q136" s="89"/>
+      <c r="G136" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="H136" s="37"/>
+      <c r="I136" s="37"/>
+      <c r="J136" s="37"/>
+      <c r="K136" s="38"/>
     </row>
-    <row r="137" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E137" s="10"/>
-      <c r="G137" s="44"/>
-      <c r="K137" s="10"/>
-      <c r="M137" s="44"/>
-      <c r="Q137" s="10"/>
     </row>
     <row r="138" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E138" s="10"/>
-      <c r="G138" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="K138" s="10"/>
-      <c r="M138" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q138" s="10"/>
+      <c r="G138" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="H138" s="88"/>
+      <c r="I138" s="88"/>
+      <c r="J138" s="88"/>
+      <c r="K138" s="89"/>
+      <c r="M138" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="N138" s="88"/>
+      <c r="O138" s="88"/>
+      <c r="P138" s="88"/>
+      <c r="Q138" s="89"/>
     </row>
     <row r="139" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="44"/>
       <c r="E139" s="10"/>
-      <c r="G139" s="44"/>
-      <c r="K139" s="10"/>
-      <c r="M139" s="90" t="s">
-        <v>112</v>
-      </c>
+      <c r="M139" s="44"/>
       <c r="Q139" s="10"/>
     </row>
     <row r="140" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -14373,7 +14516,7 @@
       <c r="G140" s="44"/>
       <c r="K140" s="10"/>
       <c r="M140" s="44" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="Q140" s="10"/>
     </row>
@@ -14382,109 +14525,126 @@
         <v>102</v>
       </c>
       <c r="E141" s="10"/>
-      <c r="G141" s="44"/>
+      <c r="G141" s="44" t="s">
+        <v>105</v>
+      </c>
       <c r="K141" s="10"/>
-      <c r="M141" s="44" t="s">
-        <v>108</v>
-      </c>
+      <c r="M141" s="44"/>
       <c r="Q141" s="10"/>
     </row>
     <row r="142" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B142" s="37"/>
       <c r="C142" s="37"/>
       <c r="D142" s="37"/>
       <c r="E142" s="38"/>
-      <c r="G142" s="44"/>
+      <c r="G142" s="90" t="s">
+        <v>111</v>
+      </c>
       <c r="K142" s="10"/>
-      <c r="M142" s="44" t="s">
-        <v>109</v>
-      </c>
+      <c r="M142" s="44"/>
       <c r="Q142" s="10"/>
     </row>
     <row r="143" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G143" s="44"/>
+      <c r="G143" s="44" t="s">
+        <v>106</v>
+      </c>
       <c r="K143" s="10"/>
       <c r="M143" s="44"/>
       <c r="Q143" s="10"/>
     </row>
     <row r="144" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G144" s="44" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="K144" s="10"/>
-      <c r="M144" s="44" t="s">
-        <v>110</v>
-      </c>
+      <c r="M144" s="44"/>
       <c r="Q144" s="10"/>
     </row>
     <row r="145" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G145" s="44"/>
+      <c r="G145" s="44" t="s">
+        <v>108</v>
+      </c>
       <c r="K145" s="10"/>
-      <c r="M145" s="44" t="s">
-        <v>111</v>
-      </c>
+      <c r="M145" s="44"/>
       <c r="Q145" s="10"/>
     </row>
-    <row r="146" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G146" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="H146" s="37"/>
-      <c r="I146" s="37"/>
-      <c r="J146" s="37"/>
-      <c r="K146" s="38"/>
+    <row r="146" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G146" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="K146" s="10"/>
+      <c r="M146" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q146" s="10"/>
     </row>
-    <row r="147" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="149" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G149" s="30" t="s">
+    <row r="147" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G147" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="K147" s="10"/>
+      <c r="M147" s="44"/>
+      <c r="Q147" s="10"/>
+    </row>
+    <row r="148" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K148" s="10"/>
+      <c r="M148" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="N148" s="37"/>
+      <c r="O148" s="37"/>
+      <c r="P148" s="37"/>
+      <c r="Q148" s="38"/>
+    </row>
+    <row r="149" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="150" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M150" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H149" s="31"/>
-      <c r="I149" s="31"/>
-      <c r="J149" s="31"/>
-      <c r="K149" s="32"/>
-    </row>
-    <row r="150" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G150" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
-      <c r="J150" s="18"/>
-      <c r="K150" s="19"/>
+      <c r="N150" s="31"/>
+      <c r="O150" s="31"/>
+      <c r="P150" s="31"/>
+      <c r="Q150" s="32"/>
     </row>
     <row r="151" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G151" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
-      <c r="J151" s="18"/>
-      <c r="K151" s="19"/>
+      <c r="M151" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N151" s="18"/>
+      <c r="O151" s="18"/>
+      <c r="P151" s="18"/>
+      <c r="Q151" s="19"/>
     </row>
     <row r="152" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G152" s="17" t="s">
+      <c r="M152" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N152" s="18"/>
+      <c r="O152" s="18"/>
+      <c r="P152" s="18"/>
+      <c r="Q152" s="19"/>
+    </row>
+    <row r="153" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M153" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H152" s="18"/>
-      <c r="I152" s="18"/>
-      <c r="J152" s="18"/>
-      <c r="K152" s="19"/>
+      <c r="N153" s="18"/>
+      <c r="O153" s="18"/>
+      <c r="P153" s="18"/>
+      <c r="Q153" s="19"/>
     </row>
-    <row r="153" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G153" s="11" t="s">
+    <row r="154" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M154" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="13"/>
+      <c r="N154" s="12"/>
+      <c r="O154" s="12"/>
+      <c r="P154" s="12"/>
+      <c r="Q154" s="13"/>
     </row>
-    <row r="154" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="155" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="156" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="157" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63F968ED-9F71-4EB7-B55F-D1FE2CFC8907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D73A42-1AAB-4ACA-9C0C-162928784888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -220,10 +219,6 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                    출고 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                              신고 전일 Set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1112,12 +1107,29 @@
     <t>국세청 홈텍스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>신고 전일 Set</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1235,6 +1247,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF7030A0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1817,7 +1837,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10859,13 +10879,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171351</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>266670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10903,13 +10923,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76064</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>276199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10947,13 +10967,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>571351</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>287074</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10991,13 +11011,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>609402</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>285718</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11035,13 +11055,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>638004</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>247588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11079,13 +11099,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>618950</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>295242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11123,13 +11143,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285463</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>304764</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11167,13 +11187,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>20295</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11431,13 +11451,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>656979</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>9481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11475,13 +11495,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>619035</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>1322</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11519,13 +11539,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>152302</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>266673</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11563,13 +11583,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>609470</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>199974</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12092,13 +12112,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>313377</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12136,13 +12156,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>674687</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12180,13 +12200,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>169920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12224,13 +12244,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>638421</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>295353</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12268,13 +12288,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600245</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>276257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12312,13 +12332,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>608012</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12848,7 +12868,7 @@
   <dimension ref="A1:W300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12860,7 +12880,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12874,7 +12894,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="70"/>
       <c r="H2" s="71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" s="71"/>
       <c r="J2" s="71"/>
@@ -12904,14 +12924,14 @@
       <c r="E3" s="64"/>
       <c r="F3" s="1"/>
       <c r="G3" s="73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" s="74"/>
       <c r="I3" s="74"/>
       <c r="J3" s="74"/>
       <c r="K3" s="75"/>
-      <c r="M3" s="9" t="s">
-        <v>32</v>
+      <c r="M3" s="94" t="s">
+        <v>149</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -12950,7 +12970,7 @@
     </row>
     <row r="5" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -12965,7 +12985,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
       <c r="M5" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -12981,7 +13001,7 @@
     </row>
     <row r="6" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -13006,7 +13026,7 @@
     </row>
     <row r="7" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -13014,7 +13034,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="1"/>
       <c r="G7" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -13028,7 +13048,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="8"/>
       <c r="S7" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -13037,7 +13057,7 @@
     </row>
     <row r="8" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
@@ -13064,7 +13084,7 @@
     </row>
     <row r="9" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
@@ -13079,7 +13099,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -13087,13 +13107,13 @@
       <c r="Q9" s="8"/>
       <c r="S9" s="44"/>
       <c r="T9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
@@ -13122,7 +13142,7 @@
     </row>
     <row r="11" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -13137,14 +13157,14 @@
       <c r="J11" s="1"/>
       <c r="K11" s="8"/>
       <c r="M11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="8"/>
       <c r="S11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
@@ -13153,7 +13173,7 @@
     </row>
     <row r="12" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -13195,7 +13215,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="8"/>
       <c r="M13" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -13209,7 +13229,7 @@
     </row>
     <row r="14" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -13224,7 +13244,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="8"/>
       <c r="M14" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -13238,7 +13258,7 @@
     </row>
     <row r="15" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
@@ -13255,7 +13275,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q15" s="49"/>
       <c r="S15" s="9" t="s">
@@ -13268,7 +13288,7 @@
     </row>
     <row r="16" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -13439,7 +13459,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="8"/>
       <c r="S22" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -13460,7 +13480,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="8"/>
       <c r="M23" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -13488,7 +13508,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="8"/>
       <c r="M24" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -13516,7 +13536,7 @@
       <c r="M25" s="44"/>
       <c r="Q25" s="10"/>
       <c r="S25" s="77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
@@ -13553,7 +13573,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="8"/>
       <c r="G27" s="76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H27" s="68"/>
       <c r="I27" s="68"/>
@@ -13594,24 +13614,24 @@
     </row>
     <row r="30" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="49"/>
     </row>
     <row r="31" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="49"/>
@@ -13620,7 +13640,7 @@
       <c r="G32" s="48"/>
       <c r="H32" s="61"/>
       <c r="I32" s="61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="49"/>
@@ -13629,7 +13649,7 @@
       <c r="G33" s="48"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="49"/>
@@ -13638,7 +13658,7 @@
       <c r="G34" s="48"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="49"/>
@@ -13647,217 +13667,215 @@
       <c r="G35" s="77"/>
       <c r="H35" s="50"/>
       <c r="I35" s="78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J35" s="50"/>
       <c r="K35" s="51"/>
     </row>
     <row r="36" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>136</v>
-      </c>
-      <c r="G39" s="87"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="89"/>
+        <v>135</v>
+      </c>
     </row>
-    <row r="40" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="K40" s="10"/>
+    <row r="40" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="87"/>
+      <c r="B41" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="89"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="89"/>
     </row>
-    <row r="41" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G41" s="44"/>
-      <c r="I41" t="s">
-        <v>116</v>
-      </c>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="87"/>
-      <c r="B42" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="89"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="J42" s="37"/>
-      <c r="K42" s="38"/>
+    <row r="42" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="44"/>
+      <c r="E42" s="10"/>
+      <c r="G42" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="K42" s="10"/>
     </row>
     <row r="43" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="E43" s="10"/>
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="44"/>
+      <c r="I43" t="s">
+        <v>115</v>
+      </c>
+      <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" t="s">
-        <v>118</v>
-      </c>
+    <row r="44" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="44"/>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="J44" s="37"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E45" s="10"/>
-      <c r="G45" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="46" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="44"/>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E46" s="10"/>
-      <c r="G46" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="H46" t="s">
-        <v>121</v>
+      <c r="G46" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="44"/>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E47" s="10"/>
-      <c r="H47" t="s">
-        <v>120</v>
+      <c r="G47" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="44"/>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="E48" s="10"/>
+      <c r="G48" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="49" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="44"/>
-      <c r="D49" t="s">
-        <v>92</v>
+      <c r="B49" t="s">
+        <v>94</v>
       </c>
       <c r="E49" s="10"/>
+      <c r="H49" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="50" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="44"/>
       <c r="B50" t="s">
         <v>95</v>
       </c>
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="44"/>
-      <c r="B51" t="s">
-        <v>96</v>
-      </c>
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="44"/>
+      <c r="B52" t="s">
+        <v>97</v>
+      </c>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="44"/>
-      <c r="B53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="10"/>
+    <row r="53" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="54" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44"/>
       <c r="D54" t="s">
         <v>138</v>
       </c>
+      <c r="E54" s="10"/>
     </row>
-    <row r="55" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="44"/>
       <c r="D55" t="s">
         <v>139</v>
       </c>
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="44"/>
-      <c r="D56" t="s">
+      <c r="C56" t="s">
         <v>140</v>
       </c>
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="44"/>
+    <row r="57" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>141</v>
       </c>
-      <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
+    <row r="59" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" t="s">
+    <row r="60" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="44"/>
+      <c r="C61" t="s">
         <v>144</v>
       </c>
+      <c r="E61" s="10"/>
     </row>
-    <row r="61" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="44"/>
       <c r="C62" t="s">
         <v>145</v>
       </c>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="44"/>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="44"/>
-      <c r="C64" t="s">
+    <row r="64" spans="1:8" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="E64" s="10"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="38"/>
     </row>
-    <row r="65" spans="1:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="38"/>
-    </row>
+    <row r="65" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13870,7 +13888,7 @@
     <row r="75" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -13878,7 +13896,7 @@
     </row>
     <row r="77" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>11</v>
@@ -13897,10 +13915,10 @@
     </row>
     <row r="78" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H78" s="18"/>
       <c r="I78" s="18"/>
@@ -13914,7 +13932,7 @@
     </row>
     <row r="79" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -13930,18 +13948,18 @@
     </row>
     <row r="80" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="G80" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K80" s="10"/>
       <c r="M80" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -13950,7 +13968,7 @@
     </row>
     <row r="81" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -13966,7 +13984,7 @@
     </row>
     <row r="82" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G82" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K82" s="10"/>
       <c r="M82" s="9" t="s">
@@ -13991,7 +14009,7 @@
     </row>
     <row r="84" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G84" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -14014,7 +14032,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="8"/>
       <c r="M85" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N85" s="15"/>
       <c r="O85" s="15"/>
@@ -14053,7 +14071,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="8"/>
       <c r="M88" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
@@ -14123,7 +14141,7 @@
       </c>
       <c r="K93" s="10"/>
       <c r="M93" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
@@ -14132,7 +14150,7 @@
     </row>
     <row r="94" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G94" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
@@ -14205,7 +14223,7 @@
     <row r="101" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14213,7 +14231,7 @@
     </row>
     <row r="104" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B104" s="31"/>
       <c r="C104" s="31"/>
@@ -14222,7 +14240,7 @@
     </row>
     <row r="105" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -14231,7 +14249,7 @@
     </row>
     <row r="106" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
@@ -14249,7 +14267,7 @@
     </row>
     <row r="108" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -14258,7 +14276,7 @@
     </row>
     <row r="109" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -14267,7 +14285,7 @@
     </row>
     <row r="110" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -14276,7 +14294,7 @@
     </row>
     <row r="111" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -14294,7 +14312,7 @@
     </row>
     <row r="113" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -14305,20 +14323,20 @@
     <row r="115" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="118" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B118" s="88"/>
       <c r="C118" s="88"/>
       <c r="D118" s="88"/>
       <c r="E118" s="89"/>
       <c r="G118" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H118" s="88"/>
       <c r="I118" s="88"/>
@@ -14345,7 +14363,7 @@
     </row>
     <row r="122" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E122" s="10"/>
       <c r="G122" s="44"/>
@@ -14363,7 +14381,7 @@
     </row>
     <row r="125" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E125" s="10"/>
       <c r="G125" s="9"/>
@@ -14371,7 +14389,7 @@
     </row>
     <row r="126" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E126" s="38"/>
       <c r="G126" s="9"/>
@@ -14401,7 +14419,7 @@
     </row>
     <row r="129" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="1"/>
@@ -14412,7 +14430,7 @@
     <row r="130" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="87"/>
       <c r="B130" s="88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C130" s="88"/>
       <c r="D130" s="88"/>
@@ -14434,7 +14452,7 @@
     </row>
     <row r="132" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E132" s="10"/>
       <c r="G132" s="44"/>
@@ -14450,9 +14468,6 @@
       <c r="A134" s="44"/>
       <c r="E134" s="10"/>
       <c r="G134" s="44"/>
-      <c r="H134" s="94"/>
-      <c r="I134" s="94"/>
-      <c r="J134" s="94"/>
       <c r="K134" s="10"/>
     </row>
     <row r="135" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -14460,7 +14475,7 @@
       <c r="E135" s="10"/>
       <c r="G135" s="44"/>
       <c r="H135" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K135" s="10"/>
     </row>
@@ -14468,7 +14483,7 @@
       <c r="A136" s="44"/>
       <c r="E136" s="10"/>
       <c r="G136" s="93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H136" s="37"/>
       <c r="I136" s="37"/>
@@ -14477,24 +14492,24 @@
     </row>
     <row r="137" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E137" s="10"/>
     </row>
     <row r="138" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E138" s="10"/>
       <c r="G138" s="87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H138" s="88"/>
       <c r="I138" s="88"/>
       <c r="J138" s="88"/>
       <c r="K138" s="89"/>
       <c r="M138" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N138" s="88"/>
       <c r="O138" s="88"/>
@@ -14510,23 +14525,23 @@
     <row r="140" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="44"/>
       <c r="B140" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E140" s="10"/>
       <c r="G140" s="44"/>
       <c r="K140" s="10"/>
       <c r="M140" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q140" s="10"/>
     </row>
     <row r="141" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E141" s="10"/>
       <c r="G141" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K141" s="10"/>
       <c r="M141" s="44"/>
@@ -14534,14 +14549,14 @@
     </row>
     <row r="142" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B142" s="37"/>
       <c r="C142" s="37"/>
       <c r="D142" s="37"/>
       <c r="E142" s="38"/>
       <c r="G142" s="90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K142" s="10"/>
       <c r="M142" s="44"/>
@@ -14549,7 +14564,7 @@
     </row>
     <row r="143" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G143" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K143" s="10"/>
       <c r="M143" s="44"/>
@@ -14557,7 +14572,7 @@
     </row>
     <row r="144" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G144" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K144" s="10"/>
       <c r="M144" s="44"/>
@@ -14565,7 +14580,7 @@
     </row>
     <row r="145" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G145" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K145" s="10"/>
       <c r="M145" s="44"/>
@@ -14573,17 +14588,17 @@
     </row>
     <row r="146" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G146" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K146" s="10"/>
       <c r="M146" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q146" s="10"/>
     </row>
     <row r="147" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G147" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K147" s="10"/>
       <c r="M147" s="44"/>
@@ -14592,7 +14607,7 @@
     <row r="148" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K148" s="10"/>
       <c r="M148" s="91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N148" s="37"/>
       <c r="O148" s="37"/>
@@ -14602,7 +14617,7 @@
     <row r="149" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="150" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M150" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N150" s="31"/>
       <c r="O150" s="31"/>
@@ -14611,7 +14626,7 @@
     </row>
     <row r="151" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M151" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N151" s="18"/>
       <c r="O151" s="18"/>
@@ -14620,7 +14635,7 @@
     </row>
     <row r="152" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M152" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N152" s="18"/>
       <c r="O152" s="18"/>
@@ -14629,7 +14644,7 @@
     </row>
     <row r="153" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M153" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N153" s="18"/>
       <c r="O153" s="18"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D73A42-1AAB-4ACA-9C0C-162928784888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD1262-E7F9-4D41-BE9F-09EDCBA9C9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1656,9 +1656,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6121,7 +6118,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -6166,7 +6163,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
@@ -6211,7 +6208,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -6256,7 +6253,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -6301,7 +6298,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
@@ -6346,7 +6343,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>30479</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
@@ -6391,13 +6388,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
@@ -6455,13 +6452,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>655320</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
@@ -6519,7 +6516,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
@@ -6564,7 +6561,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
@@ -6609,10 +6606,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914479" cy="289585"/>
     <xdr:pic>
@@ -6642,7 +6639,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10614660" y="8930640"/>
+          <a:off x="7368540" y="24399240"/>
           <a:ext cx="914479" cy="289585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6654,7 +6651,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>640079</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
@@ -6699,7 +6696,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
@@ -6744,7 +6741,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>632461</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
@@ -6789,7 +6786,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -6834,7 +6831,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -6879,7 +6876,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>83821</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -6924,7 +6921,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
@@ -6969,13 +6966,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
@@ -7032,7 +7029,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
@@ -7077,7 +7074,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>640079</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
@@ -7122,7 +7119,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
@@ -7167,7 +7164,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>632461</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
@@ -7212,7 +7209,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -7257,7 +7254,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -7302,7 +7299,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>83821</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -7347,7 +7344,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
@@ -7392,13 +7389,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
@@ -7455,7 +7452,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>51906</xdr:rowOff>
@@ -7500,7 +7497,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
@@ -7545,7 +7542,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -7590,7 +7587,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>487679</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -7635,13 +7632,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
@@ -7763,7 +7760,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -7808,7 +7805,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -7853,13 +7850,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
@@ -7917,7 +7914,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>144781</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -7962,13 +7959,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>251459</xdr:rowOff>
@@ -8026,13 +8023,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
@@ -8090,7 +8087,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -8135,7 +8132,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>129541</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
@@ -8495,13 +8492,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
@@ -8558,13 +8555,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
@@ -8622,13 +8619,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
@@ -8685,13 +8682,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
@@ -8751,7 +8748,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -8796,7 +8793,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -8841,7 +8838,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -8886,13 +8883,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8957,13 +8954,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9017,7 +9014,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182879</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>33802</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167641" cy="240716"/>
@@ -9062,13 +9059,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>53341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9126,7 +9123,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9171,13 +9168,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9503,13 +9500,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
@@ -9555,13 +9552,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>72390</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>210813</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9605,7 +9602,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>205739</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>41422</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167641" cy="240716"/>
@@ -9650,13 +9647,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9725,13 +9722,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12867,8 +12864,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12884,53 +12881,53 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
-      <c r="M2" s="84" t="s">
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
+      <c r="M2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="86"/>
-      <c r="S2" s="79" t="s">
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
+      <c r="S2" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="36"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="35"/>
     </row>
     <row r="3" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="M3" s="94" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
+      <c r="M3" s="93" t="s">
         <v>149</v>
       </c>
       <c r="N3" s="1"/>
@@ -12953,10 +12950,10 @@
       <c r="G4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
       <c r="M4" s="9"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -13000,13 +12997,13 @@
       <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="59" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="49"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="1"/>
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
@@ -13056,13 +13053,13 @@
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="1"/>
       <c r="G8" s="9"/>
       <c r="H8" s="1"/>
@@ -13083,13 +13080,13 @@
       <c r="W8" s="8"/>
     </row>
     <row r="9" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="1"/>
       <c r="G9" s="9" t="s">
         <v>4</v>
@@ -13105,20 +13102,20 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="8"/>
-      <c r="S9" s="44"/>
+      <c r="S9" s="43"/>
       <c r="T9" t="s">
         <v>77</v>
       </c>
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="1"/>
       <c r="G10" s="9" t="s">
         <v>1</v>
@@ -13141,13 +13138,13 @@
       <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="59" t="s">
         <v>87</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="49"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="1"/>
       <c r="G11" s="9" t="s">
         <v>5</v>
@@ -13172,13 +13169,13 @@
       <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="62"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="1"/>
       <c r="G12" s="9"/>
       <c r="H12" s="1"/>
@@ -13214,13 +13211,13 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="8"/>
-      <c r="M13" s="46" t="s">
+      <c r="M13" s="45" t="s">
         <v>71</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="47"/>
+      <c r="Q13" s="46"/>
       <c r="S13" s="9"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -13228,13 +13225,13 @@
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="1"/>
       <c r="G14" s="9" t="s">
         <v>1</v>
@@ -13243,13 +13240,13 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="8"/>
-      <c r="M14" s="46" t="s">
+      <c r="M14" s="45" t="s">
         <v>72</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="47"/>
+      <c r="Q14" s="46"/>
       <c r="S14" s="9"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -13257,13 +13254,13 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="42"/>
       <c r="G15" s="9" t="s">
         <v>5</v>
       </c>
@@ -13271,13 +13268,13 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="8"/>
-      <c r="M15" s="60"/>
+      <c r="M15" s="59"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q15" s="49"/>
+      <c r="Q15" s="48"/>
       <c r="S15" s="9" t="s">
         <v>29</v>
       </c>
@@ -13287,13 +13284,13 @@
       <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
       <c r="G16" s="9" t="s">
         <v>6</v>
       </c>
@@ -13301,7 +13298,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="8"/>
-      <c r="M16" s="44"/>
+      <c r="M16" s="43"/>
       <c r="Q16" s="10"/>
       <c r="S16" s="9"/>
       <c r="T16" s="1"/>
@@ -13322,7 +13319,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="8"/>
-      <c r="M17" s="44"/>
+      <c r="M17" s="43"/>
       <c r="Q17" s="10"/>
       <c r="S17" s="9"/>
       <c r="T17" s="1"/>
@@ -13350,20 +13347,20 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="8"/>
-      <c r="S18" s="82" t="s">
+      <c r="S18" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="53"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="52"/>
     </row>
     <row r="19" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
       <c r="G19" s="9"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -13376,11 +13373,11 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="8"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="56"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="55"/>
     </row>
     <row r="20" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
@@ -13404,11 +13401,11 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="8"/>
-      <c r="S20" s="48"/>
+      <c r="S20" s="47"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="49"/>
+      <c r="W20" s="48"/>
     </row>
     <row r="21" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
@@ -13430,11 +13427,11 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="8"/>
-      <c r="S21" s="48"/>
+      <c r="S21" s="47"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="49"/>
+      <c r="W21" s="48"/>
     </row>
     <row r="22" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
@@ -13458,13 +13455,13 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="8"/>
-      <c r="S22" s="60" t="s">
+      <c r="S22" s="59" t="s">
         <v>78</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="49"/>
+      <c r="W22" s="48"/>
     </row>
     <row r="23" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
@@ -13479,18 +13476,18 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="8"/>
-      <c r="M23" s="46" t="s">
+      <c r="M23" s="45" t="s">
         <v>73</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="47"/>
-      <c r="S23" s="48"/>
+      <c r="Q23" s="46"/>
+      <c r="S23" s="47"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="49"/>
+      <c r="W23" s="48"/>
     </row>
     <row r="24" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
@@ -13507,18 +13504,18 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="8"/>
-      <c r="M24" s="46" t="s">
+      <c r="M24" s="45" t="s">
         <v>74</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="47"/>
-      <c r="S24" s="48"/>
+      <c r="Q24" s="46"/>
+      <c r="S24" s="47"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="49"/>
+      <c r="W24" s="48"/>
     </row>
     <row r="25" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
@@ -13533,15 +13530,15 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="8"/>
-      <c r="M25" s="44"/>
+      <c r="M25" s="43"/>
       <c r="Q25" s="10"/>
-      <c r="S25" s="77" t="s">
+      <c r="S25" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="51"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="50"/>
     </row>
     <row r="26" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
@@ -13572,13 +13569,13 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="8"/>
-      <c r="G27" s="76" t="s">
+      <c r="G27" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
       <c r="M27" s="9" t="s">
         <v>22</v>
       </c>
@@ -13592,85 +13589,85 @@
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="56"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="55"/>
       <c r="M28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="38"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="37"/>
     </row>
     <row r="29" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="48"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="49"/>
+      <c r="K29" s="48"/>
     </row>
     <row r="30" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="44"/>
+      <c r="G30" s="43"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
         <v>83</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="49"/>
+      <c r="K30" s="48"/>
     </row>
     <row r="31" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="44"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
         <v>83</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="49"/>
+      <c r="K31" s="48"/>
     </row>
     <row r="32" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="48"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61" t="s">
+      <c r="G32" s="47"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60" t="s">
         <v>84</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="49"/>
+      <c r="K32" s="48"/>
     </row>
     <row r="33" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G33" s="48"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
         <v>82</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="49"/>
+      <c r="K33" s="48"/>
     </row>
     <row r="34" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G34" s="48"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
         <v>83</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="49"/>
+      <c r="K34" s="48"/>
     </row>
     <row r="35" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G35" s="77"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="78" t="s">
+      <c r="G35" s="76"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="J35" s="50"/>
-      <c r="K35" s="51"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="50"/>
     </row>
     <row r="36" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
@@ -13690,23 +13687,23 @@
     </row>
     <row r="40" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="87"/>
-      <c r="B41" s="88" t="s">
+      <c r="A41" s="86"/>
+      <c r="B41" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="89"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="89"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="88"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="88"/>
     </row>
     <row r="42" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="44"/>
+      <c r="A42" s="43"/>
       <c r="E42" s="10"/>
-      <c r="G42" s="44" t="s">
+      <c r="G42" s="43" t="s">
         <v>114</v>
       </c>
       <c r="K42" s="10"/>
@@ -13715,35 +13712,35 @@
       <c r="A43" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="44"/>
+      <c r="G43" s="43"/>
       <c r="I43" t="s">
         <v>115</v>
       </c>
       <c r="K43" s="10"/>
     </row>
     <row r="44" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="44"/>
+      <c r="A44" s="43"/>
       <c r="D44" t="s">
         <v>91</v>
       </c>
       <c r="E44" s="10"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37" t="s">
+      <c r="G44" s="90"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="J44" s="37"/>
-      <c r="K44" s="38"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="37"/>
     </row>
     <row r="45" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
+      <c r="A45" s="43"/>
       <c r="D45" t="s">
         <v>93</v>
       </c>
       <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="44"/>
+      <c r="A46" s="43"/>
       <c r="D46" t="s">
         <v>92</v>
       </c>
@@ -13753,7 +13750,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
+      <c r="A47" s="43"/>
       <c r="D47" t="s">
         <v>111</v>
       </c>
@@ -13763,12 +13760,12 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="44"/>
+      <c r="A48" s="43"/>
       <c r="D48" t="s">
         <v>91</v>
       </c>
       <c r="E48" s="10"/>
-      <c r="G48" s="92" t="s">
+      <c r="G48" s="91" t="s">
         <v>121</v>
       </c>
       <c r="H48" t="s">
@@ -13776,7 +13773,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
+      <c r="A49" s="43"/>
       <c r="B49" t="s">
         <v>94</v>
       </c>
@@ -13786,18 +13783,18 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
+      <c r="A50" s="43"/>
       <c r="B50" t="s">
         <v>95</v>
       </c>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="44"/>
+      <c r="A51" s="43"/>
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="44"/>
+      <c r="A52" s="43"/>
       <c r="B52" t="s">
         <v>97</v>
       </c>
@@ -13809,21 +13806,21 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44"/>
+      <c r="A54" s="43"/>
       <c r="D54" t="s">
         <v>138</v>
       </c>
       <c r="E54" s="10"/>
     </row>
     <row r="55" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="44"/>
+      <c r="A55" s="43"/>
       <c r="D55" t="s">
         <v>139</v>
       </c>
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="44"/>
+      <c r="A56" s="43"/>
       <c r="C56" t="s">
         <v>140</v>
       </c>
@@ -13846,479 +13843,467 @@
     </row>
     <row r="60" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="44"/>
+      <c r="A61" s="43"/>
       <c r="C61" t="s">
         <v>144</v>
       </c>
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="44"/>
+      <c r="A62" s="43"/>
       <c r="C62" t="s">
         <v>145</v>
       </c>
       <c r="E62" s="10"/>
     </row>
     <row r="63" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="44"/>
+      <c r="A63" s="43"/>
       <c r="C63" t="s">
         <v>112</v>
       </c>
       <c r="E63" s="10"/>
     </row>
     <row r="64" spans="1:8" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="91" t="s">
+      <c r="A64" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="38"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="37"/>
     </row>
-    <row r="65" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:17" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G77" s="30" t="s">
+      <c r="M77" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="32"/>
-      <c r="M77" s="34" t="s">
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="32"/>
+      <c r="S77" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="36"/>
+      <c r="T77" s="34"/>
+      <c r="U77" s="34"/>
+      <c r="V77" s="34"/>
+      <c r="W77" s="35"/>
     </row>
-    <row r="78" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="32"/>
+      <c r="G78" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G78" s="17" t="s">
+      <c r="M78" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="19"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="28"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="19"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="28"/>
     </row>
-    <row r="79" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>36</v>
+    <row r="79" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="G79" s="9"/>
-      <c r="K79" s="10"/>
+      <c r="E79" s="8"/>
+      <c r="G79" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
       <c r="M79" s="9"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="8"/>
+      <c r="Q79" s="10"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="8"/>
     </row>
-    <row r="80" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="19"/>
+      <c r="G80" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="G80" s="9" t="s">
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="M80" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K80" s="10"/>
-      <c r="M80" s="9" t="s">
+      <c r="Q80" s="10"/>
+      <c r="S80" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="8"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="8"/>
     </row>
-    <row r="81" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>42</v>
+    <row r="81" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="G81" s="9"/>
-      <c r="K81" s="10"/>
+      <c r="E81" s="8"/>
+      <c r="G81" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
       <c r="M81" s="9"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="8"/>
+      <c r="Q81" s="10"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="8"/>
     </row>
-    <row r="82" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G82" s="9" t="s">
+    <row r="82" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="13"/>
+      <c r="M82" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K82" s="10"/>
-      <c r="M82" s="9" t="s">
+      <c r="Q82" s="10"/>
+      <c r="S82" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="8"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="8"/>
     </row>
-    <row r="83" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G83" s="9"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="8"/>
+    <row r="83" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="8"/>
       <c r="M83" s="9"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="8"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="8"/>
     </row>
-    <row r="84" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G84" s="9" t="s">
+    <row r="84" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="8"/>
+      <c r="M84" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="8"/>
-      <c r="M84" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="8"/>
+      <c r="S84" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="8"/>
     </row>
-    <row r="85" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G85" s="9" t="s">
+    <row r="85" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="8"/>
+      <c r="M85" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="8"/>
-      <c r="M85" s="14" t="s">
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="8"/>
+      <c r="S85" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="16"/>
+      <c r="T85" s="15"/>
+      <c r="U85" s="15"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="16"/>
     </row>
-    <row r="86" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G86" s="9"/>
-      <c r="K86" s="10"/>
-      <c r="M86" s="27"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="28"/>
+    <row r="86" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="8"/>
+      <c r="M86" s="9"/>
+      <c r="Q86" s="10"/>
+      <c r="S86" s="27"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="28"/>
     </row>
-    <row r="87" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G87" s="9" t="s">
+    <row r="87" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="13"/>
+      <c r="M87" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="8"/>
-      <c r="M87" s="9"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="8"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="8"/>
     </row>
-    <row r="88" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G88" s="9" t="s">
+    <row r="88" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M88" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="8"/>
-      <c r="M88" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="8"/>
+      <c r="S88" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="8"/>
     </row>
-    <row r="89" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G89" s="9" t="s">
+    <row r="89" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M89" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="8"/>
-      <c r="M89" s="9"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="8"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="8"/>
     </row>
-    <row r="90" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G90" s="9" t="s">
+    <row r="90" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M90" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="8"/>
-      <c r="M90" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="8"/>
+      <c r="S90" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="8"/>
     </row>
-    <row r="91" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G91" s="9" t="s">
+    <row r="91" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M91" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="8"/>
-      <c r="M91" s="9"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="8"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="8"/>
     </row>
-    <row r="92" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G92" s="9" t="s">
+    <row r="92" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M92" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K92" s="10"/>
-      <c r="M92" s="9" t="s">
+      <c r="Q92" s="10"/>
+      <c r="S92" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="8"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="8"/>
     </row>
-    <row r="93" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G93" s="9" t="s">
+    <row r="93" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M93" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K93" s="10"/>
-      <c r="M93" s="14" t="s">
+      <c r="Q93" s="10"/>
+      <c r="S93" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N93" s="15"/>
-      <c r="O93" s="15"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="16"/>
+      <c r="T93" s="15"/>
+      <c r="U93" s="15"/>
+      <c r="V93" s="15"/>
+      <c r="W93" s="16"/>
     </row>
-    <row r="94" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G94" s="29" t="s">
+    <row r="94" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M94" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="13"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="23"/>
-      <c r="O94" s="23"/>
-      <c r="P94" s="23"/>
-      <c r="Q94" s="24"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="13"/>
+      <c r="S94" s="17"/>
+      <c r="T94" s="23"/>
+      <c r="U94" s="23"/>
+      <c r="V94" s="23"/>
+      <c r="W94" s="24"/>
     </row>
-    <row r="95" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="8"/>
+    <row r="95" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="8"/>
     </row>
-    <row r="96" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G96" s="1"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="8"/>
+    <row r="96" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M96" s="1"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="8"/>
     </row>
-    <row r="97" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G97" s="1"/>
-      <c r="M97" s="9" t="s">
+    <row r="97" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M97" s="1"/>
+      <c r="S97" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="8"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="8"/>
     </row>
-    <row r="98" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G98" s="5"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="M98" s="9"/>
+    <row r="98" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M98" s="5"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
-      <c r="Q98" s="8"/>
+      <c r="Q98" s="1"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="8"/>
     </row>
-    <row r="99" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M99" s="9"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="8"/>
+    <row r="99" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S99" s="9"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="8"/>
     </row>
-    <row r="100" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M100" s="83" t="s">
+    <row r="100" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S100" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="N100" s="25"/>
-      <c r="O100" s="25"/>
-      <c r="P100" s="25"/>
-      <c r="Q100" s="26"/>
+      <c r="T100" s="25"/>
+      <c r="U100" s="25"/>
+      <c r="V100" s="25"/>
+      <c r="W100" s="26"/>
     </row>
-    <row r="101" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
     </row>
-    <row r="104" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="32"/>
-    </row>
-    <row r="105" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="8"/>
-    </row>
-    <row r="106" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="19"/>
-    </row>
-    <row r="107" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="8"/>
-    </row>
-    <row r="108" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="13"/>
-    </row>
-    <row r="109" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="8"/>
-    </row>
-    <row r="110" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="8"/>
-    </row>
-    <row r="111" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="8"/>
-    </row>
-    <row r="112" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="8"/>
-    </row>
-    <row r="113" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="13"/>
-    </row>
+    <row r="104" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="114" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="115" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -14328,20 +14313,20 @@
     </row>
     <row r="117" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="118" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="87" t="s">
+      <c r="A118" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="B118" s="88"/>
-      <c r="C118" s="88"/>
-      <c r="D118" s="88"/>
-      <c r="E118" s="89"/>
+      <c r="B118" s="87"/>
+      <c r="C118" s="87"/>
+      <c r="D118" s="87"/>
+      <c r="E118" s="88"/>
       <c r="G118" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="H118" s="88"/>
-      <c r="I118" s="88"/>
-      <c r="J118" s="88"/>
-      <c r="K118" s="89"/>
+      <c r="H118" s="87"/>
+      <c r="I118" s="87"/>
+      <c r="J118" s="87"/>
+      <c r="K118" s="88"/>
     </row>
     <row r="119" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E119" s="10"/>
@@ -14353,25 +14338,25 @@
     </row>
     <row r="120" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E120" s="10"/>
-      <c r="G120" s="44"/>
+      <c r="G120" s="43"/>
       <c r="K120" s="10"/>
     </row>
     <row r="121" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E121" s="10"/>
-      <c r="G121" s="44"/>
+      <c r="G121" s="43"/>
       <c r="K121" s="10"/>
     </row>
     <row r="122" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="92" t="s">
+      <c r="A122" s="91" t="s">
         <v>125</v>
       </c>
       <c r="E122" s="10"/>
-      <c r="G122" s="44"/>
+      <c r="G122" s="43"/>
       <c r="K122" s="10"/>
     </row>
     <row r="123" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E123" s="10"/>
-      <c r="G123" s="44"/>
+      <c r="G123" s="43"/>
       <c r="K123" s="10"/>
     </row>
     <row r="124" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -14380,7 +14365,7 @@
       <c r="K124" s="10"/>
     </row>
     <row r="125" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="44" t="s">
+      <c r="A125" s="43" t="s">
         <v>102</v>
       </c>
       <c r="E125" s="10"/>
@@ -14388,10 +14373,10 @@
       <c r="K125" s="10"/>
     </row>
     <row r="126" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="44" t="s">
+      <c r="A126" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E126" s="38"/>
+      <c r="E126" s="37"/>
       <c r="G126" s="9"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -14399,11 +14384,11 @@
       <c r="K126" s="8"/>
     </row>
     <row r="127" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="88"/>
-      <c r="B127" s="88"/>
-      <c r="C127" s="88"/>
-      <c r="D127" s="88"/>
-      <c r="E127" s="88"/>
+      <c r="A127" s="87"/>
+      <c r="B127" s="87"/>
+      <c r="C127" s="87"/>
+      <c r="D127" s="87"/>
+      <c r="E127" s="87"/>
       <c r="G127" s="9"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -14428,13 +14413,13 @@
       <c r="K129" s="8"/>
     </row>
     <row r="130" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="87"/>
-      <c r="B130" s="88" t="s">
+      <c r="A130" s="86"/>
+      <c r="B130" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="C130" s="88"/>
-      <c r="D130" s="88"/>
-      <c r="E130" s="89"/>
+      <c r="C130" s="87"/>
+      <c r="D130" s="87"/>
+      <c r="E130" s="88"/>
       <c r="G130" s="7"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -14442,7 +14427,7 @@
       <c r="K130" s="8"/>
     </row>
     <row r="131" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="44"/>
+      <c r="A131" s="43"/>
       <c r="E131" s="10"/>
       <c r="G131" s="9"/>
       <c r="H131" s="1"/>
@@ -14451,168 +14436,168 @@
       <c r="K131" s="8"/>
     </row>
     <row r="132" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="44" t="s">
+      <c r="A132" s="43" t="s">
         <v>99</v>
       </c>
       <c r="E132" s="10"/>
-      <c r="G132" s="44"/>
+      <c r="G132" s="43"/>
       <c r="K132" s="10"/>
     </row>
     <row r="133" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="44"/>
+      <c r="A133" s="43"/>
       <c r="E133" s="10"/>
-      <c r="G133" s="44"/>
+      <c r="G133" s="43"/>
       <c r="K133" s="10"/>
     </row>
     <row r="134" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="44"/>
+      <c r="A134" s="43"/>
       <c r="E134" s="10"/>
-      <c r="G134" s="44"/>
+      <c r="G134" s="43"/>
       <c r="K134" s="10"/>
     </row>
     <row r="135" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="44"/>
+      <c r="A135" s="43"/>
       <c r="E135" s="10"/>
-      <c r="G135" s="44"/>
+      <c r="G135" s="43"/>
       <c r="H135" t="s">
         <v>146</v>
       </c>
       <c r="K135" s="10"/>
     </row>
     <row r="136" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="44"/>
+      <c r="A136" s="43"/>
       <c r="E136" s="10"/>
-      <c r="G136" s="93" t="s">
+      <c r="G136" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="H136" s="37"/>
-      <c r="I136" s="37"/>
-      <c r="J136" s="37"/>
-      <c r="K136" s="38"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="36"/>
+      <c r="J136" s="36"/>
+      <c r="K136" s="37"/>
     </row>
     <row r="137" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="44" t="s">
+      <c r="A137" s="43" t="s">
         <v>127</v>
       </c>
       <c r="E137" s="10"/>
     </row>
     <row r="138" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="44" t="s">
+      <c r="A138" s="43" t="s">
         <v>128</v>
       </c>
       <c r="E138" s="10"/>
-      <c r="G138" s="87" t="s">
+      <c r="G138" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="H138" s="88"/>
-      <c r="I138" s="88"/>
-      <c r="J138" s="88"/>
-      <c r="K138" s="89"/>
+      <c r="H138" s="87"/>
+      <c r="I138" s="87"/>
+      <c r="J138" s="87"/>
+      <c r="K138" s="88"/>
       <c r="M138" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="N138" s="88"/>
-      <c r="O138" s="88"/>
-      <c r="P138" s="88"/>
-      <c r="Q138" s="89"/>
+      <c r="N138" s="87"/>
+      <c r="O138" s="87"/>
+      <c r="P138" s="87"/>
+      <c r="Q138" s="88"/>
     </row>
     <row r="139" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="44"/>
+      <c r="A139" s="43"/>
       <c r="E139" s="10"/>
-      <c r="M139" s="44"/>
+      <c r="M139" s="43"/>
       <c r="Q139" s="10"/>
     </row>
     <row r="140" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="44"/>
+      <c r="A140" s="43"/>
       <c r="B140" t="s">
         <v>100</v>
       </c>
       <c r="E140" s="10"/>
-      <c r="G140" s="44"/>
+      <c r="G140" s="43"/>
       <c r="K140" s="10"/>
-      <c r="M140" s="44" t="s">
+      <c r="M140" s="43" t="s">
         <v>132</v>
       </c>
       <c r="Q140" s="10"/>
     </row>
     <row r="141" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="44" t="s">
+      <c r="A141" s="43" t="s">
         <v>101</v>
       </c>
       <c r="E141" s="10"/>
-      <c r="G141" s="44" t="s">
+      <c r="G141" s="43" t="s">
         <v>104</v>
       </c>
       <c r="K141" s="10"/>
-      <c r="M141" s="44"/>
+      <c r="M141" s="43"/>
       <c r="Q141" s="10"/>
     </row>
     <row r="142" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="91" t="s">
+      <c r="A142" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="B142" s="37"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="38"/>
-      <c r="G142" s="90" t="s">
+      <c r="B142" s="36"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="36"/>
+      <c r="E142" s="37"/>
+      <c r="G142" s="89" t="s">
         <v>110</v>
       </c>
       <c r="K142" s="10"/>
-      <c r="M142" s="44"/>
+      <c r="M142" s="43"/>
       <c r="Q142" s="10"/>
     </row>
     <row r="143" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G143" s="44" t="s">
+      <c r="G143" s="43" t="s">
         <v>105</v>
       </c>
       <c r="K143" s="10"/>
-      <c r="M143" s="44"/>
+      <c r="M143" s="43"/>
       <c r="Q143" s="10"/>
     </row>
     <row r="144" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G144" s="44" t="s">
+      <c r="G144" s="43" t="s">
         <v>106</v>
       </c>
       <c r="K144" s="10"/>
-      <c r="M144" s="44"/>
+      <c r="M144" s="43"/>
       <c r="Q144" s="10"/>
     </row>
     <row r="145" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G145" s="44" t="s">
+      <c r="G145" s="43" t="s">
         <v>107</v>
       </c>
       <c r="K145" s="10"/>
-      <c r="M145" s="44"/>
+      <c r="M145" s="43"/>
       <c r="Q145" s="10"/>
     </row>
     <row r="146" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G146" s="44" t="s">
+      <c r="G146" s="43" t="s">
         <v>108</v>
       </c>
       <c r="K146" s="10"/>
-      <c r="M146" s="44" t="s">
+      <c r="M146" s="43" t="s">
         <v>133</v>
       </c>
       <c r="Q146" s="10"/>
     </row>
     <row r="147" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G147" s="44" t="s">
+      <c r="G147" s="43" t="s">
         <v>109</v>
       </c>
       <c r="K147" s="10"/>
-      <c r="M147" s="44"/>
+      <c r="M147" s="43"/>
       <c r="Q147" s="10"/>
     </row>
     <row r="148" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K148" s="10"/>
-      <c r="M148" s="91" t="s">
+      <c r="M148" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="N148" s="37"/>
-      <c r="O148" s="37"/>
-      <c r="P148" s="37"/>
-      <c r="Q148" s="38"/>
+      <c r="N148" s="36"/>
+      <c r="O148" s="36"/>
+      <c r="P148" s="36"/>
+      <c r="Q148" s="37"/>
     </row>
     <row r="149" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="150" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD1262-E7F9-4D41-BE9F-09EDCBA9C9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B46E79-97C3-4A5A-B167-AF4009394C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -12864,8 +12864,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B46E79-97C3-4A5A-B167-AF4009394C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A251E4-4076-4554-9AFC-91A4F2C405BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="151">
   <si>
     <t>의약품관리종합정보포탈 (https://biz.kpis.or.kr) &gt; sims</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1122,6 +1122,10 @@
       </rPr>
       <t>신고 전일 Set</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로와콜 연질 캡슐은 거의 검수하고 내보내도 괜찮아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12864,8 +12868,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13611,7 +13615,7 @@
     </row>
     <row r="30" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="G30" s="43"/>
       <c r="H30" s="2"/>
@@ -13622,9 +13626,6 @@
       <c r="K30" s="48"/>
     </row>
     <row r="31" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="G31" s="43"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
@@ -13643,6 +13644,9 @@
       <c r="K32" s="48"/>
     </row>
     <row r="33" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
       <c r="G33" s="47"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
@@ -13652,6 +13656,9 @@
       <c r="K33" s="48"/>
     </row>
     <row r="34" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="G34" s="47"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A251E4-4076-4554-9AFC-91A4F2C405BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146B62AD-89A6-4A86-9FCB-8289C18A1AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="174">
   <si>
     <t>의약품관리종합정보포탈 (https://biz.kpis.or.kr) &gt; sims</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1126,6 +1126,97 @@
   </si>
   <si>
     <t>로와콜 연질 캡슐은 거의 검수하고 내보내도 괜찮아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스케이팜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위드벤처_엘_참조은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국메디홀스_미엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국메디홀스_하얀-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국메디홀스_하얀-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조은_약제_조영제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘병원_구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조은_비급여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘병원_약제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미엘약국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀약국-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀약국-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴온스리도카인염산염수화물주 1% 20ml 수익율 0퍼</t>
+  </si>
+  <si>
+    <t>※ 차량운행일지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음에 붙여 넣기 하면 이런식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">으로 보여 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 가장 위에 셀을 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡고 밑으로 쭉 당겨줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 밑에 저런 아이콘이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생겨 아이콘 누르고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서식만 채우기 선택!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1558,7 +1649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1841,6 +1932,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6124,7 +6218,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -6169,7 +6263,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -6214,7 +6308,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -6259,7 +6353,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1638300" cy="251460"/>
@@ -6304,7 +6398,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2004060" cy="209484"/>
@@ -6349,7 +6443,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>30479</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2049781" cy="228600"/>
@@ -6394,13 +6488,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6458,13 +6552,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6522,7 +6616,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="586740" cy="382189"/>
@@ -6567,7 +6661,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="655320" cy="191556"/>
@@ -6612,7 +6706,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914479" cy="289585"/>
@@ -6657,7 +6751,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>640079</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="708661" cy="225104"/>
@@ -6702,7 +6796,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1447800" cy="230542"/>
@@ -6747,7 +6841,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>632461</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="616528" cy="228600"/>
@@ -6792,7 +6886,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1493520" cy="259080"/>
@@ -6837,7 +6931,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="835193" cy="259080"/>
@@ -6882,7 +6976,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>83821</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="815339" cy="253737"/>
@@ -6927,7 +7021,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="797418" cy="243839"/>
@@ -6972,13 +7066,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7035,7 +7129,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914479" cy="289585"/>
@@ -7080,7 +7174,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>640079</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="708661" cy="225104"/>
@@ -7125,7 +7219,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1447800" cy="230542"/>
@@ -7170,7 +7264,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>632461</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="616528" cy="228600"/>
@@ -7215,7 +7309,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1493520" cy="259080"/>
@@ -7260,7 +7354,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="835193" cy="259080"/>
@@ -7305,7 +7399,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>83821</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="815339" cy="253737"/>
@@ -7350,7 +7444,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="797418" cy="243839"/>
@@ -7395,13 +7489,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7458,7 +7552,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>51906</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1021080" cy="222414"/>
@@ -7503,7 +7597,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1473800" cy="182880"/>
@@ -7548,7 +7642,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="655320" cy="258680"/>
@@ -7593,7 +7687,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>487679</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2621928" cy="556260"/>
@@ -7638,13 +7732,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7766,7 +7860,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -7811,7 +7905,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2103120" cy="236220"/>
@@ -7856,13 +7950,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>236219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7920,7 +8014,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>144781</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2644139" cy="267761"/>
@@ -7965,13 +8059,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>251459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8029,13 +8123,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8093,7 +8187,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="259102" cy="259102"/>
@@ -8138,7 +8232,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>129541</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2042159" cy="283004"/>
@@ -8498,13 +8592,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8561,13 +8655,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8625,13 +8719,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8688,13 +8782,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8752,7 +8846,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -8797,7 +8891,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -8842,7 +8936,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -8887,13 +8981,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8958,13 +9052,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>243839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9018,7 +9112,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182879</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>33802</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167641" cy="240716"/>
@@ -9063,13 +9157,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>53341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9127,7 +9221,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9172,13 +9266,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9236,7 +9330,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -9281,7 +9375,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -9326,7 +9420,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -9371,7 +9465,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -9416,7 +9510,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>59054</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="154306" cy="221567"/>
@@ -9461,7 +9555,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314597" cy="259080"/>
@@ -9506,13 +9600,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>283845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9556,13 +9650,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>72390</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>210813</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9606,7 +9700,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>205739</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>41422</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="167641" cy="240716"/>
@@ -9651,13 +9745,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9726,13 +9820,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11232,13 +11326,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>438013</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>276196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11276,13 +11370,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>571349</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>276198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11320,13 +11414,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>514306</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>171402</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11364,14 +11458,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295142</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>38052</xdr:rowOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>38053</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11408,13 +11502,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>95156</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>38053</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11628,13 +11722,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>466505</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>152311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11672,13 +11766,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>380787</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>285719</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11716,14 +11810,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333026</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>304723</xdr:rowOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>304722</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11760,13 +11854,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9188</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>257149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11804,13 +11898,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>552311</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11847,13 +11941,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>70757</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>97973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>660085</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11891,7 +11985,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160034" cy="129551"/>
@@ -11936,7 +12030,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111759" cy="128952"/>
@@ -11981,13 +12075,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>675940</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>276196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12025,14 +12119,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>466593</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>276038</xdr:rowOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>276039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12069,13 +12163,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>552132</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>276195</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12119,8 +12213,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>313377</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1649</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12377,13 +12471,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485638</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>276196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12421,13 +12515,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>552299</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>266673</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12465,13 +12559,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>292174</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12509,13 +12603,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>266824</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>295312</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12541,6 +12635,191 @@
         <a:xfrm>
           <a:off x="3629025" y="43529250"/>
           <a:ext cx="885949" cy="266737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609770</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>85904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="그림 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E0EE39-5E65-47EF-CF3D-210DEEC5AE11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="21240750"/>
+          <a:ext cx="1219370" cy="1286054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609769</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="그림 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE66E27D-C868-ED51-FFB4-698D2F8E2435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="22831425"/>
+          <a:ext cx="1209844" cy="1295581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="176" name="그래픽 175" descr="추가">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E32D08-ABFB-748A-FBAC-D2C06F60732A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId92"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="23498175"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>276432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="177" name="그림 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE88FDDF-2776-0320-EA14-8292EF5884AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="24374475"/>
+          <a:ext cx="1209675" cy="1486107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12868,8 +13147,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13626,6 +13905,9 @@
       <c r="K30" s="48"/>
     </row>
     <row r="31" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
       <c r="G31" s="43"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
@@ -13879,259 +14161,203 @@
       <c r="D64" s="36"/>
       <c r="E64" s="37"/>
     </row>
-    <row r="65" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:23" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="D76" s="1"/>
+    <row r="65" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:5" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="77" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M77" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
-      <c r="P77" s="31"/>
-      <c r="Q77" s="32"/>
-      <c r="S77" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="T77" s="34"/>
-      <c r="U77" s="34"/>
-      <c r="V77" s="34"/>
-      <c r="W77" s="35"/>
+    <row r="68" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="86"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="87"/>
+      <c r="E68" s="88"/>
     </row>
-    <row r="78" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="32"/>
-      <c r="G78" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M78" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="19"/>
-      <c r="S78" s="27"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="28"/>
+    <row r="69" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="43"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="94"/>
+      <c r="E69" s="10"/>
     </row>
-    <row r="79" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="8"/>
-      <c r="G79" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="M79" s="9"/>
-      <c r="Q79" s="10"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="8"/>
+    <row r="70" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="43"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="10"/>
     </row>
-    <row r="80" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="19"/>
-      <c r="G80" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="M80" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q80" s="10"/>
-      <c r="S80" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="8"/>
+    <row r="71" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="43"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="43"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="43"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="94"/>
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="43"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" s="94"/>
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="43"/>
+      <c r="B75" s="94"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="94"/>
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="43"/>
+      <c r="B76" s="94"/>
+      <c r="C76" s="94"/>
+      <c r="D76" s="94"/>
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="43"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="43"/>
+      <c r="B78" s="94"/>
+      <c r="C78" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" s="94"/>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="43"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" s="94"/>
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="43"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="94" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" s="94"/>
+      <c r="E80" s="10"/>
     </row>
     <row r="81" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="8"/>
-      <c r="G81" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="M81" s="9"/>
-      <c r="Q81" s="10"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="8"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="10"/>
     </row>
     <row r="82" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="13"/>
-      <c r="M82" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q82" s="10"/>
-      <c r="S82" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="8"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="37"/>
     </row>
-    <row r="83" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="8"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="8"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
-      <c r="W83" s="8"/>
-    </row>
-    <row r="84" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
-        <v>62</v>
+    <row r="83" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="8"/>
-      <c r="M84" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="8"/>
-      <c r="S84" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
-      <c r="V84" s="1"/>
-      <c r="W84" s="8"/>
     </row>
     <row r="85" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="8"/>
-      <c r="M85" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="8"/>
-      <c r="S85" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="T85" s="15"/>
-      <c r="U85" s="15"/>
-      <c r="V85" s="15"/>
-      <c r="W85" s="16"/>
+      <c r="A85" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M85" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N85" s="31"/>
+      <c r="O85" s="31"/>
+      <c r="P85" s="31"/>
+      <c r="Q85" s="32"/>
+      <c r="S85" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="T85" s="34"/>
+      <c r="U85" s="34"/>
+      <c r="V85" s="34"/>
+      <c r="W85" s="35"/>
     </row>
     <row r="86" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="8"/>
-      <c r="M86" s="9"/>
-      <c r="Q86" s="10"/>
+      <c r="A86" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="32"/>
+      <c r="G86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M86" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="19"/>
       <c r="S86" s="27"/>
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="28"/>
     </row>
-    <row r="87" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="13"/>
-      <c r="M87" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="8"/>
+    <row r="87" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="8"/>
+      <c r="G87" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="M87" s="9"/>
+      <c r="Q87" s="10"/>
       <c r="S87" s="9"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
@@ -14139,15 +14365,26 @@
       <c r="W87" s="8"/>
     </row>
     <row r="88" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="19"/>
+      <c r="G88" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
       <c r="M88" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="Q88" s="10"/>
       <c r="S88" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
@@ -14155,27 +14392,40 @@
       <c r="W88" s="8"/>
     </row>
     <row r="89" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M89" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="8"/>
+      <c r="A89" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="8"/>
+      <c r="G89" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="M89" s="9"/>
+      <c r="Q89" s="10"/>
       <c r="S89" s="9"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
       <c r="W89" s="8"/>
     </row>
-    <row r="90" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="13"/>
       <c r="M90" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="Q90" s="10"/>
       <c r="S90" s="9" t="s">
         <v>26</v>
       </c>
@@ -14185,9 +14435,14 @@
       <c r="W90" s="8"/>
     </row>
     <row r="91" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M91" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="A91" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="8"/>
+      <c r="M91" s="9"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -14199,10 +14454,20 @@
       <c r="W91" s="8"/>
     </row>
     <row r="92" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="8"/>
       <c r="M92" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q92" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="8"/>
       <c r="S92" s="9" t="s">
         <v>27</v>
       </c>
@@ -14211,11 +14476,21 @@
       <c r="V92" s="1"/>
       <c r="W92" s="8"/>
     </row>
-    <row r="93" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="8"/>
       <c r="M93" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q93" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="8"/>
       <c r="S93" s="14" t="s">
         <v>39</v>
       </c>
@@ -14224,26 +14499,37 @@
       <c r="V93" s="15"/>
       <c r="W93" s="16"/>
     </row>
-    <row r="94" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M94" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="13"/>
-      <c r="S94" s="17"/>
-      <c r="T94" s="23"/>
-      <c r="U94" s="23"/>
-      <c r="V94" s="23"/>
-      <c r="W94" s="24"/>
+    <row r="94" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="8"/>
+      <c r="M94" s="9"/>
+      <c r="Q94" s="10"/>
+      <c r="S94" s="27"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="28"/>
     </row>
-    <row r="95" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
+    <row r="95" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="13"/>
+      <c r="M95" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="8"/>
       <c r="S95" s="9"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
@@ -14251,151 +14537,331 @@
       <c r="W95" s="8"/>
     </row>
     <row r="96" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M96" s="1"/>
-      <c r="S96" s="9"/>
+      <c r="M96" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="8"/>
+      <c r="S96" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
       <c r="W96" s="8"/>
     </row>
     <row r="97" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M97" s="1"/>
-      <c r="S97" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="A97" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B97" t="s">
+        <v>152</v>
+      </c>
+      <c r="M97" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="8"/>
+      <c r="S97" s="9"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
       <c r="W97" s="8"/>
     </row>
     <row r="98" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M98" s="5"/>
+      <c r="B98" t="s">
+        <v>153</v>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="S98" s="9"/>
+      <c r="Q98" s="8"/>
+      <c r="S98" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
       <c r="W98" s="8"/>
     </row>
     <row r="99" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>154</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="8"/>
       <c r="S99" s="9"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
       <c r="W99" s="8"/>
     </row>
-    <row r="100" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S100" s="82" t="s">
+    <row r="100" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>155</v>
+      </c>
+      <c r="M100" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q100" s="10"/>
+      <c r="S100" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="8"/>
+    </row>
+    <row r="101" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>156</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q101" s="10"/>
+      <c r="S101" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="T101" s="15"/>
+      <c r="U101" s="15"/>
+      <c r="V101" s="15"/>
+      <c r="W101" s="16"/>
+    </row>
+    <row r="102" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>157</v>
+      </c>
+      <c r="B102" t="s">
+        <v>158</v>
+      </c>
+      <c r="M102" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="13"/>
+      <c r="S102" s="17"/>
+      <c r="T102" s="23"/>
+      <c r="U102" s="23"/>
+      <c r="V102" s="23"/>
+      <c r="W102" s="24"/>
+    </row>
+    <row r="103" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>159</v>
+      </c>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="8"/>
+    </row>
+    <row r="104" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>160</v>
+      </c>
+      <c r="M104" s="1"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="8"/>
+    </row>
+    <row r="105" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>161</v>
+      </c>
+      <c r="M105" s="1"/>
+      <c r="S105" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="8"/>
+    </row>
+    <row r="106" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>162</v>
+      </c>
+      <c r="M106" s="5"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="8"/>
+    </row>
+    <row r="107" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>163</v>
+      </c>
+      <c r="S107" s="9"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="8"/>
+    </row>
+    <row r="108" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>164</v>
+      </c>
+      <c r="S108" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="T100" s="25"/>
-      <c r="U100" s="25"/>
-      <c r="V100" s="25"/>
-      <c r="W100" s="26"/>
+      <c r="T108" s="25"/>
+      <c r="U108" s="25"/>
+      <c r="V108" s="25"/>
+      <c r="W108" s="26"/>
     </row>
-    <row r="101" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="6"/>
-    </row>
-    <row r="104" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="87"/>
+      <c r="C114" s="87"/>
+      <c r="D114" s="87"/>
+      <c r="E114" s="88"/>
+      <c r="G114" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H114" s="87"/>
+      <c r="I114" s="87"/>
+      <c r="J114" s="87"/>
+      <c r="K114" s="88"/>
+    </row>
+    <row r="115" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E115" s="10"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="8"/>
+    </row>
     <row r="116" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="E116" s="10"/>
+      <c r="G116" s="43"/>
+      <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="117" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E117" s="10"/>
+      <c r="G117" s="43"/>
+      <c r="K117" s="10"/>
+    </row>
     <row r="118" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="B118" s="87"/>
-      <c r="C118" s="87"/>
-      <c r="D118" s="87"/>
-      <c r="E118" s="88"/>
-      <c r="G118" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H118" s="87"/>
-      <c r="I118" s="87"/>
-      <c r="J118" s="87"/>
-      <c r="K118" s="88"/>
+      <c r="A118" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="G118" s="43"/>
+      <c r="K118" s="10"/>
     </row>
     <row r="119" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E119" s="10"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="8"/>
+      <c r="G119" s="43"/>
+      <c r="K119" s="10"/>
     </row>
     <row r="120" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E120" s="10"/>
-      <c r="G120" s="43"/>
+      <c r="G120" s="9"/>
       <c r="K120" s="10"/>
     </row>
     <row r="121" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="43" t="s">
+        <v>102</v>
+      </c>
       <c r="E121" s="10"/>
-      <c r="G121" s="43"/>
+      <c r="G121" s="9"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="E122" s="10"/>
-      <c r="G122" s="43"/>
-      <c r="K122" s="10"/>
+    <row r="122" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E122" s="37"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="8"/>
     </row>
     <row r="123" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="10"/>
-      <c r="G123" s="43"/>
-      <c r="K123" s="10"/>
+      <c r="A123" s="87"/>
+      <c r="B123" s="87"/>
+      <c r="C123" s="87"/>
+      <c r="D123" s="87"/>
+      <c r="E123" s="87"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="8"/>
     </row>
     <row r="124" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E124" s="10"/>
       <c r="G124" s="9"/>
-      <c r="K124" s="10"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="8"/>
     </row>
-    <row r="125" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E125" s="10"/>
+    <row r="125" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
       <c r="G125" s="9"/>
-      <c r="K125" s="10"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="8"/>
     </row>
-    <row r="126" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="E126" s="37"/>
-      <c r="G126" s="9"/>
+    <row r="126" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="86"/>
+      <c r="B126" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C126" s="87"/>
+      <c r="D126" s="87"/>
+      <c r="E126" s="88"/>
+      <c r="G126" s="7"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="8"/>
     </row>
     <row r="127" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="87"/>
-      <c r="B127" s="87"/>
-      <c r="C127" s="87"/>
-      <c r="D127" s="87"/>
-      <c r="E127" s="87"/>
+      <c r="A127" s="43"/>
+      <c r="E127" s="10"/>
       <c r="G127" s="9"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -14403,261 +14869,225 @@
       <c r="K127" s="8"/>
     </row>
     <row r="128" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G128" s="9"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="8"/>
+      <c r="A128" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="G128" s="43"/>
+      <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="G129" s="9"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="8"/>
+    <row r="129" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="43"/>
+      <c r="E129" s="10"/>
+      <c r="G129" s="43"/>
+      <c r="K129" s="10"/>
     </row>
     <row r="130" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="86"/>
-      <c r="B130" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="C130" s="87"/>
-      <c r="D130" s="87"/>
-      <c r="E130" s="88"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="8"/>
+      <c r="A130" s="43"/>
+      <c r="E130" s="10"/>
+      <c r="G130" s="43"/>
+      <c r="K130" s="10"/>
     </row>
     <row r="131" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="43"/>
       <c r="E131" s="10"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="8"/>
+      <c r="G131" s="43"/>
+      <c r="H131" t="s">
+        <v>146</v>
+      </c>
+      <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="43" t="s">
-        <v>99</v>
-      </c>
+    <row r="132" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="43"/>
       <c r="E132" s="10"/>
-      <c r="G132" s="43"/>
-      <c r="K132" s="10"/>
+      <c r="G132" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="H132" s="36"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="36"/>
+      <c r="K132" s="37"/>
     </row>
-    <row r="133" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="43"/>
+    <row r="133" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="E133" s="10"/>
-      <c r="G133" s="43"/>
-      <c r="K133" s="10"/>
     </row>
     <row r="134" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="43"/>
+      <c r="A134" s="43" t="s">
+        <v>128</v>
+      </c>
       <c r="E134" s="10"/>
-      <c r="G134" s="43"/>
-      <c r="K134" s="10"/>
+      <c r="G134" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="H134" s="87"/>
+      <c r="I134" s="87"/>
+      <c r="J134" s="87"/>
+      <c r="K134" s="88"/>
+      <c r="M134" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="N134" s="87"/>
+      <c r="O134" s="87"/>
+      <c r="P134" s="87"/>
+      <c r="Q134" s="88"/>
     </row>
     <row r="135" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="43"/>
       <c r="E135" s="10"/>
-      <c r="G135" s="43"/>
-      <c r="H135" t="s">
-        <v>146</v>
-      </c>
-      <c r="K135" s="10"/>
+      <c r="M135" s="43"/>
+      <c r="Q135" s="10"/>
     </row>
-    <row r="136" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="43"/>
+      <c r="B136" t="s">
+        <v>100</v>
+      </c>
       <c r="E136" s="10"/>
-      <c r="G136" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
-      <c r="J136" s="36"/>
-      <c r="K136" s="37"/>
+      <c r="G136" s="43"/>
+      <c r="K136" s="10"/>
+      <c r="M136" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q136" s="10"/>
     </row>
-    <row r="137" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="43" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="E137" s="10"/>
+      <c r="G137" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="K137" s="10"/>
+      <c r="M137" s="43"/>
+      <c r="Q137" s="10"/>
     </row>
-    <row r="138" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E138" s="10"/>
-      <c r="G138" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="H138" s="87"/>
-      <c r="I138" s="87"/>
-      <c r="J138" s="87"/>
-      <c r="K138" s="88"/>
-      <c r="M138" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="N138" s="87"/>
-      <c r="O138" s="87"/>
-      <c r="P138" s="87"/>
-      <c r="Q138" s="88"/>
+    <row r="138" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="B138" s="36"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="37"/>
+      <c r="G138" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="K138" s="10"/>
+      <c r="M138" s="43"/>
+      <c r="Q138" s="10"/>
     </row>
     <row r="139" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="43"/>
-      <c r="E139" s="10"/>
+      <c r="G139" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="K139" s="10"/>
       <c r="M139" s="43"/>
       <c r="Q139" s="10"/>
     </row>
     <row r="140" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="43"/>
-      <c r="B140" t="s">
-        <v>100</v>
-      </c>
-      <c r="E140" s="10"/>
-      <c r="G140" s="43"/>
+      <c r="G140" s="43" t="s">
+        <v>106</v>
+      </c>
       <c r="K140" s="10"/>
-      <c r="M140" s="43" t="s">
-        <v>132</v>
-      </c>
+      <c r="M140" s="43"/>
       <c r="Q140" s="10"/>
     </row>
     <row r="141" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E141" s="10"/>
       <c r="G141" s="43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K141" s="10"/>
       <c r="M141" s="43"/>
       <c r="Q141" s="10"/>
     </row>
-    <row r="142" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="B142" s="36"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="36"/>
-      <c r="E142" s="37"/>
-      <c r="G142" s="89" t="s">
-        <v>110</v>
+    <row r="142" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G142" s="43" t="s">
+        <v>108</v>
       </c>
       <c r="K142" s="10"/>
-      <c r="M142" s="43"/>
+      <c r="M142" s="43" t="s">
+        <v>133</v>
+      </c>
       <c r="Q142" s="10"/>
     </row>
     <row r="143" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G143" s="43" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K143" s="10"/>
       <c r="M143" s="43"/>
       <c r="Q143" s="10"/>
     </row>
-    <row r="144" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G144" s="43" t="s">
-        <v>106</v>
-      </c>
+    <row r="144" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K144" s="10"/>
-      <c r="M144" s="43"/>
-      <c r="Q144" s="10"/>
+      <c r="M144" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="N144" s="36"/>
+      <c r="O144" s="36"/>
+      <c r="P144" s="36"/>
+      <c r="Q144" s="37"/>
     </row>
-    <row r="145" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G145" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="K145" s="10"/>
-      <c r="M145" s="43"/>
-      <c r="Q145" s="10"/>
+    <row r="145" spans="13:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="13:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M146" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N146" s="31"/>
+      <c r="O146" s="31"/>
+      <c r="P146" s="31"/>
+      <c r="Q146" s="32"/>
     </row>
-    <row r="146" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G146" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="K146" s="10"/>
-      <c r="M146" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q146" s="10"/>
+    <row r="147" spans="13:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M147" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N147" s="18"/>
+      <c r="O147" s="18"/>
+      <c r="P147" s="18"/>
+      <c r="Q147" s="19"/>
     </row>
-    <row r="147" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G147" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="K147" s="10"/>
-      <c r="M147" s="43"/>
-      <c r="Q147" s="10"/>
+    <row r="148" spans="13:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M148" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N148" s="18"/>
+      <c r="O148" s="18"/>
+      <c r="P148" s="18"/>
+      <c r="Q148" s="19"/>
     </row>
-    <row r="148" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K148" s="10"/>
-      <c r="M148" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="N148" s="36"/>
-      <c r="O148" s="36"/>
-      <c r="P148" s="36"/>
-      <c r="Q148" s="37"/>
+    <row r="149" spans="13:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M149" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N149" s="18"/>
+      <c r="O149" s="18"/>
+      <c r="P149" s="18"/>
+      <c r="Q149" s="19"/>
     </row>
-    <row r="149" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="150" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M150" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N150" s="31"/>
-      <c r="O150" s="31"/>
-      <c r="P150" s="31"/>
-      <c r="Q150" s="32"/>
+    <row r="150" spans="13:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M150" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N150" s="12"/>
+      <c r="O150" s="12"/>
+      <c r="P150" s="12"/>
+      <c r="Q150" s="13"/>
     </row>
-    <row r="151" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M151" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N151" s="18"/>
-      <c r="O151" s="18"/>
-      <c r="P151" s="18"/>
-      <c r="Q151" s="19"/>
-    </row>
-    <row r="152" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M152" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="N152" s="18"/>
-      <c r="O152" s="18"/>
-      <c r="P152" s="18"/>
-      <c r="Q152" s="19"/>
-    </row>
-    <row r="153" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M153" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="N153" s="18"/>
-      <c r="O153" s="18"/>
-      <c r="P153" s="18"/>
-      <c r="Q153" s="19"/>
-    </row>
-    <row r="154" spans="7:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M154" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N154" s="12"/>
-      <c r="O154" s="12"/>
-      <c r="P154" s="12"/>
-      <c r="Q154" s="13"/>
-    </row>
-    <row r="155" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="7:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="13:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="13:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="13:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="13:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="13:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="13:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="13:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="13:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="13:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="13:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="161" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="162" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="163" ht="25.35" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146B62AD-89A6-4A86-9FCB-8289C18A1AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A33760F-5C7A-40B5-B1C6-49D2B2A778AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -1649,7 +1649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1930,9 +1930,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13147,8 +13144,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W123" sqref="W123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14179,105 +14176,72 @@
     </row>
     <row r="69" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="43"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="94" t="s">
+      <c r="C69" t="s">
         <v>168</v>
       </c>
-      <c r="D69" s="94"/>
       <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="43"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
       <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="43"/>
-      <c r="B71" s="94"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
       <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="43"/>
-      <c r="B72" s="94"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
       <c r="E72" s="10"/>
     </row>
     <row r="73" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="43"/>
-      <c r="B73" s="94"/>
-      <c r="C73" s="94" t="s">
+      <c r="C73" t="s">
         <v>169</v>
       </c>
-      <c r="D73" s="94"/>
       <c r="E73" s="10"/>
     </row>
     <row r="74" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="43"/>
-      <c r="B74" s="94"/>
-      <c r="C74" s="94" t="s">
+      <c r="C74" t="s">
         <v>170</v>
       </c>
-      <c r="D74" s="94"/>
       <c r="E74" s="10"/>
     </row>
     <row r="75" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
-      <c r="B75" s="94"/>
-      <c r="C75" s="94"/>
-      <c r="D75" s="94"/>
       <c r="E75" s="10"/>
     </row>
     <row r="76" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="43"/>
-      <c r="B76" s="94"/>
-      <c r="C76" s="94"/>
-      <c r="D76" s="94"/>
       <c r="E76" s="10"/>
     </row>
     <row r="77" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="43"/>
-      <c r="B77" s="94"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="94"/>
       <c r="E77" s="10"/>
     </row>
     <row r="78" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="43"/>
-      <c r="B78" s="94"/>
-      <c r="C78" s="94" t="s">
+      <c r="C78" t="s">
         <v>171</v>
       </c>
-      <c r="D78" s="94"/>
       <c r="E78" s="10"/>
     </row>
     <row r="79" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="43"/>
-      <c r="B79" s="94"/>
-      <c r="C79" s="94" t="s">
+      <c r="C79" t="s">
         <v>172</v>
       </c>
-      <c r="D79" s="94"/>
       <c r="E79" s="10"/>
     </row>
     <row r="80" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="43"/>
-      <c r="B80" s="94"/>
-      <c r="C80" s="94" t="s">
+      <c r="C80" t="s">
         <v>173</v>
       </c>
-      <c r="D80" s="94"/>
       <c r="E80" s="10"/>
     </row>
     <row r="81" spans="1:23" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="43"/>
-      <c r="B81" s="94"/>
-      <c r="C81" s="94"/>
-      <c r="D81" s="94"/>
       <c r="E81" s="10"/>
     </row>
     <row r="82" spans="1:23" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A33760F-5C7A-40B5-B1C6-49D2B2A778AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF26B7A-5863-44AB-B8B4-42C54774F879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="175">
   <si>
     <t>의약품관리종합정보포탈 (https://biz.kpis.or.kr) &gt; sims</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1219,12 +1219,16 @@
     <t>서식만 채우기 선택!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>다른 이익률 0% 짜리들도 얼추 비슷해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1351,6 +1355,14 @@
     <font>
       <sz val="9"/>
       <color rgb="FF7030A0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1649,7 +1661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1930,6 +1942,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13144,8 +13159,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W123" sqref="W123"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13902,8 +13917,8 @@
       <c r="K30" s="48"/>
     </row>
     <row r="31" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>165</v>
+      <c r="A31" s="94" t="s">
+        <v>174</v>
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="2"/>
@@ -13914,6 +13929,9 @@
       <c r="K31" s="48"/>
     </row>
     <row r="32" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>165</v>
+      </c>
       <c r="G32" s="47"/>
       <c r="H32" s="60"/>
       <c r="I32" s="60" t="s">
@@ -13923,9 +13941,6 @@
       <c r="K32" s="48"/>
     </row>
     <row r="33" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>122</v>
-      </c>
       <c r="G33" s="47"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
@@ -13935,8 +13950,8 @@
       <c r="K33" s="48"/>
     </row>
     <row r="34" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>123</v>
+      <c r="A34" t="s">
+        <v>122</v>
       </c>
       <c r="G34" s="47"/>
       <c r="H34" s="2"/>
@@ -13947,6 +13962,9 @@
       <c r="K34" s="48"/>
     </row>
     <row r="35" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="G35" s="76"/>
       <c r="H35" s="49"/>
       <c r="I35" s="77" t="s">
@@ -14978,7 +14996,7 @@
       </c>
       <c r="Q142" s="10"/>
     </row>
-    <row r="143" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G143" s="43" t="s">
         <v>109</v>
       </c>
@@ -14987,7 +15005,11 @@
       <c r="Q143" s="10"/>
     </row>
     <row r="144" spans="1:17" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K144" s="10"/>
+      <c r="G144" s="87"/>
+      <c r="H144" s="87"/>
+      <c r="I144" s="87"/>
+      <c r="J144" s="87"/>
+      <c r="K144" s="87"/>
       <c r="M144" s="90" t="s">
         <v>134</v>
       </c>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF26B7A-5863-44AB-B8B4-42C54774F879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059460B2-7A53-4258-BFFB-002F52A9231C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
+    <workbookView minimized="1" xWindow="21585" yWindow="3435" windowWidth="28110" windowHeight="16200" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13159,8 +13159,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14726,8 +14726,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:13" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="86" t="s">
         <v>126</v>
       </c>
@@ -14742,8 +14742,11 @@
       <c r="I114" s="87"/>
       <c r="J114" s="87"/>
       <c r="K114" s="88"/>
+      <c r="M114">
+        <v>87</v>
+      </c>
     </row>
-    <row r="115" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E115" s="10"/>
       <c r="G115" s="33"/>
       <c r="H115" s="1"/>
@@ -14751,17 +14754,17 @@
       <c r="J115" s="1"/>
       <c r="K115" s="8"/>
     </row>
-    <row r="116" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E116" s="10"/>
       <c r="G116" s="43"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E117" s="10"/>
       <c r="G117" s="43"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="91" t="s">
         <v>125</v>
       </c>
@@ -14769,17 +14772,17 @@
       <c r="G118" s="43"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E119" s="10"/>
       <c r="G119" s="43"/>
       <c r="K119" s="10"/>
     </row>
-    <row r="120" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E120" s="10"/>
       <c r="G120" s="9"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="43" t="s">
         <v>102</v>
       </c>
@@ -14787,7 +14790,7 @@
       <c r="G121" s="9"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="43" t="s">
         <v>103</v>
       </c>
@@ -14798,7 +14801,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="8"/>
     </row>
-    <row r="123" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="87"/>
       <c r="B123" s="87"/>
       <c r="C123" s="87"/>
@@ -14810,14 +14813,14 @@
       <c r="J123" s="1"/>
       <c r="K123" s="8"/>
     </row>
-    <row r="124" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G124" s="9"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="8"/>
     </row>
-    <row r="125" spans="1:11" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>129</v>
       </c>
@@ -14827,7 +14830,7 @@
       <c r="J125" s="1"/>
       <c r="K125" s="8"/>
     </row>
-    <row r="126" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="86"/>
       <c r="B126" s="87" t="s">
         <v>98</v>
@@ -14841,7 +14844,7 @@
       <c r="J126" s="1"/>
       <c r="K126" s="8"/>
     </row>
-    <row r="127" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="43"/>
       <c r="E127" s="10"/>
       <c r="G127" s="9"/>
@@ -14850,7 +14853,7 @@
       <c r="J127" s="1"/>
       <c r="K127" s="8"/>
     </row>
-    <row r="128" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="43" t="s">
         <v>99</v>
       </c>

--- a/anjou/의약품공급내역보고(kips,nims).xlsx
+++ b/anjou/의약품공급내역보고(kips,nims).xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059460B2-7A53-4258-BFFB-002F52A9231C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2A3120A-07B1-43A3-B2C0-95AF511780C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="21585" yWindow="3435" windowWidth="28110" windowHeight="16200" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3D9FAD46-420C-4E4C-AD5A-42A0B30E2C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="176">
   <si>
     <t>의약품관리종합정보포탈 (https://biz.kpis.or.kr) &gt; sims</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1221,6 +1222,10 @@
   </si>
   <si>
     <t>다른 이익률 0% 짜리들도 얼추 비슷해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노자임 캡슐도 거의 검수하고 내보내</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13159,8 +13164,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I134" sqref="I134"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13917,8 +13922,8 @@
       <c r="K30" s="48"/>
     </row>
     <row r="31" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="94" t="s">
-        <v>174</v>
+      <c r="A31" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="2"/>
@@ -13929,8 +13934,8 @@
       <c r="K31" s="48"/>
     </row>
     <row r="32" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>165</v>
+      <c r="A32" s="94" t="s">
+        <v>174</v>
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="60"/>
@@ -13941,6 +13946,9 @@
       <c r="K32" s="48"/>
     </row>
     <row r="33" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>165</v>
+      </c>
       <c r="G33" s="47"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
@@ -13950,9 +13958,6 @@
       <c r="K33" s="48"/>
     </row>
     <row r="34" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>122</v>
-      </c>
       <c r="G34" s="47"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
@@ -13962,8 +13967,8 @@
       <c r="K34" s="48"/>
     </row>
     <row r="35" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>123</v>
+      <c r="A35" t="s">
+        <v>122</v>
       </c>
       <c r="G35" s="76"/>
       <c r="H35" s="49"/>
@@ -13974,6 +13979,9 @@
       <c r="K35" s="50"/>
     </row>
     <row r="36" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="G36" t="s">
         <v>124</v>
       </c>
